--- a/benchmarktests/testdefinitions/Benchmartktest_traject 14-2.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject 14-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AB8DE4-264B-4F9E-87E2-4CD3BB704A92}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0159B1A-1699-4985-B4AF-594DAD84DC0D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="7665" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="10" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
+    <workbookView xWindow="4410" yWindow="4410" windowWidth="28800" windowHeight="15435" firstSheet="1" activeTab="1" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="182">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -584,6 +584,9 @@
   </si>
   <si>
     <t>14-2</t>
+  </si>
+  <si>
+    <t>Trajectlengte</t>
   </si>
 </sst>
 </file>
@@ -2142,15 +2145,15 @@
       </c>
       <c r="E2" t="str">
         <f>IF(D2="GR","-",INDEX('Normen en duidingsklassen'!$D$4:$D$8,H2))</f>
-        <v>D</v>
+        <v>A+</v>
       </c>
       <c r="G2">
         <f t="array" ref="G2">MIN(IF('Normen en duidingsklassen'!$F$4:$F$8&gt;D2,'Normen en duidingsklassen'!$F$4:$F$8))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f>IFERROR(MATCH(G2,'Normen en duidingsklassen'!$F$4:$F$8),1)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -2163,15 +2166,15 @@
       </c>
       <c r="E3" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$4:$D$8,H3)</f>
-        <v>D</v>
+        <v>A+</v>
       </c>
       <c r="G3">
         <f t="array" ref="G3">MIN(IF('Normen en duidingsklassen'!$F$4:$F$8&gt;D3,'Normen en duidingsklassen'!$F$4:$F$8))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <f>IFERROR(MATCH(G3,'Normen en duidingsklassen'!$F$4:$F$8),1)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2429,7 +2432,7 @@
   </sheetPr>
   <dimension ref="B1:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:D106"/>
     </sheetView>
   </sheetViews>
@@ -6732,7 +6735,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CBD9B7-2F4E-4E0F-B0DE-0C76068107FF}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6786,10 +6791,16 @@
         <v>1.111111111111111E-5</v>
       </c>
       <c r="F4" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="9">
+        <v>20.93</v>
+      </c>
       <c r="D5" s="65" t="s">
         <v>42</v>
       </c>
@@ -6833,7 +6844,7 @@
         <v>45</v>
       </c>
       <c r="E8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="27">
         <f>E7</f>
@@ -6967,7 +6978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49710E67-B736-4749-B620-06835F5DE469}">
   <dimension ref="B2:Y31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:D29"/>
     </sheetView>
   </sheetViews>

--- a/benchmarktests/testdefinitions/Benchmartktest_traject 14-2.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject 14-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CA3E05-37A6-4A85-89E7-85BDFA97349C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA90FBF5-2612-4EAE-86B0-23EE669E29B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="7950" windowWidth="28800" windowHeight="15435" firstSheet="1" activeTab="7" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
+    <workbookView xWindow="-28800" yWindow="7950" windowWidth="28800" windowHeight="15435" firstSheet="1" activeTab="1" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="182">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -239,9 +239,6 @@
   </si>
   <si>
     <t>+0</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>-I</t>
@@ -620,7 +617,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -666,12 +663,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF8EDA97"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,7 +866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -943,17 +934,16 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1894,19 +1884,19 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="53" t="s">
+      <c r="E2" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="54" t="s">
         <v>93</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -1914,7 +1904,7 @@
         <v>58</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>28</v>
@@ -1928,10 +1918,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>28</v>
@@ -1945,10 +1935,10 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>29</v>
@@ -1957,21 +1947,21 @@
         <v>28</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>29</v>
@@ -1979,16 +1969,16 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>29</v>
@@ -1996,10 +1986,10 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>29</v>
@@ -2013,16 +2003,16 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>29</v>
@@ -2030,16 +2020,16 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>29</v>
@@ -2047,10 +2037,10 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>29</v>
@@ -2064,10 +2054,10 @@
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>108</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>109</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>29</v>
@@ -2076,7 +2066,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2140,7 +2130,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1">
         <f>IFERROR(1-PRODUCT(G7:G12),"GR")</f>
@@ -2161,7 +2151,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1">
         <f>1-PRODUCT(H7:H12)</f>
@@ -2182,7 +2172,7 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2194,18 +2184,18 @@
         <v>49</v>
       </c>
       <c r="E6" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="H6" s="35" t="s">
         <v>87</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="29">
         <f>STPH!C5</f>
@@ -2227,7 +2217,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="31">
         <f>STBI!C5</f>
@@ -2249,7 +2239,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="31">
         <f>GEKB!C5</f>
@@ -2271,7 +2261,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="31">
         <f>DA!C5</f>
@@ -2293,7 +2283,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="31">
         <f>STKWp!C5</f>
@@ -2315,7 +2305,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="31">
         <f>HTKW!C5</f>
@@ -2452,29 +2442,29 @@
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="70" t="s">
-        <v>179</v>
+      <c r="D2" s="69" t="s">
+        <v>178</v>
       </c>
       <c r="E2" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="G2" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="H2" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="I2" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="J2" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="54" t="s">
         <v>82</v>
-      </c>
-      <c r="J2" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" s="54" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
@@ -2498,7 +2488,7 @@
       </c>
       <c r="G3" s="4" t="str">
         <f t="array" ref="G3">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B3,C3),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H3" s="4" t="str">
         <f t="array" ref="H3">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B3,C3),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -2538,7 +2528,7 @@
       </c>
       <c r="G4" s="9" t="str">
         <f t="array" ref="G4">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B4,C4),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H4" s="9" t="str">
         <f t="array" ref="H4">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B4,C4),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -2578,7 +2568,7 @@
       </c>
       <c r="G5" s="9" t="str">
         <f t="array" ref="G5">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B5,C5),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H5" s="9" t="str">
         <f t="array" ref="H5">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B5,C5),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -2618,7 +2608,7 @@
       </c>
       <c r="G6" s="9" t="str">
         <f t="array" ref="G6">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B6,C6),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H6" s="9" t="str">
         <f t="array" ref="H6">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B6,C6),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -2658,7 +2648,7 @@
       </c>
       <c r="G7" s="9" t="str">
         <f t="array" ref="G7">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B7,C7),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H7" s="9" t="str">
         <f t="array" ref="H7">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B7,C7),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -2698,7 +2688,7 @@
       </c>
       <c r="G8" s="9" t="str">
         <f t="array" ref="G8">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B8,C8),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H8" s="9" t="str">
         <f t="array" ref="H8">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B8,C8),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -2738,7 +2728,7 @@
       </c>
       <c r="G9" s="9" t="str">
         <f t="array" ref="G9">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B9,C9),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H9" s="9" t="str">
         <f t="array" ref="H9">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B9,C9),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -2778,7 +2768,7 @@
       </c>
       <c r="G10" s="9" t="str">
         <f t="array" ref="G10">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B10,C10),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H10" s="9" t="str">
         <f t="array" ref="H10">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B10,C10),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -2926,11 +2916,11 @@
       </c>
       <c r="D14" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E14" s="9" t="str">
         <f t="array" ref="E14">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B14,C14),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F14" s="9" t="str">
         <f t="array" ref="F14">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B14,C14),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -2966,11 +2956,11 @@
       </c>
       <c r="D15" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E15" s="9" t="str">
         <f t="array" ref="E15">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B15,C15),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F15" s="9" t="str">
         <f t="array" ref="F15">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B15,C15),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -3006,11 +2996,11 @@
       </c>
       <c r="D16" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E16" s="9" t="str">
         <f t="array" ref="E16">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B16,C16),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F16" s="9" t="str">
         <f t="array" ref="F16">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B16,C16),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -3018,7 +3008,7 @@
       </c>
       <c r="G16" s="9" t="str">
         <f t="array" ref="G16">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B16,C16),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H16" s="9" t="str">
         <f t="array" ref="H16">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B16,C16),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3046,11 +3036,11 @@
       </c>
       <c r="D17" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="E17" s="9" t="str">
         <f t="array" ref="E17">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B17,C17),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="F17" s="9" t="str">
         <f t="array" ref="F17">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B17,C17),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -3058,7 +3048,7 @@
       </c>
       <c r="G17" s="9" t="str">
         <f t="array" ref="G17">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B17,C17),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H17" s="9" t="str">
         <f t="array" ref="H17">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B17,C17),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3086,11 +3076,11 @@
       </c>
       <c r="D18" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="E18" s="9" t="str">
         <f t="array" ref="E18">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B18,C18),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="F18" s="9" t="str">
         <f t="array" ref="F18">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B18,C18),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -3098,7 +3088,7 @@
       </c>
       <c r="G18" s="9" t="str">
         <f t="array" ref="G18">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B18,C18),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H18" s="9" t="str">
         <f t="array" ref="H18">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B18,C18),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3126,11 +3116,11 @@
       </c>
       <c r="D19" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="E19" s="9" t="str">
         <f t="array" ref="E19">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B19,C19),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="F19" s="9" t="str">
         <f t="array" ref="F19">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B19,C19),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -3138,7 +3128,7 @@
       </c>
       <c r="G19" s="9" t="str">
         <f t="array" ref="G19">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B19,C19),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H19" s="9" t="str">
         <f t="array" ref="H19">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B19,C19),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3166,11 +3156,11 @@
       </c>
       <c r="D20" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="E20" s="9" t="str">
         <f t="array" ref="E20">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B20,C20),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="F20" s="9" t="str">
         <f t="array" ref="F20">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B20,C20),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -3206,11 +3196,11 @@
       </c>
       <c r="D21" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E21" s="9" t="str">
         <f t="array" ref="E21">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B21,C21),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F21" s="9" t="str">
         <f t="array" ref="F21">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B21,C21),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -3246,11 +3236,11 @@
       </c>
       <c r="D22" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E22" s="9" t="str">
         <f t="array" ref="E22">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B22,C22),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F22" s="9" t="str">
         <f t="array" ref="F22">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B22,C22),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -3258,7 +3248,7 @@
       </c>
       <c r="G22" s="9" t="str">
         <f t="array" ref="G22">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B22,C22),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H22" s="9" t="str">
         <f t="array" ref="H22">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B22,C22),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3286,11 +3276,11 @@
       </c>
       <c r="D23" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E23" s="9" t="str">
         <f t="array" ref="E23">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B23,C23),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F23" s="9" t="str">
         <f t="array" ref="F23">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B23,C23),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -3298,7 +3288,7 @@
       </c>
       <c r="G23" s="9" t="str">
         <f t="array" ref="G23">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B23,C23),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H23" s="9" t="str">
         <f t="array" ref="H23">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B23,C23),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3326,11 +3316,11 @@
       </c>
       <c r="D24" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="E24" s="9" t="str">
         <f t="array" ref="E24">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B24,C24),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="F24" s="9" t="str">
         <f t="array" ref="F24">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B24,C24),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -3338,7 +3328,7 @@
       </c>
       <c r="G24" s="9" t="str">
         <f t="array" ref="G24">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B24,C24),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H24" s="9" t="str">
         <f t="array" ref="H24">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B24,C24),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3366,11 +3356,11 @@
       </c>
       <c r="D25" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="E25" s="9" t="str">
         <f t="array" ref="E25">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B25,C25),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="F25" s="9" t="str">
         <f t="array" ref="F25">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B25,C25),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -3378,7 +3368,7 @@
       </c>
       <c r="G25" s="9" t="str">
         <f t="array" ref="G25">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B25,C25),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H25" s="9" t="str">
         <f t="array" ref="H25">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B25,C25),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3406,11 +3396,11 @@
       </c>
       <c r="D26" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="E26" s="9" t="str">
         <f t="array" ref="E26">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B26,C26),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="F26" s="9" t="str">
         <f t="array" ref="F26">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B26,C26),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -3614,7 +3604,7 @@
       </c>
       <c r="F31" s="9" t="str">
         <f t="array" ref="F31">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B31,C31),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="G31" s="9" t="str">
         <f t="array" ref="G31">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B31,C31),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
@@ -3654,7 +3644,7 @@
       </c>
       <c r="F32" s="9" t="str">
         <f t="array" ref="F32">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B32,C32),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="G32" s="9" t="str">
         <f t="array" ref="G32">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B32,C32),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
@@ -3694,7 +3684,7 @@
       </c>
       <c r="F33" s="9" t="str">
         <f t="array" ref="F33">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B33,C33),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="G33" s="9" t="str">
         <f t="array" ref="G33">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B33,C33),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
@@ -3734,7 +3724,7 @@
       </c>
       <c r="F34" s="9" t="str">
         <f t="array" ref="F34">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B34,C34),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="G34" s="9" t="str">
         <f t="array" ref="G34">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B34,C34),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
@@ -3774,7 +3764,7 @@
       </c>
       <c r="F35" s="9" t="str">
         <f t="array" ref="F35">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B35,C35),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="G35" s="9" t="str">
         <f t="array" ref="G35">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B35,C35),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
@@ -3814,7 +3804,7 @@
       </c>
       <c r="F36" s="9" t="str">
         <f t="array" ref="F36">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B36,C36),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="G36" s="9" t="str">
         <f t="array" ref="G36">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B36,C36),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
@@ -3846,15 +3836,15 @@
       </c>
       <c r="D37" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>-I</v>
       </c>
       <c r="E37" s="9" t="str">
         <f t="array" ref="E37">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B37,C37),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="F37" s="9" t="str">
         <f t="array" ref="F37">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B37,C37),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="G37" s="9" t="str">
         <f t="array" ref="G37">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B37,C37),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
@@ -3886,11 +3876,11 @@
       </c>
       <c r="D38" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>-I</v>
       </c>
       <c r="E38" s="9" t="str">
         <f t="array" ref="E38">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B38,C38),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="F38" s="9" t="str">
         <f t="array" ref="F38">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B38,C38),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -3926,11 +3916,11 @@
       </c>
       <c r="D39" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>-I</v>
       </c>
       <c r="E39" s="9" t="str">
         <f t="array" ref="E39">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B39,C39),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="F39" s="9" t="str">
         <f t="array" ref="F39">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B39,C39),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -3938,7 +3928,7 @@
       </c>
       <c r="G39" s="9" t="str">
         <f t="array" ref="G39">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B39,C39),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H39" s="9" t="str">
         <f t="array" ref="H39">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B39,C39),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3966,11 +3956,11 @@
       </c>
       <c r="D40" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>-I</v>
       </c>
       <c r="E40" s="9" t="str">
         <f t="array" ref="E40">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B40,C40),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="F40" s="9" t="str">
         <f t="array" ref="F40">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B40,C40),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -3978,7 +3968,7 @@
       </c>
       <c r="G40" s="9" t="str">
         <f t="array" ref="G40">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B40,C40),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H40" s="9" t="str">
         <f t="array" ref="H40">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B40,C40),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4006,11 +3996,11 @@
       </c>
       <c r="D41" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E41" s="9" t="str">
         <f t="array" ref="E41">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B41,C41),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="F41" s="9" t="str">
         <f t="array" ref="F41">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B41,C41),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -4018,7 +4008,7 @@
       </c>
       <c r="G41" s="9" t="str">
         <f t="array" ref="G41">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B41,C41),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H41" s="9" t="str">
         <f t="array" ref="H41">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B41,C41),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4046,7 +4036,7 @@
       </c>
       <c r="D42" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E42" s="9" t="str">
         <f t="array" ref="E42">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B42,C42),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -4058,7 +4048,7 @@
       </c>
       <c r="G42" s="9" t="str">
         <f t="array" ref="G42">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B42,C42),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H42" s="9" t="str">
         <f t="array" ref="H42">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B42,C42),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4086,7 +4076,7 @@
       </c>
       <c r="D43" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E43" s="9" t="str">
         <f t="array" ref="E43">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B43,C43),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -4098,7 +4088,7 @@
       </c>
       <c r="G43" s="9" t="str">
         <f t="array" ref="G43">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B43,C43),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H43" s="9" t="str">
         <f t="array" ref="H43">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B43,C43),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4126,7 +4116,7 @@
       </c>
       <c r="D44" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E44" s="9" t="str">
         <f t="array" ref="E44">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B44,C44),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -4138,7 +4128,7 @@
       </c>
       <c r="G44" s="9" t="str">
         <f t="array" ref="G44">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B44,C44),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H44" s="9" t="str">
         <f t="array" ref="H44">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B44,C44),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4166,7 +4156,7 @@
       </c>
       <c r="D45" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E45" s="9" t="str">
         <f t="array" ref="E45">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B45,C45),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -4178,7 +4168,7 @@
       </c>
       <c r="G45" s="9" t="str">
         <f t="array" ref="G45">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B45,C45),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H45" s="9" t="str">
         <f t="array" ref="H45">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B45,C45),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4206,7 +4196,7 @@
       </c>
       <c r="D46" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E46" s="9" t="str">
         <f t="array" ref="E46">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B46,C46),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -4218,7 +4208,7 @@
       </c>
       <c r="G46" s="9" t="str">
         <f t="array" ref="G46">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B46,C46),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H46" s="9" t="str">
         <f t="array" ref="H46">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B46,C46),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4246,7 +4236,7 @@
       </c>
       <c r="D47" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E47" s="9" t="str">
         <f t="array" ref="E47">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B47,C47),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -4258,7 +4248,7 @@
       </c>
       <c r="G47" s="9" t="str">
         <f t="array" ref="G47">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B47,C47),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H47" s="9" t="str">
         <f t="array" ref="H47">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B47,C47),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4298,7 +4288,7 @@
       </c>
       <c r="G48" s="9" t="str">
         <f t="array" ref="G48">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B48,C48),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H48" s="9" t="str">
         <f t="array" ref="H48">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B48,C48),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4338,7 +4328,7 @@
       </c>
       <c r="G49" s="9" t="str">
         <f t="array" ref="G49">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B49,C49),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H49" s="9" t="str">
         <f t="array" ref="H49">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B49,C49),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4378,7 +4368,7 @@
       </c>
       <c r="G50" s="9" t="str">
         <f t="array" ref="G50">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B50,C50),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H50" s="9" t="str">
         <f t="array" ref="H50">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B50,C50),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4418,7 +4408,7 @@
       </c>
       <c r="G51" s="9" t="str">
         <f t="array" ref="G51">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B51,C51),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H51" s="9" t="str">
         <f t="array" ref="H51">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B51,C51),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4458,7 +4448,7 @@
       </c>
       <c r="G52" s="9" t="str">
         <f t="array" ref="G52">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B52,C52),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H52" s="9" t="str">
         <f t="array" ref="H52">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B52,C52),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4498,7 +4488,7 @@
       </c>
       <c r="G53" s="9" t="str">
         <f t="array" ref="G53">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B53,C53),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H53" s="9" t="str">
         <f t="array" ref="H53">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B53,C53),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4538,7 +4528,7 @@
       </c>
       <c r="G54" s="9" t="str">
         <f t="array" ref="G54">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B54,C54),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H54" s="9" t="str">
         <f t="array" ref="H54">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B54,C54),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4578,7 +4568,7 @@
       </c>
       <c r="G55" s="9" t="str">
         <f t="array" ref="G55">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B55,C55),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H55" s="9" t="str">
         <f t="array" ref="H55">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B55,C55),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4618,7 +4608,7 @@
       </c>
       <c r="G56" s="9" t="str">
         <f t="array" ref="G56">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B56,C56),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H56" s="9" t="str">
         <f t="array" ref="H56">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B56,C56),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4658,7 +4648,7 @@
       </c>
       <c r="G57" s="9" t="str">
         <f t="array" ref="G57">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B57,C57),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H57" s="9" t="str">
         <f t="array" ref="H57">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B57,C57),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4698,7 +4688,7 @@
       </c>
       <c r="G58" s="9" t="str">
         <f t="array" ref="G58">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B58,C58),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H58" s="9" t="str">
         <f t="array" ref="H58">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B58,C58),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4738,7 +4728,7 @@
       </c>
       <c r="G59" s="9" t="str">
         <f t="array" ref="G59">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B59,C59),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H59" s="9" t="str">
         <f t="array" ref="H59">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B59,C59),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4778,7 +4768,7 @@
       </c>
       <c r="G60" s="9" t="str">
         <f t="array" ref="G60">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B60,C60),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H60" s="9" t="str">
         <f t="array" ref="H60">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B60,C60),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4818,7 +4808,7 @@
       </c>
       <c r="G61" s="9" t="str">
         <f t="array" ref="G61">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B61,C61),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H61" s="9" t="str">
         <f t="array" ref="H61">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B61,C61),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4846,11 +4836,11 @@
       </c>
       <c r="D62" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="E62" s="9" t="str">
         <f t="array" ref="E62">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B62,C62),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="F62" s="9" t="str">
         <f t="array" ref="F62">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B62,C62),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -4858,7 +4848,7 @@
       </c>
       <c r="G62" s="9" t="str">
         <f t="array" ref="G62">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B62,C62),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H62" s="9" t="str">
         <f t="array" ref="H62">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B62,C62),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4886,19 +4876,19 @@
       </c>
       <c r="D63" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="E63" s="9" t="str">
         <f t="array" ref="E63">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B63,C63),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="F63" s="9" t="str">
         <f t="array" ref="F63">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B63,C63),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="G63" s="9" t="str">
         <f t="array" ref="G63">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B63,C63),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H63" s="9" t="str">
         <f t="array" ref="H63">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B63,C63),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4926,19 +4916,19 @@
       </c>
       <c r="D64" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="E64" s="9" t="str">
         <f t="array" ref="E64">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B64,C64),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="F64" s="9" t="str">
         <f t="array" ref="F64">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B64,C64),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="G64" s="9" t="str">
         <f t="array" ref="G64">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B64,C64),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H64" s="9" t="str">
         <f t="array" ref="H64">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B64,C64),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4966,19 +4956,19 @@
       </c>
       <c r="D65" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="E65" s="9" t="str">
         <f t="array" ref="E65">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B65,C65),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="F65" s="9" t="str">
         <f t="array" ref="F65">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B65,C65),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="G65" s="9" t="str">
         <f t="array" ref="G65">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B65,C65),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H65" s="9" t="str">
         <f t="array" ref="H65">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B65,C65),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5006,19 +4996,19 @@
       </c>
       <c r="D66" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="E66" s="9" t="str">
         <f t="array" ref="E66">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B66,C66),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="F66" s="9" t="str">
         <f t="array" ref="F66">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B66,C66),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="G66" s="9" t="str">
         <f t="array" ref="G66">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B66,C66),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H66" s="9" t="str">
         <f t="array" ref="H66">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B66,C66),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5046,19 +5036,19 @@
       </c>
       <c r="D67" s="23" t="str">
         <f t="shared" ref="D67:D106" si="1">IF(COUNTIF(E67:K67,"D")&gt;0,"D",IF(COUNTIF(E67:K67,"-III")&gt;0,"-III",IF(COUNTIF(E67:K67,"-II")&gt;0,"-II",IF(COUNTIF(E67:K67,"-I")&gt;0,"-I",IF(COUNTIF(E67:K67,"+0")&gt;0,"+0",IF(COUNTIF(E67:K67,"+I")&gt;0,"+I",IF(COUNTIF(E67:K67,"+II")&gt;0,"+II",IF(COUNTIF(E67:K67,"+III")&gt;0,"+III","ND"))))))))</f>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="E67" s="9" t="str">
         <f t="array" ref="E67">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B67,C67),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="F67" s="9" t="str">
         <f t="array" ref="F67">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B67,C67),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="G67" s="9" t="str">
         <f t="array" ref="G67">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B67,C67),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H67" s="9" t="str">
         <f t="array" ref="H67">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B67,C67),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5086,19 +5076,19 @@
       </c>
       <c r="D68" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="E68" s="9" t="str">
         <f t="array" ref="E68">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B68,C68),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="F68" s="9" t="str">
         <f t="array" ref="F68">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B68,C68),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="G68" s="9" t="str">
         <f t="array" ref="G68">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B68,C68),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H68" s="9" t="str">
         <f t="array" ref="H68">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B68,C68),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5126,19 +5116,19 @@
       </c>
       <c r="D69" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="E69" s="9" t="str">
         <f t="array" ref="E69">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B69,C69),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="F69" s="9" t="str">
         <f t="array" ref="F69">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B69,C69),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="G69" s="9" t="str">
         <f t="array" ref="G69">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B69,C69),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H69" s="9" t="str">
         <f t="array" ref="H69">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B69,C69),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5166,11 +5156,11 @@
       </c>
       <c r="D70" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="E70" s="9" t="str">
         <f t="array" ref="E70">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B70,C70),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="F70" s="9" t="str">
         <f t="array" ref="F70">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B70,C70),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -5178,7 +5168,7 @@
       </c>
       <c r="G70" s="9" t="str">
         <f t="array" ref="G70">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B70,C70),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H70" s="9" t="str">
         <f t="array" ref="H70">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B70,C70),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5206,11 +5196,11 @@
       </c>
       <c r="D71" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="E71" s="9" t="str">
         <f t="array" ref="E71">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B71,C71),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="F71" s="9" t="str">
         <f t="array" ref="F71">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B71,C71),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -5218,7 +5208,7 @@
       </c>
       <c r="G71" s="9" t="str">
         <f t="array" ref="G71">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B71,C71),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H71" s="9" t="str">
         <f t="array" ref="H71">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B71,C71),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5246,11 +5236,11 @@
       </c>
       <c r="D72" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="E72" s="9" t="str">
         <f t="array" ref="E72">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B72,C72),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="F72" s="9" t="str">
         <f t="array" ref="F72">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B72,C72),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -5258,7 +5248,7 @@
       </c>
       <c r="G72" s="9" t="str">
         <f t="array" ref="G72">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B72,C72),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H72" s="9" t="str">
         <f t="array" ref="H72">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B72,C72),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5286,11 +5276,11 @@
       </c>
       <c r="D73" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="E73" s="9" t="str">
         <f t="array" ref="E73">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B73,C73),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="F73" s="9" t="str">
         <f t="array" ref="F73">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B73,C73),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -5298,7 +5288,7 @@
       </c>
       <c r="G73" s="9" t="str">
         <f t="array" ref="G73">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B73,C73),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H73" s="9" t="str">
         <f t="array" ref="H73">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B73,C73),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5326,11 +5316,11 @@
       </c>
       <c r="D74" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="E74" s="9" t="str">
         <f t="array" ref="E74">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B74,C74),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="F74" s="9" t="str">
         <f t="array" ref="F74">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B74,C74),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -5338,7 +5328,7 @@
       </c>
       <c r="G74" s="9" t="str">
         <f t="array" ref="G74">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B74,C74),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H74" s="9" t="str">
         <f t="array" ref="H74">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B74,C74),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5366,11 +5356,11 @@
       </c>
       <c r="D75" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="E75" s="9" t="str">
         <f t="array" ref="E75">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B75,C75),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="F75" s="9" t="str">
         <f t="array" ref="F75">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B75,C75),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -5378,7 +5368,7 @@
       </c>
       <c r="G75" s="9" t="str">
         <f t="array" ref="G75">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B75,C75),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H75" s="9" t="str">
         <f t="array" ref="H75">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B75,C75),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5418,7 +5408,7 @@
       </c>
       <c r="G76" s="9" t="str">
         <f t="array" ref="G76">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B76,C76),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H76" s="9" t="str">
         <f t="array" ref="H76">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B76,C76),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5458,7 +5448,7 @@
       </c>
       <c r="G77" s="9" t="str">
         <f t="array" ref="G77">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B77,C77),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H77" s="9" t="str">
         <f t="array" ref="H77">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B77,C77),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5498,7 +5488,7 @@
       </c>
       <c r="G78" s="9" t="str">
         <f t="array" ref="G78">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B78,C78),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H78" s="9" t="str">
         <f t="array" ref="H78">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B78,C78),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5538,7 +5528,7 @@
       </c>
       <c r="G79" s="9" t="str">
         <f t="array" ref="G79">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B79,C79),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H79" s="9" t="str">
         <f t="array" ref="H79">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B79,C79),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5578,7 +5568,7 @@
       </c>
       <c r="G80" s="9" t="str">
         <f t="array" ref="G80">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B80,C80),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H80" s="9" t="str">
         <f t="array" ref="H80">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B80,C80),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5618,7 +5608,7 @@
       </c>
       <c r="G81" s="9" t="str">
         <f t="array" ref="G81">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B81,C81),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H81" s="9" t="str">
         <f t="array" ref="H81">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B81,C81),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5658,7 +5648,7 @@
       </c>
       <c r="G82" s="9" t="str">
         <f t="array" ref="G82">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B82,C82),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H82" s="9" t="str">
         <f t="array" ref="H82">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B82,C82),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5698,7 +5688,7 @@
       </c>
       <c r="G83" s="9" t="str">
         <f t="array" ref="G83">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B83,C83),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H83" s="9" t="str">
         <f t="array" ref="H83">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B83,C83),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5738,7 +5728,7 @@
       </c>
       <c r="G84" s="9" t="str">
         <f t="array" ref="G84">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B84,C84),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H84" s="9" t="str">
         <f t="array" ref="H84">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B84,C84),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5766,7 +5756,7 @@
       </c>
       <c r="D85" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E85" s="9" t="str">
         <f t="array" ref="E85">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B85,C85),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -5778,7 +5768,7 @@
       </c>
       <c r="G85" s="9" t="str">
         <f t="array" ref="G85">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B85,C85),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H85" s="9" t="str">
         <f t="array" ref="H85">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B85,C85),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5806,7 +5796,7 @@
       </c>
       <c r="D86" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E86" s="9" t="str">
         <f t="array" ref="E86">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B86,C86),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -5818,7 +5808,7 @@
       </c>
       <c r="G86" s="9" t="str">
         <f t="array" ref="G86">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B86,C86),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H86" s="9" t="str">
         <f t="array" ref="H86">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B86,C86),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5846,7 +5836,7 @@
       </c>
       <c r="D87" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E87" s="9" t="str">
         <f t="array" ref="E87">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B87,C87),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -5858,7 +5848,7 @@
       </c>
       <c r="G87" s="9" t="str">
         <f t="array" ref="G87">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B87,C87),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H87" s="9" t="str">
         <f t="array" ref="H87">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B87,C87),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5870,7 +5860,7 @@
       </c>
       <c r="J87" s="9" t="str">
         <f t="array" ref="J87">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B87,C87),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="K87" s="12" t="str">
         <f t="array" ref="K87">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B87,C87),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
@@ -5886,7 +5876,7 @@
       </c>
       <c r="D88" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E88" s="9" t="str">
         <f t="array" ref="E88">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B88,C88),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -5898,7 +5888,7 @@
       </c>
       <c r="G88" s="9" t="str">
         <f t="array" ref="G88">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B88,C88),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H88" s="9" t="str">
         <f t="array" ref="H88">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B88,C88),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5926,7 +5916,7 @@
       </c>
       <c r="D89" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E89" s="9" t="str">
         <f t="array" ref="E89">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B89,C89),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -5938,7 +5928,7 @@
       </c>
       <c r="G89" s="9" t="str">
         <f t="array" ref="G89">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B89,C89),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H89" s="9" t="str">
         <f t="array" ref="H89">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B89,C89),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5966,7 +5956,7 @@
       </c>
       <c r="D90" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E90" s="9" t="str">
         <f t="array" ref="E90">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B90,C90),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -5978,7 +5968,7 @@
       </c>
       <c r="G90" s="9" t="str">
         <f t="array" ref="G90">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B90,C90),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H90" s="9" t="str">
         <f t="array" ref="H90">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B90,C90),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6006,7 +5996,7 @@
       </c>
       <c r="D91" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E91" s="9" t="str">
         <f t="array" ref="E91">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B91,C91),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6018,7 +6008,7 @@
       </c>
       <c r="G91" s="9" t="str">
         <f t="array" ref="G91">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B91,C91),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H91" s="9" t="str">
         <f t="array" ref="H91">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B91,C91),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6046,7 +6036,7 @@
       </c>
       <c r="D92" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+II</v>
+        <v>+I</v>
       </c>
       <c r="E92" s="9" t="str">
         <f t="array" ref="E92">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B92,C92),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6058,7 +6048,7 @@
       </c>
       <c r="G92" s="9" t="str">
         <f t="array" ref="G92">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B92,C92),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H92" s="9" t="str">
         <f t="array" ref="H92">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B92,C92),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6066,11 +6056,11 @@
       </c>
       <c r="I92" s="9" t="str">
         <f t="array" ref="I92">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B92,C92),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+II</v>
+        <v>+I</v>
       </c>
       <c r="J92" s="9" t="str">
         <f t="array" ref="J92">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B92,C92),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="K92" s="12" t="str">
         <f t="array" ref="K92">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B92,C92),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
@@ -6086,7 +6076,7 @@
       </c>
       <c r="D93" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E93" s="9" t="str">
         <f t="array" ref="E93">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B93,C93),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6098,7 +6088,7 @@
       </c>
       <c r="G93" s="9" t="str">
         <f t="array" ref="G93">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B93,C93),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H93" s="9" t="str">
         <f t="array" ref="H93">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B93,C93),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6126,7 +6116,7 @@
       </c>
       <c r="D94" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E94" s="9" t="str">
         <f t="array" ref="E94">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B94,C94),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6138,7 +6128,7 @@
       </c>
       <c r="G94" s="9" t="str">
         <f t="array" ref="G94">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B94,C94),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H94" s="9" t="str">
         <f t="array" ref="H94">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B94,C94),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6166,7 +6156,7 @@
       </c>
       <c r="D95" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E95" s="9" t="str">
         <f t="array" ref="E95">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B95,C95),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6178,7 +6168,7 @@
       </c>
       <c r="G95" s="9" t="str">
         <f t="array" ref="G95">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B95,C95),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H95" s="9" t="str">
         <f t="array" ref="H95">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B95,C95),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6206,7 +6196,7 @@
       </c>
       <c r="D96" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E96" s="9" t="str">
         <f t="array" ref="E96">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B96,C96),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6218,7 +6208,7 @@
       </c>
       <c r="G96" s="9" t="str">
         <f t="array" ref="G96">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B96,C96),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H96" s="9" t="str">
         <f t="array" ref="H96">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B96,C96),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6246,7 +6236,7 @@
       </c>
       <c r="D97" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E97" s="9" t="str">
         <f t="array" ref="E97">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B97,C97),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6258,7 +6248,7 @@
       </c>
       <c r="G97" s="9" t="str">
         <f t="array" ref="G97">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B97,C97),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H97" s="9" t="str">
         <f t="array" ref="H97">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B97,C97),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6286,7 +6276,7 @@
       </c>
       <c r="D98" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E98" s="9" t="str">
         <f t="array" ref="E98">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B98,C98),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6298,7 +6288,7 @@
       </c>
       <c r="G98" s="9" t="str">
         <f t="array" ref="G98">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B98,C98),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H98" s="9" t="str">
         <f t="array" ref="H98">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B98,C98),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6326,7 +6316,7 @@
       </c>
       <c r="D99" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E99" s="9" t="str">
         <f t="array" ref="E99">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B99,C99),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6338,7 +6328,7 @@
       </c>
       <c r="G99" s="9" t="str">
         <f t="array" ref="G99">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B99,C99),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H99" s="9" t="str">
         <f t="array" ref="H99">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B99,C99),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6366,7 +6356,7 @@
       </c>
       <c r="D100" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E100" s="9" t="str">
         <f t="array" ref="E100">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B100,C100),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6378,7 +6368,7 @@
       </c>
       <c r="G100" s="9" t="str">
         <f t="array" ref="G100">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B100,C100),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H100" s="9" t="str">
         <f t="array" ref="H100">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B100,C100),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6406,7 +6396,7 @@
       </c>
       <c r="D101" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E101" s="9" t="str">
         <f t="array" ref="E101">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B101,C101),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6418,7 +6408,7 @@
       </c>
       <c r="G101" s="9" t="str">
         <f t="array" ref="G101">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B101,C101),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H101" s="9" t="str">
         <f t="array" ref="H101">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B101,C101),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6446,7 +6436,7 @@
       </c>
       <c r="D102" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E102" s="9" t="str">
         <f t="array" ref="E102">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B102,C102),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6458,7 +6448,7 @@
       </c>
       <c r="G102" s="9" t="str">
         <f t="array" ref="G102">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B102,C102),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H102" s="9" t="str">
         <f t="array" ref="H102">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B102,C102),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6486,7 +6476,7 @@
       </c>
       <c r="D103" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E103" s="9" t="str">
         <f t="array" ref="E103">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B103,C103),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6498,7 +6488,7 @@
       </c>
       <c r="G103" s="9" t="str">
         <f t="array" ref="G103">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B103,C103),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H103" s="9" t="str">
         <f t="array" ref="H103">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B103,C103),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6526,7 +6516,7 @@
       </c>
       <c r="D104" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E104" s="9" t="str">
         <f t="array" ref="E104">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B104,C104),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6538,7 +6528,7 @@
       </c>
       <c r="G104" s="9" t="str">
         <f t="array" ref="G104">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B104,C104),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H104" s="9" t="str">
         <f t="array" ref="H104">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B104,C104),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6566,7 +6556,7 @@
       </c>
       <c r="D105" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E105" s="9" t="str">
         <f t="array" ref="E105">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B105,C105),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6578,7 +6568,7 @@
       </c>
       <c r="G105" s="9" t="str">
         <f t="array" ref="G105">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B105,C105),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H105" s="9" t="str">
         <f t="array" ref="H105">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B105,C105),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6606,7 +6596,7 @@
       </c>
       <c r="D106" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E106" s="14" t="str">
         <f t="array" ref="E106">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B106,C106),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -6618,7 +6608,7 @@
       </c>
       <c r="G106" s="14" t="str">
         <f t="array" ref="G106">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B106,C106),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H106" s="14" t="str">
         <f t="array" ref="H106">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B106,C106),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -6738,8 +6728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CBD9B7-2F4E-4E0F-B0DE-0C76068107FF}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6754,7 +6744,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>48</v>
@@ -6786,7 +6776,7 @@
         <f>1/1000</f>
         <v>1E-3</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="63" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="5">
@@ -6799,12 +6789,12 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" s="9">
         <v>20.93</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="64" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="10">
@@ -6817,7 +6807,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="65" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="10">
@@ -6830,7 +6820,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="66" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="10">
@@ -6843,7 +6833,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="67" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="15">
@@ -6856,12 +6846,12 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E12" s="54" t="s">
         <v>47</v>
@@ -6872,8 +6862,8 @@
         <v>62</v>
       </c>
       <c r="E13" s="26">
-        <f>1/30*B3</f>
-        <v>1.111111111111111E-5</v>
+        <f>1/1000*B3</f>
+        <v>3.3333333333333335E-7</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6881,8 +6871,8 @@
         <v>63</v>
       </c>
       <c r="E14" s="26">
-        <f>1/10*B3</f>
-        <v>3.3333333333333335E-5</v>
+        <f>1/100*B3</f>
+        <v>3.3333333333333333E-6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6890,8 +6880,8 @@
         <v>64</v>
       </c>
       <c r="E15" s="26">
-        <f>1/3*B3</f>
-        <v>1.111111111111111E-4</v>
+        <f>1/10*B3</f>
+        <v>3.3333333333333335E-5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6917,38 +6907,32 @@
         <v>67</v>
       </c>
       <c r="E18" s="26">
-        <f>3*B4</f>
-        <v>3.0000000000000001E-3</v>
+        <f>10*B4</f>
+        <v>0.01</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D19" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="26">
-        <f>10*B4</f>
-        <v>0.01</v>
+      <c r="E19" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="17"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="28"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D23" s="28"/>
@@ -7023,7 +7007,7 @@
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>28</v>
@@ -7058,7 +7042,7 @@
     </row>
     <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:25" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7069,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>3</v>
@@ -7118,14 +7102,14 @@
         <v>54</v>
       </c>
       <c r="U10" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="V10" s="38" t="s">
         <v>71</v>
-      </c>
-      <c r="V10" s="38" t="s">
-        <v>72</v>
       </c>
       <c r="W10" s="4"/>
       <c r="X10" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y10" s="35"/>
     </row>
@@ -7270,7 +7254,7 @@
       </c>
       <c r="V12" s="9">
         <f>IFERROR(MATCH($U12,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W12" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V12)</f>
@@ -7342,7 +7326,7 @@
       </c>
       <c r="U13" s="9">
         <f t="array" ref="U13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V13" s="9">
         <f>IFERROR(MATCH($U13,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -7398,7 +7382,7 @@
       </c>
       <c r="O14" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="Q14" s="31">
         <f t="shared" si="4"/>
@@ -7418,15 +7402,15 @@
       </c>
       <c r="U14" s="9">
         <f t="array" ref="U14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-5</v>
       </c>
       <c r="V14" s="9">
         <f>IFERROR(MATCH($U14,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W14" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V14)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="X14" s="12" t="b">
         <f t="shared" si="8"/>
@@ -7474,7 +7458,7 @@
       </c>
       <c r="O15" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="Q15" s="31">
         <f t="shared" si="4"/>
@@ -7494,15 +7478,15 @@
       </c>
       <c r="U15" s="9">
         <f t="array" ref="U15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-4</v>
+        <v>3.3333333333333332E-4</v>
       </c>
       <c r="V15" s="9">
         <f>IFERROR(MATCH($U15,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W15" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V15)</f>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="X15" s="12" t="b">
         <f t="shared" si="8"/>
@@ -7550,7 +7534,7 @@
       </c>
       <c r="O16" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="Q16" s="31">
         <f t="shared" si="4"/>
@@ -7570,15 +7554,15 @@
       </c>
       <c r="U16" s="9">
         <f t="array" ref="U16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-5</v>
       </c>
       <c r="V16" s="9">
         <f>IFERROR(MATCH($U16,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W16" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V16)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="X16" s="12" t="b">
         <f t="shared" si="8"/>
@@ -7626,7 +7610,7 @@
       </c>
       <c r="O17" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="Q17" s="31">
         <f t="shared" si="4"/>
@@ -7646,7 +7630,7 @@
       </c>
       <c r="U17" s="9">
         <f t="array" ref="U17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="V17" s="9">
         <f>IFERROR(MATCH($U17,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -7654,7 +7638,7 @@
       </c>
       <c r="W17" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V17)</f>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="X17" s="12" t="b">
         <f t="shared" si="8"/>
@@ -7726,7 +7710,7 @@
       </c>
       <c r="V18" s="9">
         <f>IFERROR(MATCH($U18,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W18" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V18)</f>
@@ -7802,7 +7786,7 @@
       </c>
       <c r="V19" s="9">
         <f>IFERROR(MATCH($U19,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W19" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V19)</f>
@@ -7854,7 +7838,7 @@
       </c>
       <c r="O20" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="Q20" s="31">
         <f t="shared" si="4"/>
@@ -7882,7 +7866,7 @@
       </c>
       <c r="W20" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V20)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="X20" s="12" t="b">
         <f t="shared" si="8"/>
@@ -7930,7 +7914,7 @@
       </c>
       <c r="O21" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="Q21" s="31">
         <f t="shared" si="4"/>
@@ -7950,15 +7934,15 @@
       </c>
       <c r="U21" s="9">
         <f t="array" ref="U21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="V21" s="9">
         <f>IFERROR(MATCH($U21,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V21)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="X21" s="12" t="b">
         <f t="shared" si="8"/>
@@ -8026,7 +8010,7 @@
       </c>
       <c r="U22" s="9">
         <f t="array" ref="U22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V22" s="9">
         <f>IFERROR(MATCH($U22,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8106,7 +8090,7 @@
       </c>
       <c r="V23" s="9">
         <f>IFERROR(MATCH($U23,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W23" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V23)</f>
@@ -8234,7 +8218,7 @@
       </c>
       <c r="O25" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="Q25" s="31">
         <f t="shared" si="4"/>
@@ -8254,7 +8238,7 @@
       </c>
       <c r="U25" s="9">
         <f t="array" ref="U25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="V25" s="9">
         <f>IFERROR(MATCH($U25,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8262,7 +8246,7 @@
       </c>
       <c r="W25" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V25)</f>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="X25" s="12" t="b">
         <f t="shared" si="8"/>
@@ -8310,7 +8294,7 @@
       </c>
       <c r="O26" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="Q26" s="31">
         <f t="shared" si="4"/>
@@ -8330,15 +8314,15 @@
       </c>
       <c r="U26" s="9">
         <f t="array" ref="U26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-4</v>
+        <v>3.3333333333333332E-4</v>
       </c>
       <c r="V26" s="9">
         <f>IFERROR(MATCH($U26,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W26" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V26)</f>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="X26" s="12" t="b">
         <f t="shared" si="8"/>
@@ -8386,7 +8370,7 @@
       </c>
       <c r="O27" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="Q27" s="31">
         <f t="shared" si="4"/>
@@ -8406,15 +8390,15 @@
       </c>
       <c r="U27" s="9">
         <f t="array" ref="U27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M27,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-4</v>
+        <v>3.3333333333333332E-4</v>
       </c>
       <c r="V27" s="9">
         <f>IFERROR(MATCH($U27,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W27" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V27)</f>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="X27" s="12" t="b">
         <f t="shared" si="8"/>
@@ -8486,7 +8470,7 @@
       </c>
       <c r="V28" s="9">
         <f>IFERROR(MATCH($U28,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W28" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V28)</f>
@@ -8558,7 +8542,7 @@
       </c>
       <c r="U29" s="9">
         <f t="array" ref="U29">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M29,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V29" s="9">
         <f>IFERROR(MATCH($U29,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8634,7 +8618,7 @@
       </c>
       <c r="U30" s="14">
         <f t="array" ref="U30">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M30,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V30" s="14">
         <f>IFERROR(MATCH($U30,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8800,7 +8784,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.25">
@@ -8813,7 +8797,7 @@
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>28</v>
@@ -8848,7 +8832,7 @@
     </row>
     <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:25" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8859,7 +8843,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>3</v>
@@ -8908,14 +8892,14 @@
         <v>54</v>
       </c>
       <c r="U10" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="V10" s="38" t="s">
         <v>71</v>
-      </c>
-      <c r="V10" s="38" t="s">
-        <v>72</v>
       </c>
       <c r="W10" s="4"/>
       <c r="X10" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y10" s="35"/>
     </row>
@@ -8980,7 +8964,7 @@
       </c>
       <c r="U11" s="9">
         <f t="array" ref="U11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V11" s="9">
         <f>IFERROR(MATCH($U11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9056,7 +9040,7 @@
       </c>
       <c r="U12" s="9">
         <f t="array" ref="U12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V12" s="9">
         <f>IFERROR(MATCH($U12,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9132,7 +9116,7 @@
       </c>
       <c r="U13" s="9">
         <f t="array" ref="U13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V13" s="9">
         <f>IFERROR(MATCH($U13,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9208,7 +9192,7 @@
       </c>
       <c r="U14" s="9">
         <f t="array" ref="U14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V14" s="9">
         <f>IFERROR(MATCH($U14,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9284,7 +9268,7 @@
       </c>
       <c r="U15" s="9">
         <f t="array" ref="U15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V15" s="9">
         <f>IFERROR(MATCH($U15,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9360,7 +9344,7 @@
       </c>
       <c r="U16" s="9">
         <f t="array" ref="U16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V16" s="9">
         <f>IFERROR(MATCH($U16,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9416,7 +9400,7 @@
       </c>
       <c r="O17" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="Q17" s="31">
         <f t="shared" si="3"/>
@@ -9436,15 +9420,15 @@
       </c>
       <c r="U17" s="9">
         <f t="array" ref="U17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="V17" s="9">
         <f>IFERROR(MATCH($U17,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W17" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V17)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="X17" s="12" t="b">
         <f t="shared" si="7"/>
@@ -9512,7 +9496,7 @@
       </c>
       <c r="U18" s="9">
         <f t="array" ref="U18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V18" s="9">
         <f>IFERROR(MATCH($U18,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9588,7 +9572,7 @@
       </c>
       <c r="U19" s="9">
         <f t="array" ref="U19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V19" s="9">
         <f>IFERROR(MATCH($U19,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9664,7 +9648,7 @@
       </c>
       <c r="U20" s="9">
         <f t="array" ref="U20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V20" s="9">
         <f>IFERROR(MATCH($U20,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9740,7 +9724,7 @@
       </c>
       <c r="U21" s="9">
         <f t="array" ref="U21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V21" s="9">
         <f>IFERROR(MATCH($U21,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9796,7 +9780,7 @@
       </c>
       <c r="O22" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="Q22" s="31">
         <f t="shared" si="3"/>
@@ -9816,15 +9800,15 @@
       </c>
       <c r="U22" s="9">
         <f t="array" ref="U22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="V22" s="9">
         <f>IFERROR(MATCH($U22,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V22)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="X22" s="12" t="b">
         <f t="shared" si="7"/>
@@ -9892,7 +9876,7 @@
       </c>
       <c r="U23" s="9">
         <f t="array" ref="U23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V23" s="9">
         <f>IFERROR(MATCH($U23,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9968,7 +9952,7 @@
       </c>
       <c r="U24" s="9">
         <f t="array" ref="U24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V24" s="9">
         <f>IFERROR(MATCH($U24,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -10044,7 +10028,7 @@
       </c>
       <c r="U25" s="9">
         <f t="array" ref="U25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V25" s="9">
         <f>IFERROR(MATCH($U25,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -10120,7 +10104,7 @@
       </c>
       <c r="U26" s="9">
         <f t="array" ref="U26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$M26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V26" s="9">
         <f>IFERROR(MATCH($U26,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -10378,7 +10362,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -10391,7 +10375,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>29</v>
@@ -10426,7 +10410,7 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10468,26 +10452,26 @@
         <v>51</v>
       </c>
       <c r="O10" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="P10" s="37" t="s">
-        <v>91</v>
-      </c>
       <c r="Q10" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="R10" s="38" t="s">
         <v>71</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>72</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U10" s="35"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -10514,7 +10498,7 @@
       </c>
       <c r="K11" s="30" t="str">
         <f t="shared" ref="K11:K69" si="0">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M11" s="31">
         <f t="shared" ref="M11:M69" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
@@ -10534,15 +10518,15 @@
       </c>
       <c r="Q11" s="9">
         <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R11" s="9">
         <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S11" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R11)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T11" s="12" t="b">
         <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
@@ -10551,7 +10535,7 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="9">
         <v>0.21</v>
@@ -10578,7 +10562,7 @@
       </c>
       <c r="K12" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M12" s="31">
         <f t="shared" si="1"/>
@@ -10598,15 +10582,15 @@
       </c>
       <c r="Q12" s="9">
         <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R12" s="9">
         <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S12" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R12)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T12" s="12" t="b">
         <f t="shared" ref="T12:T69" si="6">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
@@ -10615,7 +10599,7 @@
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="9">
         <v>0.24</v>
@@ -10642,7 +10626,7 @@
       </c>
       <c r="K13" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M13" s="31">
         <f t="shared" si="1"/>
@@ -10662,15 +10646,15 @@
       </c>
       <c r="Q13" s="9">
         <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R13" s="9">
         <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S13" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R13)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T13" s="12" t="b">
         <f t="shared" si="6"/>
@@ -10679,7 +10663,7 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" s="9">
         <v>0.34</v>
@@ -10726,7 +10710,7 @@
       </c>
       <c r="Q14" s="9">
         <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R14" s="9">
         <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -10743,7 +10727,7 @@
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="9">
         <v>0.91</v>
@@ -10790,7 +10774,7 @@
       </c>
       <c r="Q15" s="9">
         <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R15" s="9">
         <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -10807,7 +10791,7 @@
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" s="9">
         <v>1.44</v>
@@ -10834,7 +10818,7 @@
       </c>
       <c r="K16" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M16" s="31">
         <f t="shared" ref="M16:M62" si="8">IF(AND(F16="Geen faalkans",H16="Nee"),1,1-J16)</f>
@@ -10854,15 +10838,15 @@
       </c>
       <c r="Q16" s="9">
         <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R16" s="9">
         <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S16" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T16" s="12" t="b">
         <f t="shared" si="6"/>
@@ -10871,7 +10855,7 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C17" s="9">
         <v>1.96</v>
@@ -10898,7 +10882,7 @@
       </c>
       <c r="K17" s="32" t="str">
         <f t="shared" ref="K17:K62" si="12">IF(ISNUMBER($J17),S17,IF($T17,"D","ND"))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M17" s="31">
         <f t="shared" si="8"/>
@@ -10918,15 +10902,15 @@
       </c>
       <c r="Q17" s="9">
         <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R17" s="9">
         <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S17" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R17)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T17" s="12" t="b">
         <f t="shared" si="6"/>
@@ -10935,7 +10919,7 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" s="9">
         <v>2.4900000000000002</v>
@@ -10982,7 +10966,7 @@
       </c>
       <c r="Q18" s="9">
         <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R18" s="9">
         <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -10999,7 +10983,7 @@
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="9">
         <v>3.01</v>
@@ -11026,7 +11010,7 @@
       </c>
       <c r="K19" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M19" s="31">
         <f t="shared" si="8"/>
@@ -11046,15 +11030,15 @@
       </c>
       <c r="Q19" s="9">
         <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R19" s="9">
         <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S19" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R19)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T19" s="12" t="b">
         <f t="shared" si="6"/>
@@ -11063,7 +11047,7 @@
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20" s="9">
         <v>3.54</v>
@@ -11090,7 +11074,7 @@
       </c>
       <c r="K20" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M20" s="31">
         <f t="shared" si="8"/>
@@ -11110,15 +11094,15 @@
       </c>
       <c r="Q20" s="9">
         <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R20" s="9">
         <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S20" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R20)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T20" s="12" t="b">
         <f t="shared" si="6"/>
@@ -11127,7 +11111,7 @@
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" s="9">
         <v>4.0599999999999996</v>
@@ -11174,7 +11158,7 @@
       </c>
       <c r="Q21" s="9">
         <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R21" s="9">
         <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -11191,7 +11175,7 @@
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" s="9">
         <v>4.58</v>
@@ -11238,7 +11222,7 @@
       </c>
       <c r="Q22" s="9">
         <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R22" s="9">
         <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -11255,7 +11239,7 @@
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C23" s="9">
         <v>5.1100000000000003</v>
@@ -11302,7 +11286,7 @@
       </c>
       <c r="Q23" s="9">
         <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R23" s="9">
         <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -11319,7 +11303,7 @@
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C24" s="9">
         <v>5.64</v>
@@ -11366,7 +11350,7 @@
       </c>
       <c r="Q24" s="9">
         <f t="array" ref="Q24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R24" s="9">
         <f>IFERROR(MATCH($Q24,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -11383,7 +11367,7 @@
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C25" s="9">
         <v>6.24</v>
@@ -11430,7 +11414,7 @@
       </c>
       <c r="Q25" s="9">
         <f t="array" ref="Q25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R25" s="9">
         <f>IFERROR(MATCH($Q25,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -11447,7 +11431,7 @@
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C26" s="9">
         <v>6.84</v>
@@ -11494,7 +11478,7 @@
       </c>
       <c r="Q26" s="9">
         <f t="array" ref="Q26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R26" s="9">
         <f>IFERROR(MATCH($Q26,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -11511,7 +11495,7 @@
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C27" s="9">
         <v>7.41</v>
@@ -11558,7 +11542,7 @@
       </c>
       <c r="Q27" s="9">
         <f t="array" ref="Q27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J27,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R27" s="9">
         <f>IFERROR(MATCH($Q27,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -11575,7 +11559,7 @@
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C28" s="9">
         <v>7.94</v>
@@ -11622,7 +11606,7 @@
       </c>
       <c r="Q28" s="9">
         <f t="array" ref="Q28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J28,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R28" s="9">
         <f>IFERROR(MATCH($Q28,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -11639,7 +11623,7 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C29" s="9">
         <v>8.0399999999999991</v>
@@ -11686,7 +11670,7 @@
       </c>
       <c r="Q29" s="9">
         <f t="array" ref="Q29">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J29,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R29" s="9">
         <f>IFERROR(MATCH($Q29,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -11703,7 +11687,7 @@
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C30" s="9">
         <v>8.5399999999999991</v>
@@ -11730,7 +11714,7 @@
       </c>
       <c r="K30" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M30" s="31">
         <f t="shared" si="8"/>
@@ -11750,15 +11734,15 @@
       </c>
       <c r="Q30" s="9">
         <f t="array" ref="Q30">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J30,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R30" s="9">
         <f>IFERROR(MATCH($Q30,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S30" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R30)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T30" s="12" t="b">
         <f t="shared" si="6"/>
@@ -11767,7 +11751,7 @@
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C31" s="9">
         <v>8.91</v>
@@ -11794,7 +11778,7 @@
       </c>
       <c r="K31" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M31" s="31">
         <f t="shared" si="8"/>
@@ -11814,15 +11798,15 @@
       </c>
       <c r="Q31" s="9">
         <f t="array" ref="Q31">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J31,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R31" s="9">
         <f>IFERROR(MATCH($Q31,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S31" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R31)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T31" s="12" t="b">
         <f t="shared" si="6"/>
@@ -11831,7 +11815,7 @@
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C32" s="9">
         <v>9.34</v>
@@ -11878,7 +11862,7 @@
       </c>
       <c r="Q32" s="9">
         <f t="array" ref="Q32">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J32,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R32" s="9">
         <f>IFERROR(MATCH($Q32,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -11895,7 +11879,7 @@
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C33" s="9">
         <v>9.4600000000000009</v>
@@ -11922,7 +11906,7 @@
       </c>
       <c r="K33" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M33" s="31">
         <f t="shared" si="8"/>
@@ -11942,15 +11926,15 @@
       </c>
       <c r="Q33" s="9">
         <f t="array" ref="Q33">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J33,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R33" s="9">
         <f>IFERROR(MATCH($Q33,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S33" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R33)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T33" s="12" t="b">
         <f t="shared" si="6"/>
@@ -11959,7 +11943,7 @@
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C34" s="9">
         <v>9.64</v>
@@ -11986,7 +11970,7 @@
       </c>
       <c r="K34" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M34" s="31">
         <f t="shared" si="8"/>
@@ -12006,15 +11990,15 @@
       </c>
       <c r="Q34" s="9">
         <f t="array" ref="Q34">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J34,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R34" s="9">
         <f>IFERROR(MATCH($Q34,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S34" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R34)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T34" s="12" t="b">
         <f t="shared" si="6"/>
@@ -12023,7 +12007,7 @@
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C35" s="9">
         <v>9.76</v>
@@ -12070,7 +12054,7 @@
       </c>
       <c r="Q35" s="9">
         <f t="array" ref="Q35">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J35,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R35" s="9">
         <f>IFERROR(MATCH($Q35,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -12087,7 +12071,7 @@
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C36" s="9">
         <v>10.01</v>
@@ -12134,7 +12118,7 @@
       </c>
       <c r="Q36" s="9">
         <f t="array" ref="Q36">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J36,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R36" s="9">
         <f>IFERROR(MATCH($Q36,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -12151,7 +12135,7 @@
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C37" s="9">
         <v>10.59</v>
@@ -12198,7 +12182,7 @@
       </c>
       <c r="Q37" s="9">
         <f t="array" ref="Q37">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J37,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R37" s="9">
         <f>IFERROR(MATCH($Q37,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -12215,7 +12199,7 @@
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C38" s="9">
         <v>11.11</v>
@@ -12262,7 +12246,7 @@
       </c>
       <c r="Q38" s="9">
         <f t="array" ref="Q38">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J38,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R38" s="9">
         <f>IFERROR(MATCH($Q38,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -12279,7 +12263,7 @@
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C39" s="9">
         <v>11.64</v>
@@ -12326,7 +12310,7 @@
       </c>
       <c r="Q39" s="9">
         <f t="array" ref="Q39">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J39,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R39" s="9">
         <f>IFERROR(MATCH($Q39,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -12343,7 +12327,7 @@
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C40" s="9">
         <v>12.16</v>
@@ -12390,7 +12374,7 @@
       </c>
       <c r="Q40" s="9">
         <f t="array" ref="Q40">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J40,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R40" s="9">
         <f>IFERROR(MATCH($Q40,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -12407,7 +12391,7 @@
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C41" s="9">
         <v>12.69</v>
@@ -12454,7 +12438,7 @@
       </c>
       <c r="Q41" s="9">
         <f t="array" ref="Q41">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J41,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R41" s="9">
         <f>IFERROR(MATCH($Q41,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -12471,7 +12455,7 @@
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C42" s="9">
         <v>13.19</v>
@@ -12518,7 +12502,7 @@
       </c>
       <c r="Q42" s="9">
         <f t="array" ref="Q42">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J42,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R42" s="9">
         <f>IFERROR(MATCH($Q42,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -12535,7 +12519,7 @@
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C43" s="9">
         <v>13.46</v>
@@ -12582,7 +12566,7 @@
       </c>
       <c r="Q43" s="9">
         <f t="array" ref="Q43">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J43,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R43" s="9">
         <f>IFERROR(MATCH($Q43,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -12599,7 +12583,7 @@
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C44" s="9">
         <v>13.84</v>
@@ -12646,7 +12630,7 @@
       </c>
       <c r="Q44" s="9">
         <f t="array" ref="Q44">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J44,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R44" s="9">
         <f>IFERROR(MATCH($Q44,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -12663,7 +12647,7 @@
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C45" s="9">
         <v>14.06</v>
@@ -12710,7 +12694,7 @@
       </c>
       <c r="Q45" s="9">
         <f t="array" ref="Q45">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J45,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R45" s="9">
         <f>IFERROR(MATCH($Q45,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -12727,7 +12711,7 @@
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C46" s="9">
         <v>14.19</v>
@@ -12774,7 +12758,7 @@
       </c>
       <c r="Q46" s="9">
         <f t="array" ref="Q46">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J46,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R46" s="9">
         <f>IFERROR(MATCH($Q46,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -12791,7 +12775,7 @@
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C47" s="9">
         <v>14.49</v>
@@ -12838,7 +12822,7 @@
       </c>
       <c r="Q47" s="9">
         <f t="array" ref="Q47">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J47,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R47" s="9">
         <f>IFERROR(MATCH($Q47,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -12855,7 +12839,7 @@
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C48" s="9">
         <v>15.02</v>
@@ -12902,7 +12886,7 @@
       </c>
       <c r="Q48" s="9">
         <f t="array" ref="Q48">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J48,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R48" s="9">
         <f>IFERROR(MATCH($Q48,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -12919,7 +12903,7 @@
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C49" s="9">
         <v>15.54</v>
@@ -12966,7 +12950,7 @@
       </c>
       <c r="Q49" s="9">
         <f t="array" ref="Q49">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J49,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R49" s="9">
         <f>IFERROR(MATCH($Q49,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -12983,7 +12967,7 @@
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C50" s="9">
         <v>16.059999999999999</v>
@@ -13030,7 +13014,7 @@
       </c>
       <c r="Q50" s="9">
         <f t="array" ref="Q50">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J50,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R50" s="9">
         <f>IFERROR(MATCH($Q50,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -13047,7 +13031,7 @@
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C51" s="9">
         <v>16.59</v>
@@ -13094,7 +13078,7 @@
       </c>
       <c r="Q51" s="9">
         <f t="array" ref="Q51">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J51,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R51" s="9">
         <f>IFERROR(MATCH($Q51,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -13111,7 +13095,7 @@
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C52" s="9">
         <v>17.11</v>
@@ -13158,7 +13142,7 @@
       </c>
       <c r="Q52" s="9">
         <f t="array" ref="Q52">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J52,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R52" s="9">
         <f>IFERROR(MATCH($Q52,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -13175,7 +13159,7 @@
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C53" s="9">
         <v>17.71</v>
@@ -13222,7 +13206,7 @@
       </c>
       <c r="Q53" s="9">
         <f t="array" ref="Q53">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J53,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R53" s="9">
         <f>IFERROR(MATCH($Q53,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -13239,7 +13223,7 @@
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C54" s="9">
         <v>17.809999999999999</v>
@@ -13286,7 +13270,7 @@
       </c>
       <c r="Q54" s="9">
         <f t="array" ref="Q54">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J54,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R54" s="9">
         <f>IFERROR(MATCH($Q54,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -13303,7 +13287,7 @@
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C55" s="9">
         <v>17.850000000000001</v>
@@ -13350,7 +13334,7 @@
       </c>
       <c r="Q55" s="9">
         <f t="array" ref="Q55">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J55,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R55" s="9">
         <f>IFERROR(MATCH($Q55,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -13367,7 +13351,7 @@
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C56" s="9">
         <v>17.91</v>
@@ -13414,7 +13398,7 @@
       </c>
       <c r="Q56" s="9">
         <f t="array" ref="Q56">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J56,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R56" s="9">
         <f>IFERROR(MATCH($Q56,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -13431,7 +13415,7 @@
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C57" s="9">
         <v>18.29</v>
@@ -13478,7 +13462,7 @@
       </c>
       <c r="Q57" s="9">
         <f t="array" ref="Q57">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J57,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R57" s="9">
         <f>IFERROR(MATCH($Q57,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -13495,7 +13479,7 @@
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C58" s="9">
         <v>18.48</v>
@@ -13542,7 +13526,7 @@
       </c>
       <c r="Q58" s="9">
         <f t="array" ref="Q58">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J58,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R58" s="9">
         <f>IFERROR(MATCH($Q58,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -13559,7 +13543,7 @@
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C59" s="9">
         <v>18.559999999999999</v>
@@ -13604,7 +13588,7 @@
       </c>
       <c r="Q59" s="9">
         <f t="array" ref="Q59">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J59,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R59" s="9">
         <f>IFERROR(MATCH($Q59,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -13621,7 +13605,7 @@
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C60" s="9">
         <v>18.64</v>
@@ -13668,7 +13652,7 @@
       </c>
       <c r="Q60" s="9">
         <f t="array" ref="Q60">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J60,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R60" s="9">
         <f>IFERROR(MATCH($Q60,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -13685,7 +13669,7 @@
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C61" s="9">
         <v>18.66</v>
@@ -13732,7 +13716,7 @@
       </c>
       <c r="Q61" s="9">
         <f t="array" ref="Q61">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J61,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R61" s="9">
         <f>IFERROR(MATCH($Q61,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -13749,7 +13733,7 @@
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C62" s="9">
         <v>18.75</v>
@@ -13794,7 +13778,7 @@
       </c>
       <c r="Q62" s="9">
         <f t="array" ref="Q62">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J62,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R62" s="9">
         <f>IFERROR(MATCH($Q62,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -13811,7 +13795,7 @@
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C63" s="9">
         <v>19.670000000000002</v>
@@ -13858,7 +13842,7 @@
       </c>
       <c r="Q63" s="9">
         <f t="array" ref="Q63">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J63,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R63" s="9">
         <f>IFERROR(MATCH($Q63,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -13875,7 +13859,7 @@
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C64" s="9">
         <v>19.809999999999999</v>
@@ -13922,7 +13906,7 @@
       </c>
       <c r="Q64" s="9">
         <f t="array" ref="Q64">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J64,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R64" s="9">
         <f>IFERROR(MATCH($Q64,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -13939,7 +13923,7 @@
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C65" s="9">
         <v>19.989999999999998</v>
@@ -13986,7 +13970,7 @@
       </c>
       <c r="Q65" s="9">
         <f t="array" ref="Q65">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J65,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R65" s="9">
         <f>IFERROR(MATCH($Q65,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -14003,7 +13987,7 @@
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C66" s="9">
         <v>20.49</v>
@@ -14050,7 +14034,7 @@
       </c>
       <c r="Q66" s="9">
         <f t="array" ref="Q66">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J66,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R66" s="9">
         <f>IFERROR(MATCH($Q66,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -14067,7 +14051,7 @@
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C67" s="9">
         <v>20.64</v>
@@ -14114,7 +14098,7 @@
       </c>
       <c r="Q67" s="9">
         <f t="array" ref="Q67">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J67,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R67" s="9">
         <f>IFERROR(MATCH($Q67,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -14131,7 +14115,7 @@
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C68" s="9">
         <v>20.69</v>
@@ -14178,7 +14162,7 @@
       </c>
       <c r="Q68" s="9">
         <f t="array" ref="Q68">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J68,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R68" s="9">
         <f>IFERROR(MATCH($Q68,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -14195,7 +14179,7 @@
     </row>
     <row r="69" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C69" s="9">
         <v>20.76</v>
@@ -14242,7 +14226,7 @@
       </c>
       <c r="Q69" s="9">
         <f t="array" ref="Q69">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J69,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R69" s="9">
         <f>IFERROR(MATCH($Q69,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -14445,7 +14429,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -14458,7 +14442,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>29</v>
@@ -14493,7 +14477,7 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14541,14 +14525,14 @@
         <v>54</v>
       </c>
       <c r="Q10" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="R10" s="38" t="s">
         <v>71</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>72</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U10" s="35"/>
     </row>
@@ -14598,7 +14582,7 @@
       </c>
       <c r="Q11" s="14">
         <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R11" s="14">
         <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -14766,7 +14750,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -14779,7 +14763,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>29</v>
@@ -14814,7 +14798,7 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14856,20 +14840,20 @@
         <v>51</v>
       </c>
       <c r="O10" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="P10" s="37" t="s">
-        <v>91</v>
-      </c>
       <c r="Q10" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="R10" s="38" t="s">
         <v>71</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>72</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U10" s="35"/>
     </row>
@@ -14920,7 +14904,7 @@
       </c>
       <c r="Q11" s="9">
         <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R11" s="9">
         <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -14937,7 +14921,7 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" s="9">
         <v>0.23085095799999999</v>
@@ -14984,7 +14968,7 @@
       </c>
       <c r="Q12" s="9">
         <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R12" s="9">
         <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -15046,7 +15030,7 @@
       </c>
       <c r="Q13" s="9">
         <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R13" s="9">
         <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -15063,7 +15047,7 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C14" s="9">
         <v>18.57818717</v>
@@ -15110,7 +15094,7 @@
       </c>
       <c r="Q14" s="9">
         <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R14" s="9">
         <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -15172,7 +15156,7 @@
       </c>
       <c r="Q15" s="9">
         <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R15" s="9">
         <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -15189,7 +15173,7 @@
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="9">
         <v>18.61409317</v>
@@ -15236,7 +15220,7 @@
       </c>
       <c r="Q16" s="9">
         <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R16" s="9">
         <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -15298,7 +15282,7 @@
       </c>
       <c r="Q17" s="9">
         <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R17" s="9">
         <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -15315,7 +15299,7 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C18" s="9">
         <v>19.070850830000001</v>
@@ -15342,7 +15326,7 @@
       </c>
       <c r="K18" s="32" t="str">
         <f t="shared" si="8"/>
-        <v>+II</v>
+        <v>+I</v>
       </c>
       <c r="M18" s="31">
         <f t="shared" si="9"/>
@@ -15366,11 +15350,11 @@
       </c>
       <c r="R18" s="9">
         <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S18" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
-        <v>+II</v>
+        <v>+I</v>
       </c>
       <c r="T18" s="12" t="b">
         <f t="shared" si="6"/>
@@ -15424,7 +15408,7 @@
       </c>
       <c r="Q19" s="9">
         <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R19" s="9">
         <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -15441,7 +15425,7 @@
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C20" s="9">
         <v>19.13233735</v>
@@ -15488,7 +15472,7 @@
       </c>
       <c r="Q20" s="9">
         <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R20" s="9">
         <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -15550,7 +15534,7 @@
       </c>
       <c r="Q21" s="9">
         <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R21" s="9">
         <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -15567,7 +15551,7 @@
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C22" s="9">
         <v>20.352428100000001</v>
@@ -15614,7 +15598,7 @@
       </c>
       <c r="Q22" s="9">
         <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R22" s="9">
         <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -15676,7 +15660,7 @@
       </c>
       <c r="Q23" s="9">
         <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R23" s="9">
         <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -15720,7 +15704,7 @@
       </c>
       <c r="Q24" s="9">
         <f t="array" ref="Q24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R24" s="9">
         <f>IFERROR(MATCH($Q24,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -15764,7 +15748,7 @@
       </c>
       <c r="Q25" s="9">
         <f t="array" ref="Q25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R25" s="9">
         <f>IFERROR(MATCH($Q25,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -15808,7 +15792,7 @@
       </c>
       <c r="Q26" s="9">
         <f t="array" ref="Q26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R26" s="9">
         <f>IFERROR(MATCH($Q26,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -15852,7 +15836,7 @@
       </c>
       <c r="Q27" s="9">
         <f t="array" ref="Q27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J27,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R27" s="9">
         <f>IFERROR(MATCH($Q27,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -15896,7 +15880,7 @@
       </c>
       <c r="Q28" s="9">
         <f t="array" ref="Q28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J28,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R28" s="9">
         <f>IFERROR(MATCH($Q28,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -16033,7 +16017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A4475A-3782-4C92-8ED6-63AC240A6132}">
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -16058,7 +16042,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -16071,7 +16055,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>29</v>
@@ -16106,7 +16090,7 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16148,20 +16132,20 @@
         <v>51</v>
       </c>
       <c r="O10" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="P10" s="37" t="s">
-        <v>91</v>
-      </c>
       <c r="Q10" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="R10" s="38" t="s">
         <v>71</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>72</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U10" s="35"/>
     </row>
@@ -16212,7 +16196,7 @@
       </c>
       <c r="Q11" s="9">
         <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R11" s="9">
         <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -16229,7 +16213,7 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" s="9">
         <v>0.23085095799999999</v>
@@ -16274,7 +16258,7 @@
       </c>
       <c r="Q12" s="9">
         <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R12" s="9">
         <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -16336,7 +16320,7 @@
       </c>
       <c r="Q13" s="9">
         <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R13" s="9">
         <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -16353,7 +16337,7 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C14" s="9">
         <v>18.57818717</v>
@@ -16398,7 +16382,7 @@
       </c>
       <c r="Q14" s="9">
         <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R14" s="9">
         <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -16460,7 +16444,7 @@
       </c>
       <c r="Q15" s="9">
         <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R15" s="9">
         <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -16477,7 +16461,7 @@
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="9">
         <v>18.61409317</v>
@@ -16504,7 +16488,7 @@
       </c>
       <c r="K16" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M16" s="31">
         <f t="shared" si="1"/>
@@ -16524,15 +16508,15 @@
       </c>
       <c r="Q16" s="9">
         <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R16" s="9">
         <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S16" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T16" s="12" t="b">
         <f t="shared" si="6"/>
@@ -16586,7 +16570,7 @@
       </c>
       <c r="Q17" s="9">
         <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R17" s="9">
         <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -16603,7 +16587,7 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C18" s="9">
         <v>19.070850830000001</v>
@@ -16630,7 +16614,7 @@
       </c>
       <c r="K18" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M18" s="31">
         <f t="shared" si="1"/>
@@ -16650,15 +16634,15 @@
       </c>
       <c r="Q18" s="9">
         <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R18" s="9">
         <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S18" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T18" s="12" t="b">
         <f t="shared" si="6"/>
@@ -16712,7 +16696,7 @@
       </c>
       <c r="Q19" s="9">
         <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R19" s="9">
         <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -16729,7 +16713,7 @@
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C20" s="9">
         <v>19.13233735</v>
@@ -16774,7 +16758,7 @@
       </c>
       <c r="Q20" s="9">
         <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R20" s="9">
         <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -16836,7 +16820,7 @@
       </c>
       <c r="Q21" s="9">
         <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R21" s="9">
         <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -16853,7 +16837,7 @@
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C22" s="9">
         <v>20.352428100000001</v>
@@ -16898,7 +16882,7 @@
       </c>
       <c r="Q22" s="9">
         <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R22" s="9">
         <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -16960,7 +16944,7 @@
       </c>
       <c r="Q23" s="9">
         <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R23" s="9">
         <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -17004,7 +16988,7 @@
       </c>
       <c r="Q24" s="9">
         <f t="array" ref="Q24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R24" s="9">
         <f>IFERROR(MATCH($Q24,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -17048,7 +17032,7 @@
       </c>
       <c r="Q25" s="9">
         <f t="array" ref="Q25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R25" s="9">
         <f>IFERROR(MATCH($Q25,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -17092,7 +17076,7 @@
       </c>
       <c r="Q26" s="9">
         <f t="array" ref="Q26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R26" s="9">
         <f>IFERROR(MATCH($Q26,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -17136,7 +17120,7 @@
       </c>
       <c r="Q27" s="9">
         <f t="array" ref="Q27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J27,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R27" s="9">
         <f>IFERROR(MATCH($Q27,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -17180,7 +17164,7 @@
       </c>
       <c r="Q28" s="9">
         <f t="array" ref="Q28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J28,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R28" s="9">
         <f>IFERROR(MATCH($Q28,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -17342,7 +17326,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -17355,7 +17339,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>29</v>
@@ -17390,7 +17374,7 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17432,20 +17416,20 @@
         <v>51</v>
       </c>
       <c r="O10" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="P10" s="37" t="s">
-        <v>91</v>
-      </c>
       <c r="Q10" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="R10" s="38" t="s">
         <v>71</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>72</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U10" s="35"/>
     </row>
@@ -17496,7 +17480,7 @@
       </c>
       <c r="Q11" s="9">
         <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R11" s="9">
         <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -17513,7 +17497,7 @@
     </row>
     <row r="12" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" s="9">
         <v>0.23085095799999999</v>
@@ -17558,7 +17542,7 @@
       </c>
       <c r="Q12" s="9">
         <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R12" s="9">
         <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -17620,7 +17604,7 @@
       </c>
       <c r="Q13" s="9">
         <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R13" s="9">
         <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -17637,7 +17621,7 @@
     </row>
     <row r="14" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C14" s="9">
         <v>18.57818717</v>
@@ -17682,7 +17666,7 @@
       </c>
       <c r="Q14" s="9">
         <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R14" s="9">
         <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -17744,7 +17728,7 @@
       </c>
       <c r="Q15" s="9">
         <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R15" s="9">
         <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -17761,7 +17745,7 @@
     </row>
     <row r="16" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="9">
         <v>18.61409317</v>
@@ -17775,7 +17759,7 @@
       <c r="F16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="69">
+      <c r="G16" s="68">
         <v>3.6197976652558446E-9</v>
       </c>
       <c r="H16" s="8" t="s">
@@ -17808,7 +17792,7 @@
       </c>
       <c r="Q16" s="9">
         <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R16" s="9">
         <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -17870,7 +17854,7 @@
       </c>
       <c r="Q17" s="9">
         <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R17" s="9">
         <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -17887,7 +17871,7 @@
     </row>
     <row r="18" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C18" s="9">
         <v>19.070850830000001</v>
@@ -17932,7 +17916,7 @@
       </c>
       <c r="Q18" s="9">
         <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R18" s="9">
         <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -17994,7 +17978,7 @@
       </c>
       <c r="Q19" s="9">
         <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R19" s="9">
         <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -18011,7 +17995,7 @@
     </row>
     <row r="20" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C20" s="9">
         <v>19.13233735</v>
@@ -18056,7 +18040,7 @@
       </c>
       <c r="Q20" s="9">
         <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R20" s="9">
         <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -18118,7 +18102,7 @@
       </c>
       <c r="Q21" s="9">
         <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R21" s="9">
         <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -18135,7 +18119,7 @@
     </row>
     <row r="22" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C22" s="9">
         <v>20.352428100000001</v>
@@ -18180,7 +18164,7 @@
       </c>
       <c r="Q22" s="9">
         <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R22" s="9">
         <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -18242,7 +18226,7 @@
       </c>
       <c r="Q23" s="9">
         <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R23" s="9">
         <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>

--- a/benchmarktests/testdefinitions/Benchmartktest_traject 14-2.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject 14-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA90FBF5-2612-4EAE-86B0-23EE669E29B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A299C67-8F18-43FE-A008-3CC022A384C3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="7950" windowWidth="28800" windowHeight="15435" firstSheet="1" activeTab="1" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="10" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="183">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -587,6 +587,9 @@
   </si>
   <si>
     <t>Lengte-effect</t>
+  </si>
+  <si>
+    <t>Gecombineerd (tussentijds)</t>
   </si>
 </sst>
 </file>
@@ -2423,51 +2426,55 @@
   <sheetPr>
     <tabColor rgb="FF9900FF"/>
   </sheetPr>
-  <dimension ref="B1:K135"/>
+  <dimension ref="B1:L135"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D106"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
       <c r="C2" s="14"/>
       <c r="D2" s="69" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="G2" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="H2" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="I2" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="J2" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="K2" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="L2" s="54" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -2475,39 +2482,43 @@
         <v>0.16564654600000001</v>
       </c>
       <c r="D3" s="22" t="str">
-        <f t="shared" ref="D3:D66" si="0">IF(COUNTIF(E3:K3,"D")&gt;0,"D",IF(COUNTIF(E3:K3,"-III")&gt;0,"-III",IF(COUNTIF(E3:K3,"-II")&gt;0,"-II",IF(COUNTIF(E3:K3,"-I")&gt;0,"-I",IF(COUNTIF(E3:K3,"+0")&gt;0,"+0",IF(COUNTIF(E3:K3,"+I")&gt;0,"+I",IF(COUNTIF(E3:K3,"+II")&gt;0,"+II",IF(COUNTIF(E3:K3,"+III")&gt;0,"+III","ND"))))))))</f>
+        <f t="shared" ref="D3:D66" si="0">IF(COUNTIF(F3:L3,"D")&gt;0,"D",IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III","ND"))))))))</f>
         <v>+0</v>
       </c>
-      <c r="E3" s="4" t="str">
-        <f t="array" ref="E3">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B3,C3),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E3" s="22" t="str">
+        <f t="shared" ref="E3:E66" si="1">IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III","ND")))))))</f>
         <v>+0</v>
       </c>
       <c r="F3" s="4" t="str">
-        <f t="array" ref="F3">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B3,C3),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F3">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B3,C3),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>+0</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="array" ref="G3">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B3,C3),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G3">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B3,C3),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H3" s="4" t="str">
+        <f t="array" ref="H3">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B3,C3),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H3" s="4" t="str">
-        <f t="array" ref="H3">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B3,C3),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I3" s="4" t="str">
-        <f t="array" ref="I3">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B3,C3),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I3">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B3,C3),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f t="array" ref="J3">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B3,C3),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K3" s="7" t="str">
-        <f t="array" ref="K3">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B3,C3),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J3">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B3,C3),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K3" s="4" t="str">
+        <f t="array" ref="K3">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B3,C3),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L3" s="7" t="str">
+        <f t="array" ref="L3">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B3,C3),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
         <v>0.16564654600000001</v>
       </c>
@@ -2518,36 +2529,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E4" s="9" t="str">
-        <f t="array" ref="E4">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B4,C4),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E4" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F4" s="9" t="str">
-        <f t="array" ref="F4">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B4,C4),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F4">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B4,C4),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-III</v>
       </c>
       <c r="G4" s="9" t="str">
-        <f t="array" ref="G4">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B4,C4),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G4">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B4,C4),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H4" s="9" t="str">
+        <f t="array" ref="H4">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B4,C4),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H4" s="9" t="str">
-        <f t="array" ref="H4">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B4,C4),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I4" s="9" t="str">
-        <f t="array" ref="I4">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B4,C4),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I4">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B4,C4),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J4" s="9" t="str">
-        <f t="array" ref="J4">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B4,C4),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K4" s="12" t="str">
-        <f t="array" ref="K4">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B4,C4),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J4">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B4,C4),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K4" s="9" t="str">
+        <f t="array" ref="K4">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B4,C4),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L4" s="12" t="str">
+        <f t="array" ref="L4">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B4,C4),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <v>0.190709198</v>
       </c>
@@ -2558,36 +2573,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E5" s="9" t="str">
-        <f t="array" ref="E5">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B5,C5),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E5" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F5" s="9" t="str">
-        <f t="array" ref="F5">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B5,C5),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F5">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B5,C5),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-III</v>
       </c>
       <c r="G5" s="9" t="str">
-        <f t="array" ref="G5">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B5,C5),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G5">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B5,C5),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H5" s="9" t="str">
+        <f t="array" ref="H5">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B5,C5),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H5" s="9" t="str">
-        <f t="array" ref="H5">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B5,C5),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I5" s="9" t="str">
-        <f t="array" ref="I5">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B5,C5),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I5">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B5,C5),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J5" s="9" t="str">
-        <f t="array" ref="J5">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B5,C5),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K5" s="12" t="str">
-        <f t="array" ref="K5">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B5,C5),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J5">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B5,C5),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K5" s="9" t="str">
+        <f t="array" ref="K5">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B5,C5),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L5" s="12" t="str">
+        <f t="array" ref="L5">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B5,C5),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>0.21</v>
       </c>
@@ -2598,36 +2617,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E6" s="9" t="str">
-        <f t="array" ref="E6">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B6,C6),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E6" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F6" s="9" t="str">
-        <f t="array" ref="F6">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B6,C6),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F6">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B6,C6),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-III</v>
       </c>
       <c r="G6" s="9" t="str">
-        <f t="array" ref="G6">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B6,C6),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G6">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B6,C6),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H6" s="9" t="str">
+        <f t="array" ref="H6">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B6,C6),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H6" s="9" t="str">
-        <f t="array" ref="H6">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B6,C6),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I6" s="9" t="str">
-        <f t="array" ref="I6">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B6,C6),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I6">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B6,C6),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J6" s="9" t="str">
-        <f t="array" ref="J6">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B6,C6),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K6" s="12" t="str">
-        <f t="array" ref="K6">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B6,C6),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J6">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B6,C6),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K6" s="9" t="str">
+        <f t="array" ref="K6">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B6,C6),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L6" s="12" t="str">
+        <f t="array" ref="L6">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B6,C6),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <v>0.22009848399999998</v>
       </c>
@@ -2638,36 +2661,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E7" s="9" t="str">
-        <f t="array" ref="E7">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B7,C7),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E7" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F7" s="9" t="str">
-        <f t="array" ref="F7">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B7,C7),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F7">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B7,C7),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-III</v>
       </c>
       <c r="G7" s="9" t="str">
-        <f t="array" ref="G7">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B7,C7),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G7">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B7,C7),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H7" s="9" t="str">
+        <f t="array" ref="H7">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B7,C7),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H7" s="9" t="str">
-        <f t="array" ref="H7">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B7,C7),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I7" s="9" t="str">
-        <f t="array" ref="I7">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B7,C7),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I7">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B7,C7),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J7" s="9" t="str">
-        <f t="array" ref="J7">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B7,C7),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K7" s="12" t="str">
-        <f t="array" ref="K7">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B7,C7),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J7">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B7,C7),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K7" s="9" t="str">
+        <f t="array" ref="K7">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B7,C7),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L7" s="12" t="str">
+        <f t="array" ref="L7">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B7,C7),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
         <v>0.23085095799999999</v>
       </c>
@@ -2678,36 +2705,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E8" s="9" t="str">
-        <f t="array" ref="E8">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B8,C8),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E8" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F8" s="9" t="str">
-        <f t="array" ref="F8">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B8,C8),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F8">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B8,C8),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-III</v>
       </c>
       <c r="G8" s="9" t="str">
-        <f t="array" ref="G8">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B8,C8),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G8">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B8,C8),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H8" s="9" t="str">
+        <f t="array" ref="H8">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B8,C8),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H8" s="9" t="str">
-        <f t="array" ref="H8">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B8,C8),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I8" s="9" t="str">
-        <f t="array" ref="I8">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B8,C8),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I8">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B8,C8),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J8" s="9" t="str">
-        <f t="array" ref="J8">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B8,C8),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K8" s="12" t="str">
-        <f t="array" ref="K8">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B8,C8),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J8">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B8,C8),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K8" s="9" t="str">
+        <f t="array" ref="K8">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B8,C8),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L8" s="12" t="str">
+        <f t="array" ref="L8">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B8,C8),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <v>0.24</v>
       </c>
@@ -2718,36 +2749,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E9" s="9" t="str">
-        <f t="array" ref="E9">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B9,C9),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E9" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F9" s="9" t="str">
-        <f t="array" ref="F9">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B9,C9),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F9">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B9,C9),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-III</v>
       </c>
       <c r="G9" s="9" t="str">
-        <f t="array" ref="G9">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B9,C9),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G9">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B9,C9),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H9" s="9" t="str">
+        <f t="array" ref="H9">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B9,C9),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H9" s="9" t="str">
-        <f t="array" ref="H9">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B9,C9),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I9" s="9" t="str">
-        <f t="array" ref="I9">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B9,C9),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I9">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B9,C9),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J9" s="9" t="str">
-        <f t="array" ref="J9">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B9,C9),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K9" s="12" t="str">
-        <f t="array" ref="K9">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B9,C9),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J9">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B9,C9),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K9" s="9" t="str">
+        <f t="array" ref="K9">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B9,C9),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L9" s="12" t="str">
+        <f t="array" ref="L9">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B9,C9),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
         <v>0.240850958</v>
       </c>
@@ -2758,36 +2793,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E10" s="9" t="str">
-        <f t="array" ref="E10">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B10,C10),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E10" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F10" s="9" t="str">
-        <f t="array" ref="F10">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B10,C10),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F10">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B10,C10),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-III</v>
       </c>
       <c r="G10" s="9" t="str">
-        <f t="array" ref="G10">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B10,C10),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G10">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B10,C10),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H10" s="9" t="str">
+        <f t="array" ref="H10">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B10,C10),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H10" s="9" t="str">
-        <f t="array" ref="H10">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B10,C10),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I10" s="9" t="str">
-        <f t="array" ref="I10">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B10,C10),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I10">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B10,C10),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J10" s="9" t="str">
-        <f t="array" ref="J10">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B10,C10),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K10" s="12" t="str">
-        <f t="array" ref="K10">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B10,C10),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J10">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B10,C10),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K10" s="9" t="str">
+        <f t="array" ref="K10">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B10,C10),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L10" s="12" t="str">
+        <f t="array" ref="L10">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B10,C10),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
         <v>0.34</v>
       </c>
@@ -2798,36 +2837,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E11" s="9" t="str">
-        <f t="array" ref="E11">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B11,C11),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E11" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F11" s="9" t="str">
-        <f t="array" ref="F11">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B11,C11),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F11">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B11,C11),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-III</v>
       </c>
       <c r="G11" s="9" t="str">
-        <f t="array" ref="G11">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B11,C11),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G11">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B11,C11),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H11" s="9" t="str">
-        <f t="array" ref="H11">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B11,C11),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H11">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B11,C11),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I11" s="9" t="str">
-        <f t="array" ref="I11">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B11,C11),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I11">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B11,C11),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J11" s="9" t="str">
-        <f t="array" ref="J11">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B11,C11),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K11" s="12" t="str">
-        <f t="array" ref="K11">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B11,C11),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J11">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B11,C11),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K11" s="9" t="str">
+        <f t="array" ref="K11">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B11,C11),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L11" s="12" t="str">
+        <f t="array" ref="L11">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B11,C11),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
         <v>0.342187662</v>
       </c>
@@ -2838,36 +2881,40 @@
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
-      <c r="E12" s="9" t="str">
-        <f t="array" ref="E12">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B12,C12),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E12" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>+III</v>
       </c>
       <c r="F12" s="9" t="str">
-        <f t="array" ref="F12">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B12,C12),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F12">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B12,C12),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G12" s="9" t="str">
-        <f t="array" ref="G12">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B12,C12),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G12">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B12,C12),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H12" s="9" t="str">
-        <f t="array" ref="H12">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B12,C12),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H12">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B12,C12),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I12" s="9" t="str">
-        <f t="array" ref="I12">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B12,C12),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I12">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B12,C12),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J12" s="9" t="str">
-        <f t="array" ref="J12">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B12,C12),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K12" s="12" t="str">
-        <f t="array" ref="K12">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B12,C12),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J12">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B12,C12),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K12" s="9" t="str">
+        <f t="array" ref="K12">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B12,C12),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L12" s="12" t="str">
+        <f t="array" ref="L12">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B12,C12),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <v>0.91</v>
       </c>
@@ -2878,36 +2925,40 @@
         <f t="shared" si="0"/>
         <v>+III</v>
       </c>
-      <c r="E13" s="9" t="str">
-        <f t="array" ref="E13">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B13,C13),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E13" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>+III</v>
       </c>
       <c r="F13" s="9" t="str">
-        <f t="array" ref="F13">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B13,C13),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F13">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B13,C13),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G13" s="9" t="str">
-        <f t="array" ref="G13">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B13,C13),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G13">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B13,C13),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H13" s="9" t="str">
-        <f t="array" ref="H13">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B13,C13),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H13">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B13,C13),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I13" s="9" t="str">
-        <f t="array" ref="I13">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B13,C13),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I13">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B13,C13),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J13" s="9" t="str">
-        <f t="array" ref="J13">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B13,C13),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K13" s="12" t="str">
-        <f t="array" ref="K13">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B13,C13),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J13">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B13,C13),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K13" s="9" t="str">
+        <f t="array" ref="K13">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B13,C13),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L13" s="12" t="str">
+        <f t="array" ref="L13">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B13,C13),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>0.995927067</v>
       </c>
@@ -2918,36 +2969,40 @@
         <f t="shared" si="0"/>
         <v>+I</v>
       </c>
-      <c r="E14" s="9" t="str">
-        <f t="array" ref="E14">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B14,C14),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E14" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>+I</v>
       </c>
       <c r="F14" s="9" t="str">
-        <f t="array" ref="F14">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B14,C14),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F14">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B14,C14),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>+I</v>
       </c>
       <c r="G14" s="9" t="str">
-        <f t="array" ref="G14">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B14,C14),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G14">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B14,C14),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H14" s="9" t="str">
-        <f t="array" ref="H14">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B14,C14),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H14">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B14,C14),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I14" s="9" t="str">
-        <f t="array" ref="I14">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B14,C14),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I14">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B14,C14),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J14" s="9" t="str">
-        <f t="array" ref="J14">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B14,C14),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K14" s="12" t="str">
-        <f t="array" ref="K14">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B14,C14),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J14">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B14,C14),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K14" s="9" t="str">
+        <f t="array" ref="K14">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B14,C14),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L14" s="12" t="str">
+        <f t="array" ref="L14">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B14,C14),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <v>0.99592706799999997</v>
       </c>
@@ -2958,36 +3013,40 @@
         <f t="shared" si="0"/>
         <v>+I</v>
       </c>
-      <c r="E15" s="9" t="str">
-        <f t="array" ref="E15">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B15,C15),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E15" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>+I</v>
       </c>
       <c r="F15" s="9" t="str">
-        <f t="array" ref="F15">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B15,C15),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F15">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B15,C15),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>+I</v>
       </c>
       <c r="G15" s="9" t="str">
-        <f t="array" ref="G15">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B15,C15),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G15">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B15,C15),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H15" s="9" t="str">
-        <f t="array" ref="H15">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B15,C15),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H15">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B15,C15),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I15" s="9" t="str">
-        <f t="array" ref="I15">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B15,C15),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I15">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B15,C15),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J15" s="9" t="str">
-        <f t="array" ref="J15">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B15,C15),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K15" s="12" t="str">
-        <f t="array" ref="K15">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B15,C15),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J15">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B15,C15),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K15" s="9" t="str">
+        <f t="array" ref="K15">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B15,C15),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L15" s="12" t="str">
+        <f t="array" ref="L15">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B15,C15),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>1.44</v>
       </c>
@@ -2998,36 +3057,40 @@
         <f t="shared" si="0"/>
         <v>+I</v>
       </c>
-      <c r="E16" s="9" t="str">
-        <f t="array" ref="E16">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B16,C16),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E16" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>+I</v>
       </c>
       <c r="F16" s="9" t="str">
-        <f t="array" ref="F16">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B16,C16),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F16">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B16,C16),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>+I</v>
       </c>
       <c r="G16" s="9" t="str">
-        <f t="array" ref="G16">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B16,C16),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G16">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B16,C16),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H16" s="9" t="str">
+        <f t="array" ref="H16">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B16,C16),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H16" s="9" t="str">
-        <f t="array" ref="H16">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B16,C16),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I16" s="9" t="str">
-        <f t="array" ref="I16">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B16,C16),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I16">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B16,C16),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J16" s="9" t="str">
-        <f t="array" ref="J16">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B16,C16),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K16" s="12" t="str">
-        <f t="array" ref="K16">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B16,C16),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J16">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B16,C16),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K16" s="9" t="str">
+        <f t="array" ref="K16">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B16,C16),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L16" s="12" t="str">
+        <f t="array" ref="L16">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B16,C16),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <v>1.545093896</v>
       </c>
@@ -3038,36 +3101,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E17" s="9" t="str">
-        <f t="array" ref="E17">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B17,C17),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E17" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F17" s="9" t="str">
-        <f t="array" ref="F17">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B17,C17),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F17">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B17,C17),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>+0</v>
       </c>
       <c r="G17" s="9" t="str">
-        <f t="array" ref="G17">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B17,C17),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G17">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B17,C17),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H17" s="9" t="str">
+        <f t="array" ref="H17">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B17,C17),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H17" s="9" t="str">
-        <f t="array" ref="H17">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B17,C17),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I17" s="9" t="str">
-        <f t="array" ref="I17">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B17,C17),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I17">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B17,C17),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J17" s="9" t="str">
-        <f t="array" ref="J17">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B17,C17),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K17" s="12" t="str">
-        <f t="array" ref="K17">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B17,C17),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J17">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B17,C17),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K17" s="9" t="str">
+        <f t="array" ref="K17">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B17,C17),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L17" s="12" t="str">
+        <f t="array" ref="L17">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B17,C17),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <v>1.812946862</v>
       </c>
@@ -3078,36 +3145,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E18" s="9" t="str">
-        <f t="array" ref="E18">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B18,C18),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E18" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F18" s="9" t="str">
-        <f t="array" ref="F18">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B18,C18),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F18">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B18,C18),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>+0</v>
       </c>
       <c r="G18" s="9" t="str">
-        <f t="array" ref="G18">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B18,C18),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G18">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B18,C18),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H18" s="9" t="str">
+        <f t="array" ref="H18">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B18,C18),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H18" s="9" t="str">
-        <f t="array" ref="H18">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B18,C18),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I18" s="9" t="str">
-        <f t="array" ref="I18">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B18,C18),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I18">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B18,C18),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J18" s="9" t="str">
-        <f t="array" ref="J18">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B18,C18),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K18" s="12" t="str">
-        <f t="array" ref="K18">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B18,C18),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J18">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B18,C18),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K18" s="9" t="str">
+        <f t="array" ref="K18">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B18,C18),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L18" s="12" t="str">
+        <f t="array" ref="L18">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B18,C18),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
         <v>1.96</v>
       </c>
@@ -3118,36 +3189,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E19" s="9" t="str">
-        <f t="array" ref="E19">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B19,C19),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E19" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F19" s="9" t="str">
-        <f t="array" ref="F19">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B19,C19),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F19">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B19,C19),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>+0</v>
       </c>
       <c r="G19" s="9" t="str">
-        <f t="array" ref="G19">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B19,C19),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G19">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B19,C19),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H19" s="9" t="str">
+        <f t="array" ref="H19">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B19,C19),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H19" s="9" t="str">
-        <f t="array" ref="H19">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B19,C19),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I19" s="9" t="str">
-        <f t="array" ref="I19">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B19,C19),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I19">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B19,C19),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J19" s="9" t="str">
-        <f t="array" ref="J19">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B19,C19),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K19" s="12" t="str">
-        <f t="array" ref="K19">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B19,C19),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J19">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B19,C19),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K19" s="9" t="str">
+        <f t="array" ref="K19">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B19,C19),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L19" s="12" t="str">
+        <f t="array" ref="L19">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B19,C19),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
         <v>2.4900000000000002</v>
       </c>
@@ -3158,36 +3233,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E20" s="9" t="str">
-        <f t="array" ref="E20">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B20,C20),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E20" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F20" s="9" t="str">
-        <f t="array" ref="F20">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B20,C20),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F20">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B20,C20),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>+0</v>
       </c>
       <c r="G20" s="9" t="str">
-        <f t="array" ref="G20">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B20,C20),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G20">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B20,C20),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H20" s="9" t="str">
-        <f t="array" ref="H20">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B20,C20),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H20">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B20,C20),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I20" s="9" t="str">
-        <f t="array" ref="I20">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B20,C20),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I20">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B20,C20),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J20" s="9" t="str">
-        <f t="array" ref="J20">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B20,C20),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K20" s="12" t="str">
-        <f t="array" ref="K20">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B20,C20),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J20">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B20,C20),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K20" s="9" t="str">
+        <f t="array" ref="K20">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B20,C20),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L20" s="12" t="str">
+        <f t="array" ref="L20">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B20,C20),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="8">
         <v>2.5196520410000001</v>
       </c>
@@ -3198,36 +3277,40 @@
         <f t="shared" si="0"/>
         <v>+I</v>
       </c>
-      <c r="E21" s="9" t="str">
-        <f t="array" ref="E21">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B21,C21),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E21" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>+I</v>
       </c>
       <c r="F21" s="9" t="str">
-        <f t="array" ref="F21">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B21,C21),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F21">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B21,C21),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>+I</v>
       </c>
       <c r="G21" s="9" t="str">
-        <f t="array" ref="G21">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B21,C21),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G21">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B21,C21),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H21" s="9" t="str">
-        <f t="array" ref="H21">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B21,C21),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H21">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B21,C21),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I21" s="9" t="str">
-        <f t="array" ref="I21">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B21,C21),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I21">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B21,C21),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J21" s="9" t="str">
-        <f t="array" ref="J21">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B21,C21),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K21" s="12" t="str">
-        <f t="array" ref="K21">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B21,C21),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J21">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B21,C21),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K21" s="9" t="str">
+        <f t="array" ref="K21">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B21,C21),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L21" s="12" t="str">
+        <f t="array" ref="L21">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B21,C21),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="8">
         <v>3.01</v>
       </c>
@@ -3238,36 +3321,40 @@
         <f t="shared" si="0"/>
         <v>+I</v>
       </c>
-      <c r="E22" s="9" t="str">
-        <f t="array" ref="E22">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B22,C22),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E22" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>+I</v>
       </c>
       <c r="F22" s="9" t="str">
-        <f t="array" ref="F22">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B22,C22),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F22">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B22,C22),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>+I</v>
       </c>
       <c r="G22" s="9" t="str">
-        <f t="array" ref="G22">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B22,C22),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G22">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B22,C22),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H22" s="9" t="str">
+        <f t="array" ref="H22">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B22,C22),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H22" s="9" t="str">
-        <f t="array" ref="H22">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B22,C22),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I22" s="9" t="str">
-        <f t="array" ref="I22">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B22,C22),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I22">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B22,C22),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J22" s="9" t="str">
-        <f t="array" ref="J22">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B22,C22),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K22" s="12" t="str">
-        <f t="array" ref="K22">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B22,C22),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J22">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B22,C22),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K22" s="9" t="str">
+        <f t="array" ref="K22">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B22,C22),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L22" s="12" t="str">
+        <f t="array" ref="L22">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B22,C22),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="8">
         <v>3.313767881</v>
       </c>
@@ -3278,36 +3365,40 @@
         <f t="shared" si="0"/>
         <v>+I</v>
       </c>
-      <c r="E23" s="9" t="str">
-        <f t="array" ref="E23">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B23,C23),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E23" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>+I</v>
       </c>
       <c r="F23" s="9" t="str">
-        <f t="array" ref="F23">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B23,C23),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F23">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B23,C23),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>+I</v>
       </c>
       <c r="G23" s="9" t="str">
-        <f t="array" ref="G23">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B23,C23),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G23">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B23,C23),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H23" s="9" t="str">
+        <f t="array" ref="H23">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B23,C23),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H23" s="9" t="str">
-        <f t="array" ref="H23">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B23,C23),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I23" s="9" t="str">
-        <f t="array" ref="I23">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B23,C23),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I23">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B23,C23),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J23" s="9" t="str">
-        <f t="array" ref="J23">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B23,C23),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K23" s="12" t="str">
-        <f t="array" ref="K23">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B23,C23),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J23">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B23,C23),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K23" s="9" t="str">
+        <f t="array" ref="K23">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B23,C23),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L23" s="12" t="str">
+        <f t="array" ref="L23">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B23,C23),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="8">
         <v>3.327915993</v>
       </c>
@@ -3318,36 +3409,40 @@
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
-      <c r="E24" s="9" t="str">
-        <f t="array" ref="E24">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B24,C24),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E24" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F24" s="9" t="str">
-        <f t="array" ref="F24">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B24,C24),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F24">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B24,C24),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-II</v>
       </c>
       <c r="G24" s="9" t="str">
-        <f t="array" ref="G24">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B24,C24),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G24">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B24,C24),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H24" s="9" t="str">
+        <f t="array" ref="H24">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B24,C24),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H24" s="9" t="str">
-        <f t="array" ref="H24">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B24,C24),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I24" s="9" t="str">
-        <f t="array" ref="I24">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B24,C24),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I24">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B24,C24),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J24" s="9" t="str">
-        <f t="array" ref="J24">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B24,C24),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K24" s="12" t="str">
-        <f t="array" ref="K24">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B24,C24),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J24">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B24,C24),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K24" s="9" t="str">
+        <f t="array" ref="K24">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B24,C24),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L24" s="12" t="str">
+        <f t="array" ref="L24">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B24,C24),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="8">
         <v>3.54</v>
       </c>
@@ -3358,36 +3453,40 @@
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
-      <c r="E25" s="9" t="str">
-        <f t="array" ref="E25">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B25,C25),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E25" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F25" s="9" t="str">
-        <f t="array" ref="F25">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B25,C25),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F25">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B25,C25),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-II</v>
       </c>
       <c r="G25" s="9" t="str">
-        <f t="array" ref="G25">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B25,C25),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G25">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B25,C25),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H25" s="9" t="str">
+        <f t="array" ref="H25">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B25,C25),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H25" s="9" t="str">
-        <f t="array" ref="H25">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B25,C25),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I25" s="9" t="str">
-        <f t="array" ref="I25">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B25,C25),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I25">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B25,C25),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J25" s="9" t="str">
-        <f t="array" ref="J25">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B25,C25),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K25" s="12" t="str">
-        <f t="array" ref="K25">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B25,C25),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J25">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B25,C25),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K25" s="9" t="str">
+        <f t="array" ref="K25">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B25,C25),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L25" s="12" t="str">
+        <f t="array" ref="L25">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B25,C25),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="8">
         <v>4.0599999999999996</v>
       </c>
@@ -3398,36 +3497,40 @@
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
-      <c r="E26" s="9" t="str">
-        <f t="array" ref="E26">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B26,C26),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E26" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F26" s="9" t="str">
-        <f t="array" ref="F26">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B26,C26),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F26">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B26,C26),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-II</v>
       </c>
       <c r="G26" s="9" t="str">
-        <f t="array" ref="G26">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B26,C26),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G26">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B26,C26),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H26" s="9" t="str">
-        <f t="array" ref="H26">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B26,C26),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H26">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B26,C26),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I26" s="9" t="str">
-        <f t="array" ref="I26">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B26,C26),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I26">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B26,C26),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J26" s="9" t="str">
-        <f t="array" ref="J26">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B26,C26),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K26" s="12" t="str">
-        <f t="array" ref="K26">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B26,C26),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J26">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B26,C26),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K26" s="9" t="str">
+        <f t="array" ref="K26">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B26,C26),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L26" s="12" t="str">
+        <f t="array" ref="L26">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B26,C26),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="8">
         <v>4.3705976250000003</v>
       </c>
@@ -3438,36 +3541,40 @@
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
-      <c r="E27" s="9" t="str">
-        <f t="array" ref="E27">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B27,C27),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E27" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F27" s="9" t="str">
-        <f t="array" ref="F27">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B27,C27),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F27">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B27,C27),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-II</v>
       </c>
       <c r="G27" s="9" t="str">
-        <f t="array" ref="G27">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B27,C27),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G27">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B27,C27),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H27" s="9" t="str">
-        <f t="array" ref="H27">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B27,C27),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H27">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B27,C27),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I27" s="9" t="str">
-        <f t="array" ref="I27">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B27,C27),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I27">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B27,C27),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J27" s="9" t="str">
-        <f t="array" ref="J27">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B27,C27),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K27" s="12" t="str">
-        <f t="array" ref="K27">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B27,C27),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J27">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B27,C27),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K27" s="9" t="str">
+        <f t="array" ref="K27">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B27,C27),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L27" s="12" t="str">
+        <f t="array" ref="L27">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B27,C27),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="8">
         <v>4.58</v>
       </c>
@@ -3478,36 +3585,40 @@
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
-      <c r="E28" s="9" t="str">
-        <f t="array" ref="E28">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B28,C28),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E28" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F28" s="9" t="str">
-        <f t="array" ref="F28">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B28,C28),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F28">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B28,C28),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-II</v>
       </c>
       <c r="G28" s="9" t="str">
-        <f t="array" ref="G28">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B28,C28),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G28">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B28,C28),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H28" s="9" t="str">
-        <f t="array" ref="H28">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B28,C28),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H28">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B28,C28),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I28" s="9" t="str">
-        <f t="array" ref="I28">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B28,C28),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I28">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B28,C28),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J28" s="9" t="str">
-        <f t="array" ref="J28">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B28,C28),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K28" s="12" t="str">
-        <f t="array" ref="K28">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B28,C28),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J28">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B28,C28),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K28" s="9" t="str">
+        <f t="array" ref="K28">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B28,C28),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L28" s="12" t="str">
+        <f t="array" ref="L28">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B28,C28),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="8">
         <v>5.1100000000000003</v>
       </c>
@@ -3518,36 +3629,40 @@
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
-      <c r="E29" s="9" t="str">
-        <f t="array" ref="E29">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B29,C29),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E29" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F29" s="9" t="str">
-        <f t="array" ref="F29">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B29,C29),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F29">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B29,C29),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-II</v>
       </c>
       <c r="G29" s="9" t="str">
-        <f t="array" ref="G29">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B29,C29),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G29">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B29,C29),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H29" s="9" t="str">
-        <f t="array" ref="H29">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B29,C29),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H29">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B29,C29),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I29" s="9" t="str">
-        <f t="array" ref="I29">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B29,C29),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I29">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B29,C29),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J29" s="9" t="str">
-        <f t="array" ref="J29">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B29,C29),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K29" s="12" t="str">
-        <f t="array" ref="K29">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B29,C29),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J29">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B29,C29),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K29" s="9" t="str">
+        <f t="array" ref="K29">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B29,C29),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L29" s="12" t="str">
+        <f t="array" ref="L29">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B29,C29),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="8">
         <v>5.64</v>
       </c>
@@ -3558,36 +3673,40 @@
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
-      <c r="E30" s="9" t="str">
-        <f t="array" ref="E30">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B30,C30),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E30" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F30" s="9" t="str">
-        <f t="array" ref="F30">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B30,C30),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F30">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B30,C30),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-II</v>
       </c>
       <c r="G30" s="9" t="str">
-        <f t="array" ref="G30">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B30,C30),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G30">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B30,C30),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H30" s="9" t="str">
-        <f t="array" ref="H30">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B30,C30),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H30">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B30,C30),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I30" s="9" t="str">
-        <f t="array" ref="I30">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B30,C30),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I30">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B30,C30),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J30" s="9" t="str">
-        <f t="array" ref="J30">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B30,C30),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K30" s="12" t="str">
-        <f t="array" ref="K30">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B30,C30),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J30">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B30,C30),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K30" s="9" t="str">
+        <f t="array" ref="K30">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B30,C30),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L30" s="12" t="str">
+        <f t="array" ref="L30">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B30,C30),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="8">
         <v>5.6951114260000004</v>
       </c>
@@ -3598,36 +3717,40 @@
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
-      <c r="E31" s="9" t="str">
-        <f t="array" ref="E31">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B31,C31),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E31" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F31" s="9" t="str">
-        <f t="array" ref="F31">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B31,C31),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F31">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B31,C31),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-II</v>
+      </c>
+      <c r="G31" s="9" t="str">
+        <f t="array" ref="G31">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B31,C31),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="G31" s="9" t="str">
-        <f t="array" ref="G31">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B31,C31),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="H31" s="9" t="str">
-        <f t="array" ref="H31">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B31,C31),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H31">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B31,C31),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I31" s="9" t="str">
-        <f t="array" ref="I31">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B31,C31),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I31">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B31,C31),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J31" s="9" t="str">
-        <f t="array" ref="J31">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B31,C31),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K31" s="12" t="str">
-        <f t="array" ref="K31">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B31,C31),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J31">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B31,C31),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K31" s="9" t="str">
+        <f t="array" ref="K31">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B31,C31),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L31" s="12" t="str">
+        <f t="array" ref="L31">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B31,C31),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="8">
         <v>6.24</v>
       </c>
@@ -3638,36 +3761,40 @@
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
-      <c r="E32" s="9" t="str">
-        <f t="array" ref="E32">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B32,C32),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E32" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F32" s="9" t="str">
-        <f t="array" ref="F32">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B32,C32),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F32">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B32,C32),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-II</v>
+      </c>
+      <c r="G32" s="9" t="str">
+        <f t="array" ref="G32">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B32,C32),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="G32" s="9" t="str">
-        <f t="array" ref="G32">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B32,C32),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="H32" s="9" t="str">
-        <f t="array" ref="H32">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B32,C32),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H32">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B32,C32),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I32" s="9" t="str">
-        <f t="array" ref="I32">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B32,C32),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I32">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B32,C32),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J32" s="9" t="str">
-        <f t="array" ref="J32">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B32,C32),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K32" s="12" t="str">
-        <f t="array" ref="K32">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B32,C32),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J32">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B32,C32),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K32" s="9" t="str">
+        <f t="array" ref="K32">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B32,C32),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L32" s="12" t="str">
+        <f t="array" ref="L32">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B32,C32),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="8">
         <v>6.84</v>
       </c>
@@ -3678,36 +3805,40 @@
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
-      <c r="E33" s="9" t="str">
-        <f t="array" ref="E33">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B33,C33),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E33" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F33" s="9" t="str">
-        <f t="array" ref="F33">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B33,C33),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F33">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B33,C33),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-II</v>
+      </c>
+      <c r="G33" s="9" t="str">
+        <f t="array" ref="G33">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B33,C33),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="G33" s="9" t="str">
-        <f t="array" ref="G33">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B33,C33),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="H33" s="9" t="str">
-        <f t="array" ref="H33">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B33,C33),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H33">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B33,C33),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I33" s="9" t="str">
-        <f t="array" ref="I33">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B33,C33),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I33">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B33,C33),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J33" s="9" t="str">
-        <f t="array" ref="J33">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B33,C33),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K33" s="12" t="str">
-        <f t="array" ref="K33">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B33,C33),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J33">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B33,C33),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K33" s="9" t="str">
+        <f t="array" ref="K33">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B33,C33),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L33" s="12" t="str">
+        <f t="array" ref="L33">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B33,C33),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="8">
         <v>7.41</v>
       </c>
@@ -3718,36 +3849,40 @@
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
-      <c r="E34" s="9" t="str">
-        <f t="array" ref="E34">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B34,C34),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E34" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F34" s="9" t="str">
-        <f t="array" ref="F34">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B34,C34),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F34">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B34,C34),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-II</v>
+      </c>
+      <c r="G34" s="9" t="str">
+        <f t="array" ref="G34">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B34,C34),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="G34" s="9" t="str">
-        <f t="array" ref="G34">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B34,C34),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="H34" s="9" t="str">
-        <f t="array" ref="H34">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B34,C34),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H34">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B34,C34),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I34" s="9" t="str">
-        <f t="array" ref="I34">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B34,C34),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I34">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B34,C34),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J34" s="9" t="str">
-        <f t="array" ref="J34">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B34,C34),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K34" s="12" t="str">
-        <f t="array" ref="K34">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B34,C34),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J34">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B34,C34),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K34" s="9" t="str">
+        <f t="array" ref="K34">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B34,C34),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L34" s="12" t="str">
+        <f t="array" ref="L34">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B34,C34),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="8">
         <v>7.94</v>
       </c>
@@ -3758,36 +3893,40 @@
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
-      <c r="E35" s="9" t="str">
-        <f t="array" ref="E35">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B35,C35),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E35" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F35" s="9" t="str">
-        <f t="array" ref="F35">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B35,C35),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F35">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B35,C35),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-II</v>
+      </c>
+      <c r="G35" s="9" t="str">
+        <f t="array" ref="G35">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B35,C35),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="G35" s="9" t="str">
-        <f t="array" ref="G35">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B35,C35),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="H35" s="9" t="str">
-        <f t="array" ref="H35">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B35,C35),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H35">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B35,C35),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I35" s="9" t="str">
-        <f t="array" ref="I35">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B35,C35),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I35">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B35,C35),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J35" s="9" t="str">
-        <f t="array" ref="J35">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B35,C35),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K35" s="12" t="str">
-        <f t="array" ref="K35">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B35,C35),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J35">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B35,C35),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K35" s="9" t="str">
+        <f t="array" ref="K35">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B35,C35),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L35" s="12" t="str">
+        <f t="array" ref="L35">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B35,C35),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="8">
         <v>8.0399999999999991</v>
       </c>
@@ -3798,36 +3937,40 @@
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
-      <c r="E36" s="9" t="str">
-        <f t="array" ref="E36">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B36,C36),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E36" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F36" s="9" t="str">
-        <f t="array" ref="F36">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B36,C36),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F36">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B36,C36),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-II</v>
+      </c>
+      <c r="G36" s="9" t="str">
+        <f t="array" ref="G36">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B36,C36),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="G36" s="9" t="str">
-        <f t="array" ref="G36">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B36,C36),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="H36" s="9" t="str">
-        <f t="array" ref="H36">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B36,C36),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H36">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B36,C36),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I36" s="9" t="str">
-        <f t="array" ref="I36">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B36,C36),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I36">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B36,C36),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J36" s="9" t="str">
-        <f t="array" ref="J36">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B36,C36),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K36" s="12" t="str">
-        <f t="array" ref="K36">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B36,C36),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J36">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B36,C36),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K36" s="9" t="str">
+        <f t="array" ref="K36">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B36,C36),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L36" s="12" t="str">
+        <f t="array" ref="L36">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B36,C36),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="8">
         <v>8.2464557510000009</v>
       </c>
@@ -3838,36 +3981,40 @@
         <f t="shared" si="0"/>
         <v>-I</v>
       </c>
-      <c r="E37" s="9" t="str">
-        <f t="array" ref="E37">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B37,C37),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E37" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="F37" s="9" t="str">
-        <f t="array" ref="F37">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B37,C37),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F37">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B37,C37),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+      <c r="G37" s="9" t="str">
+        <f t="array" ref="G37">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B37,C37),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="G37" s="9" t="str">
-        <f t="array" ref="G37">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B37,C37),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="H37" s="9" t="str">
-        <f t="array" ref="H37">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B37,C37),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H37">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B37,C37),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I37" s="9" t="str">
-        <f t="array" ref="I37">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B37,C37),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I37">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B37,C37),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J37" s="9" t="str">
-        <f t="array" ref="J37">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B37,C37),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K37" s="12" t="str">
-        <f t="array" ref="K37">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B37,C37),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J37">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B37,C37),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K37" s="9" t="str">
+        <f t="array" ref="K37">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B37,C37),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L37" s="12" t="str">
+        <f t="array" ref="L37">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B37,C37),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="8">
         <v>8.2505978840000012</v>
       </c>
@@ -3878,36 +4025,40 @@
         <f t="shared" si="0"/>
         <v>-I</v>
       </c>
-      <c r="E38" s="9" t="str">
-        <f t="array" ref="E38">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B38,C38),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E38" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="F38" s="9" t="str">
-        <f t="array" ref="F38">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B38,C38),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F38">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B38,C38),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-I</v>
       </c>
       <c r="G38" s="9" t="str">
-        <f t="array" ref="G38">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B38,C38),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G38">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B38,C38),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H38" s="9" t="str">
-        <f t="array" ref="H38">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B38,C38),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H38">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B38,C38),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I38" s="9" t="str">
-        <f t="array" ref="I38">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B38,C38),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I38">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B38,C38),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J38" s="9" t="str">
-        <f t="array" ref="J38">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B38,C38),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K38" s="12" t="str">
-        <f t="array" ref="K38">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B38,C38),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J38">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B38,C38),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K38" s="9" t="str">
+        <f t="array" ref="K38">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B38,C38),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L38" s="12" t="str">
+        <f t="array" ref="L38">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B38,C38),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="8">
         <v>8.5399999999999991</v>
       </c>
@@ -3918,36 +4069,40 @@
         <f t="shared" si="0"/>
         <v>-I</v>
       </c>
-      <c r="E39" s="9" t="str">
-        <f t="array" ref="E39">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B39,C39),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E39" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="F39" s="9" t="str">
-        <f t="array" ref="F39">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B39,C39),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F39">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B39,C39),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-I</v>
       </c>
       <c r="G39" s="9" t="str">
-        <f t="array" ref="G39">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B39,C39),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G39">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B39,C39),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H39" s="9" t="str">
+        <f t="array" ref="H39">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B39,C39),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H39" s="9" t="str">
-        <f t="array" ref="H39">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B39,C39),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I39" s="9" t="str">
-        <f t="array" ref="I39">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B39,C39),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I39">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B39,C39),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J39" s="9" t="str">
-        <f t="array" ref="J39">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B39,C39),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K39" s="12" t="str">
-        <f t="array" ref="K39">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B39,C39),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J39">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B39,C39),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K39" s="9" t="str">
+        <f t="array" ref="K39">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B39,C39),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L39" s="12" t="str">
+        <f t="array" ref="L39">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B39,C39),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="8">
         <v>8.91</v>
       </c>
@@ -3958,36 +4113,40 @@
         <f t="shared" si="0"/>
         <v>-I</v>
       </c>
-      <c r="E40" s="9" t="str">
-        <f t="array" ref="E40">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B40,C40),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E40" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="F40" s="9" t="str">
-        <f t="array" ref="F40">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B40,C40),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F40">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B40,C40),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-I</v>
       </c>
       <c r="G40" s="9" t="str">
-        <f t="array" ref="G40">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B40,C40),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G40">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B40,C40),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H40" s="9" t="str">
+        <f t="array" ref="H40">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B40,C40),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H40" s="9" t="str">
-        <f t="array" ref="H40">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B40,C40),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I40" s="9" t="str">
-        <f t="array" ref="I40">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B40,C40),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I40">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B40,C40),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J40" s="9" t="str">
-        <f t="array" ref="J40">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B40,C40),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K40" s="12" t="str">
-        <f t="array" ref="K40">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B40,C40),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J40">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B40,C40),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K40" s="9" t="str">
+        <f t="array" ref="K40">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B40,C40),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L40" s="12" t="str">
+        <f t="array" ref="L40">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B40,C40),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="8">
         <v>8.9463643600000005</v>
       </c>
@@ -3998,36 +4157,40 @@
         <f t="shared" si="0"/>
         <v>+II</v>
       </c>
-      <c r="E41" s="9" t="str">
-        <f t="array" ref="E41">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B41,C41),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E41" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F41" s="9" t="str">
-        <f t="array" ref="F41">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B41,C41),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F41">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B41,C41),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>+II</v>
       </c>
       <c r="G41" s="9" t="str">
-        <f t="array" ref="G41">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B41,C41),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G41">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B41,C41),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H41" s="9" t="str">
+        <f t="array" ref="H41">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B41,C41),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H41" s="9" t="str">
-        <f t="array" ref="H41">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B41,C41),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I41" s="9" t="str">
-        <f t="array" ref="I41">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B41,C41),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I41">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B41,C41),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J41" s="9" t="str">
-        <f t="array" ref="J41">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B41,C41),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K41" s="12" t="str">
-        <f t="array" ref="K41">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B41,C41),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J41">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B41,C41),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K41" s="9" t="str">
+        <f t="array" ref="K41">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B41,C41),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L41" s="12" t="str">
+        <f t="array" ref="L41">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B41,C41),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="8">
         <v>9.2968308060000009</v>
       </c>
@@ -4038,36 +4201,40 @@
         <f t="shared" si="0"/>
         <v>+II</v>
       </c>
-      <c r="E42" s="9" t="str">
-        <f t="array" ref="E42">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B42,C42),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E42" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
       </c>
       <c r="F42" s="9" t="str">
-        <f t="array" ref="F42">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B42,C42),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F42">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B42,C42),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G42" s="9" t="str">
-        <f t="array" ref="G42">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B42,C42),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G42">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B42,C42),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H42" s="9" t="str">
+        <f t="array" ref="H42">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B42,C42),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H42" s="9" t="str">
-        <f t="array" ref="H42">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B42,C42),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I42" s="9" t="str">
-        <f t="array" ref="I42">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B42,C42),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I42">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B42,C42),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J42" s="9" t="str">
-        <f t="array" ref="J42">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B42,C42),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K42" s="12" t="str">
-        <f t="array" ref="K42">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B42,C42),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J42">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B42,C42),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K42" s="9" t="str">
+        <f t="array" ref="K42">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B42,C42),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L42" s="12" t="str">
+        <f t="array" ref="L42">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B42,C42),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="8">
         <v>9.296830807000001</v>
       </c>
@@ -4078,36 +4245,40 @@
         <f t="shared" si="0"/>
         <v>+II</v>
       </c>
-      <c r="E43" s="9" t="str">
-        <f t="array" ref="E43">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B43,C43),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E43" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
       </c>
       <c r="F43" s="9" t="str">
-        <f t="array" ref="F43">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B43,C43),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F43">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B43,C43),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G43" s="9" t="str">
-        <f t="array" ref="G43">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B43,C43),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G43">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B43,C43),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H43" s="9" t="str">
+        <f t="array" ref="H43">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B43,C43),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H43" s="9" t="str">
-        <f t="array" ref="H43">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B43,C43),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I43" s="9" t="str">
-        <f t="array" ref="I43">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B43,C43),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I43">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B43,C43),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J43" s="9" t="str">
-        <f t="array" ref="J43">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B43,C43),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K43" s="12" t="str">
-        <f t="array" ref="K43">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B43,C43),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J43">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B43,C43),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K43" s="9" t="str">
+        <f t="array" ref="K43">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B43,C43),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L43" s="12" t="str">
+        <f t="array" ref="L43">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B43,C43),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="8">
         <v>9.34</v>
       </c>
@@ -4118,36 +4289,40 @@
         <f t="shared" si="0"/>
         <v>+II</v>
       </c>
-      <c r="E44" s="9" t="str">
-        <f t="array" ref="E44">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B44,C44),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E44" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
       </c>
       <c r="F44" s="9" t="str">
-        <f t="array" ref="F44">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B44,C44),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F44">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B44,C44),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G44" s="9" t="str">
-        <f t="array" ref="G44">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B44,C44),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G44">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B44,C44),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H44" s="9" t="str">
+        <f t="array" ref="H44">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B44,C44),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H44" s="9" t="str">
-        <f t="array" ref="H44">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B44,C44),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I44" s="9" t="str">
-        <f t="array" ref="I44">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B44,C44),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I44">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B44,C44),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J44" s="9" t="str">
-        <f t="array" ref="J44">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B44,C44),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K44" s="12" t="str">
-        <f t="array" ref="K44">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B44,C44),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J44">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B44,C44),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K44" s="9" t="str">
+        <f t="array" ref="K44">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B44,C44),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L44" s="12" t="str">
+        <f t="array" ref="L44">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B44,C44),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="8">
         <v>9.4600000000000009</v>
       </c>
@@ -4158,36 +4333,40 @@
         <f t="shared" si="0"/>
         <v>+II</v>
       </c>
-      <c r="E45" s="9" t="str">
-        <f t="array" ref="E45">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B45,C45),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E45" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
       </c>
       <c r="F45" s="9" t="str">
-        <f t="array" ref="F45">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B45,C45),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F45">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B45,C45),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G45" s="9" t="str">
-        <f t="array" ref="G45">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B45,C45),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G45">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B45,C45),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H45" s="9" t="str">
+        <f t="array" ref="H45">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B45,C45),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H45" s="9" t="str">
-        <f t="array" ref="H45">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B45,C45),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I45" s="9" t="str">
-        <f t="array" ref="I45">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B45,C45),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I45">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B45,C45),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J45" s="9" t="str">
-        <f t="array" ref="J45">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B45,C45),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K45" s="12" t="str">
-        <f t="array" ref="K45">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B45,C45),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J45">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B45,C45),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K45" s="9" t="str">
+        <f t="array" ref="K45">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B45,C45),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L45" s="12" t="str">
+        <f t="array" ref="L45">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B45,C45),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="8">
         <v>9.64</v>
       </c>
@@ -4198,36 +4377,40 @@
         <f t="shared" si="0"/>
         <v>+II</v>
       </c>
-      <c r="E46" s="9" t="str">
-        <f t="array" ref="E46">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B46,C46),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E46" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
       </c>
       <c r="F46" s="9" t="str">
-        <f t="array" ref="F46">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B46,C46),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F46">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B46,C46),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G46" s="9" t="str">
-        <f t="array" ref="G46">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B46,C46),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G46">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B46,C46),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H46" s="9" t="str">
+        <f t="array" ref="H46">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B46,C46),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H46" s="9" t="str">
-        <f t="array" ref="H46">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B46,C46),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I46" s="9" t="str">
-        <f t="array" ref="I46">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B46,C46),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I46">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B46,C46),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J46" s="9" t="str">
-        <f t="array" ref="J46">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B46,C46),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K46" s="12" t="str">
-        <f t="array" ref="K46">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B46,C46),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J46">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B46,C46),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K46" s="9" t="str">
+        <f t="array" ref="K46">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B46,C46),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L46" s="12" t="str">
+        <f t="array" ref="L46">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B46,C46),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="8">
         <v>9.76</v>
       </c>
@@ -4238,36 +4421,40 @@
         <f t="shared" si="0"/>
         <v>+II</v>
       </c>
-      <c r="E47" s="9" t="str">
-        <f t="array" ref="E47">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B47,C47),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E47" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
       </c>
       <c r="F47" s="9" t="str">
-        <f t="array" ref="F47">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B47,C47),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F47">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B47,C47),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G47" s="9" t="str">
-        <f t="array" ref="G47">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B47,C47),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G47">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B47,C47),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H47" s="9" t="str">
+        <f t="array" ref="H47">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B47,C47),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H47" s="9" t="str">
-        <f t="array" ref="H47">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B47,C47),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I47" s="9" t="str">
-        <f t="array" ref="I47">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B47,C47),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I47">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B47,C47),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J47" s="9" t="str">
-        <f t="array" ref="J47">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B47,C47),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K47" s="12" t="str">
-        <f t="array" ref="K47">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B47,C47),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J47">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B47,C47),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K47" s="9" t="str">
+        <f t="array" ref="K47">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B47,C47),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L47" s="12" t="str">
+        <f t="array" ref="L47">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B47,C47),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="8">
         <v>9.7975727730000006</v>
       </c>
@@ -4278,36 +4465,40 @@
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
-      <c r="E48" s="9" t="str">
-        <f t="array" ref="E48">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B48,C48),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E48" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F48" s="9" t="str">
-        <f t="array" ref="F48">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B48,C48),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F48">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B48,C48),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-II</v>
       </c>
       <c r="G48" s="9" t="str">
-        <f t="array" ref="G48">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B48,C48),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G48">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B48,C48),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H48" s="9" t="str">
+        <f t="array" ref="H48">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B48,C48),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H48" s="9" t="str">
-        <f t="array" ref="H48">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B48,C48),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I48" s="9" t="str">
-        <f t="array" ref="I48">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B48,C48),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I48">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B48,C48),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J48" s="9" t="str">
-        <f t="array" ref="J48">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B48,C48),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K48" s="12" t="str">
-        <f t="array" ref="K48">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B48,C48),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J48">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B48,C48),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K48" s="9" t="str">
+        <f t="array" ref="K48">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B48,C48),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L48" s="12" t="str">
+        <f t="array" ref="L48">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B48,C48),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="8">
         <v>9.7975727740000007</v>
       </c>
@@ -4318,36 +4509,40 @@
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
-      <c r="E49" s="9" t="str">
-        <f t="array" ref="E49">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B49,C49),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E49" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F49" s="9" t="str">
-        <f t="array" ref="F49">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B49,C49),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F49">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B49,C49),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-II</v>
       </c>
       <c r="G49" s="9" t="str">
-        <f t="array" ref="G49">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B49,C49),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G49">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B49,C49),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H49" s="9" t="str">
+        <f t="array" ref="H49">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B49,C49),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H49" s="9" t="str">
-        <f t="array" ref="H49">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B49,C49),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I49" s="9" t="str">
-        <f t="array" ref="I49">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B49,C49),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I49">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B49,C49),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J49" s="9" t="str">
-        <f t="array" ref="J49">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B49,C49),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K49" s="12" t="str">
-        <f t="array" ref="K49">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B49,C49),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J49">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B49,C49),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K49" s="9" t="str">
+        <f t="array" ref="K49">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B49,C49),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L49" s="12" t="str">
+        <f t="array" ref="L49">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B49,C49),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="8">
         <v>10.01</v>
       </c>
@@ -4358,36 +4553,40 @@
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
-      <c r="E50" s="9" t="str">
-        <f t="array" ref="E50">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B50,C50),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E50" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F50" s="9" t="str">
-        <f t="array" ref="F50">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B50,C50),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F50">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B50,C50),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-II</v>
       </c>
       <c r="G50" s="9" t="str">
-        <f t="array" ref="G50">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B50,C50),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G50">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B50,C50),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H50" s="9" t="str">
+        <f t="array" ref="H50">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B50,C50),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H50" s="9" t="str">
-        <f t="array" ref="H50">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B50,C50),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I50" s="9" t="str">
-        <f t="array" ref="I50">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B50,C50),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I50">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B50,C50),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J50" s="9" t="str">
-        <f t="array" ref="J50">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B50,C50),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K50" s="12" t="str">
-        <f t="array" ref="K50">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B50,C50),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J50">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B50,C50),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K50" s="9" t="str">
+        <f t="array" ref="K50">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B50,C50),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L50" s="12" t="str">
+        <f t="array" ref="L50">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B50,C50),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="8">
         <v>10.59</v>
       </c>
@@ -4398,36 +4597,40 @@
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
-      <c r="E51" s="9" t="str">
-        <f t="array" ref="E51">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B51,C51),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E51" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F51" s="9" t="str">
-        <f t="array" ref="F51">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B51,C51),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F51">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B51,C51),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-II</v>
       </c>
       <c r="G51" s="9" t="str">
-        <f t="array" ref="G51">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B51,C51),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G51">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B51,C51),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H51" s="9" t="str">
+        <f t="array" ref="H51">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B51,C51),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H51" s="9" t="str">
-        <f t="array" ref="H51">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B51,C51),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I51" s="9" t="str">
-        <f t="array" ref="I51">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B51,C51),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I51">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B51,C51),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J51" s="9" t="str">
-        <f t="array" ref="J51">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B51,C51),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K51" s="12" t="str">
-        <f t="array" ref="K51">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B51,C51),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J51">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B51,C51),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K51" s="9" t="str">
+        <f t="array" ref="K51">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B51,C51),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L51" s="12" t="str">
+        <f t="array" ref="L51">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B51,C51),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="8">
         <v>11.11</v>
       </c>
@@ -4438,36 +4641,40 @@
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
-      <c r="E52" s="9" t="str">
-        <f t="array" ref="E52">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B52,C52),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E52" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F52" s="9" t="str">
-        <f t="array" ref="F52">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B52,C52),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F52">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B52,C52),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-II</v>
       </c>
       <c r="G52" s="9" t="str">
-        <f t="array" ref="G52">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B52,C52),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G52">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B52,C52),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H52" s="9" t="str">
+        <f t="array" ref="H52">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B52,C52),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H52" s="9" t="str">
-        <f t="array" ref="H52">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B52,C52),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I52" s="9" t="str">
-        <f t="array" ref="I52">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B52,C52),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I52">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B52,C52),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J52" s="9" t="str">
-        <f t="array" ref="J52">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B52,C52),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K52" s="12" t="str">
-        <f t="array" ref="K52">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B52,C52),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J52">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B52,C52),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K52" s="9" t="str">
+        <f t="array" ref="K52">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B52,C52),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L52" s="12" t="str">
+        <f t="array" ref="L52">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B52,C52),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="8">
         <v>11.64</v>
       </c>
@@ -4478,36 +4685,40 @@
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
-      <c r="E53" s="9" t="str">
-        <f t="array" ref="E53">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B53,C53),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E53" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F53" s="9" t="str">
-        <f t="array" ref="F53">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B53,C53),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F53">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B53,C53),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-II</v>
       </c>
       <c r="G53" s="9" t="str">
-        <f t="array" ref="G53">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B53,C53),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G53">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B53,C53),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H53" s="9" t="str">
+        <f t="array" ref="H53">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B53,C53),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H53" s="9" t="str">
-        <f t="array" ref="H53">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B53,C53),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I53" s="9" t="str">
-        <f t="array" ref="I53">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B53,C53),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I53">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B53,C53),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J53" s="9" t="str">
-        <f t="array" ref="J53">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B53,C53),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K53" s="12" t="str">
-        <f t="array" ref="K53">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B53,C53),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J53">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B53,C53),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K53" s="9" t="str">
+        <f t="array" ref="K53">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B53,C53),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L53" s="12" t="str">
+        <f t="array" ref="L53">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B53,C53),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="8">
         <v>12.16</v>
       </c>
@@ -4518,36 +4729,40 @@
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
-      <c r="E54" s="9" t="str">
-        <f t="array" ref="E54">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B54,C54),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E54" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F54" s="9" t="str">
-        <f t="array" ref="F54">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B54,C54),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F54">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B54,C54),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-II</v>
       </c>
       <c r="G54" s="9" t="str">
-        <f t="array" ref="G54">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B54,C54),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G54">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B54,C54),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H54" s="9" t="str">
+        <f t="array" ref="H54">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B54,C54),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H54" s="9" t="str">
-        <f t="array" ref="H54">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B54,C54),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I54" s="9" t="str">
-        <f t="array" ref="I54">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B54,C54),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I54">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B54,C54),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J54" s="9" t="str">
-        <f t="array" ref="J54">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B54,C54),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K54" s="12" t="str">
-        <f t="array" ref="K54">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B54,C54),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J54">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B54,C54),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K54" s="9" t="str">
+        <f t="array" ref="K54">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B54,C54),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L54" s="12" t="str">
+        <f t="array" ref="L54">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B54,C54),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="8">
         <v>12.69</v>
       </c>
@@ -4558,36 +4773,40 @@
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
-      <c r="E55" s="9" t="str">
-        <f t="array" ref="E55">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B55,C55),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E55" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F55" s="9" t="str">
-        <f t="array" ref="F55">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B55,C55),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F55">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B55,C55),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-II</v>
       </c>
       <c r="G55" s="9" t="str">
-        <f t="array" ref="G55">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B55,C55),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G55">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B55,C55),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H55" s="9" t="str">
+        <f t="array" ref="H55">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B55,C55),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H55" s="9" t="str">
-        <f t="array" ref="H55">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B55,C55),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I55" s="9" t="str">
-        <f t="array" ref="I55">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B55,C55),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I55">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B55,C55),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J55" s="9" t="str">
-        <f t="array" ref="J55">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B55,C55),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K55" s="12" t="str">
-        <f t="array" ref="K55">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B55,C55),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J55">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B55,C55),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K55" s="9" t="str">
+        <f t="array" ref="K55">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B55,C55),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L55" s="12" t="str">
+        <f t="array" ref="L55">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B55,C55),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="8">
         <v>13.19</v>
       </c>
@@ -4598,36 +4817,40 @@
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
-      <c r="E56" s="9" t="str">
-        <f t="array" ref="E56">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B56,C56),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E56" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F56" s="9" t="str">
-        <f t="array" ref="F56">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B56,C56),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F56">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B56,C56),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-II</v>
       </c>
       <c r="G56" s="9" t="str">
-        <f t="array" ref="G56">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B56,C56),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G56">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B56,C56),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H56" s="9" t="str">
+        <f t="array" ref="H56">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B56,C56),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H56" s="9" t="str">
-        <f t="array" ref="H56">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B56,C56),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I56" s="9" t="str">
-        <f t="array" ref="I56">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B56,C56),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I56">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B56,C56),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J56" s="9" t="str">
-        <f t="array" ref="J56">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B56,C56),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K56" s="12" t="str">
-        <f t="array" ref="K56">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B56,C56),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J56">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B56,C56),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K56" s="9" t="str">
+        <f t="array" ref="K56">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B56,C56),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L56" s="12" t="str">
+        <f t="array" ref="L56">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B56,C56),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="8">
         <v>13.197809816000001</v>
       </c>
@@ -4638,36 +4861,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E57" s="9" t="str">
-        <f t="array" ref="E57">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B57,C57),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E57" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F57" s="9" t="str">
-        <f t="array" ref="F57">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B57,C57),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F57">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B57,C57),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>+0</v>
       </c>
       <c r="G57" s="9" t="str">
-        <f t="array" ref="G57">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B57,C57),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G57">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B57,C57),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H57" s="9" t="str">
+        <f t="array" ref="H57">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B57,C57),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H57" s="9" t="str">
-        <f t="array" ref="H57">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B57,C57),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I57" s="9" t="str">
-        <f t="array" ref="I57">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B57,C57),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I57">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B57,C57),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J57" s="9" t="str">
-        <f t="array" ref="J57">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B57,C57),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K57" s="12" t="str">
-        <f t="array" ref="K57">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B57,C57),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J57">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B57,C57),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K57" s="9" t="str">
+        <f t="array" ref="K57">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B57,C57),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L57" s="12" t="str">
+        <f t="array" ref="L57">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B57,C57),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="8">
         <v>13.197809817000001</v>
       </c>
@@ -4678,36 +4905,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E58" s="9" t="str">
-        <f t="array" ref="E58">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B58,C58),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E58" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F58" s="9" t="str">
-        <f t="array" ref="F58">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B58,C58),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F58">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B58,C58),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>+0</v>
       </c>
       <c r="G58" s="9" t="str">
-        <f t="array" ref="G58">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B58,C58),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G58">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B58,C58),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H58" s="9" t="str">
+        <f t="array" ref="H58">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B58,C58),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H58" s="9" t="str">
-        <f t="array" ref="H58">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B58,C58),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I58" s="9" t="str">
-        <f t="array" ref="I58">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B58,C58),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I58">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B58,C58),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J58" s="9" t="str">
-        <f t="array" ref="J58">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B58,C58),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K58" s="12" t="str">
-        <f t="array" ref="K58">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B58,C58),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J58">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B58,C58),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K58" s="9" t="str">
+        <f t="array" ref="K58">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B58,C58),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L58" s="12" t="str">
+        <f t="array" ref="L58">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B58,C58),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="8">
         <v>13.46</v>
       </c>
@@ -4718,36 +4949,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E59" s="9" t="str">
-        <f t="array" ref="E59">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B59,C59),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E59" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F59" s="9" t="str">
-        <f t="array" ref="F59">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B59,C59),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F59">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B59,C59),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>+0</v>
       </c>
       <c r="G59" s="9" t="str">
-        <f t="array" ref="G59">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B59,C59),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G59">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B59,C59),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H59" s="9" t="str">
+        <f t="array" ref="H59">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B59,C59),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H59" s="9" t="str">
-        <f t="array" ref="H59">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B59,C59),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I59" s="9" t="str">
-        <f t="array" ref="I59">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B59,C59),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I59">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B59,C59),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J59" s="9" t="str">
-        <f t="array" ref="J59">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B59,C59),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K59" s="12" t="str">
-        <f t="array" ref="K59">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B59,C59),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J59">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B59,C59),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K59" s="9" t="str">
+        <f t="array" ref="K59">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B59,C59),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L59" s="12" t="str">
+        <f t="array" ref="L59">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B59,C59),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="8">
         <v>13.84</v>
       </c>
@@ -4758,36 +4993,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E60" s="9" t="str">
-        <f t="array" ref="E60">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B60,C60),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E60" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F60" s="9" t="str">
-        <f t="array" ref="F60">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B60,C60),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F60">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B60,C60),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>+0</v>
       </c>
       <c r="G60" s="9" t="str">
-        <f t="array" ref="G60">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B60,C60),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G60">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B60,C60),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H60" s="9" t="str">
+        <f t="array" ref="H60">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B60,C60),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H60" s="9" t="str">
-        <f t="array" ref="H60">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B60,C60),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I60" s="9" t="str">
-        <f t="array" ref="I60">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B60,C60),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I60">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B60,C60),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J60" s="9" t="str">
-        <f t="array" ref="J60">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B60,C60),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K60" s="12" t="str">
-        <f t="array" ref="K60">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B60,C60),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J60">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B60,C60),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K60" s="9" t="str">
+        <f t="array" ref="K60">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B60,C60),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L60" s="12" t="str">
+        <f t="array" ref="L60">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B60,C60),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" s="8">
         <v>14.06</v>
       </c>
@@ -4798,36 +5037,40 @@
         <f t="shared" si="0"/>
         <v>+0</v>
       </c>
-      <c r="E61" s="9" t="str">
-        <f t="array" ref="E61">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B61,C61),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E61" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>+0</v>
       </c>
       <c r="F61" s="9" t="str">
-        <f t="array" ref="F61">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B61,C61),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F61">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B61,C61),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>+0</v>
       </c>
       <c r="G61" s="9" t="str">
-        <f t="array" ref="G61">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B61,C61),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G61">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B61,C61),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H61" s="9" t="str">
+        <f t="array" ref="H61">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B61,C61),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H61" s="9" t="str">
-        <f t="array" ref="H61">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B61,C61),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I61" s="9" t="str">
-        <f t="array" ref="I61">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B61,C61),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I61">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B61,C61),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J61" s="9" t="str">
-        <f t="array" ref="J61">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B61,C61),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K61" s="12" t="str">
-        <f t="array" ref="K61">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B61,C61),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J61">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B61,C61),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K61" s="9" t="str">
+        <f t="array" ref="K61">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B61,C61),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L61" s="12" t="str">
+        <f t="array" ref="L61">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B61,C61),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" s="8">
         <v>14.104461709000001</v>
       </c>
@@ -4838,36 +5081,40 @@
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
-      <c r="E62" s="9" t="str">
-        <f t="array" ref="E62">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B62,C62),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E62" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F62" s="9" t="str">
-        <f t="array" ref="F62">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B62,C62),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F62">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B62,C62),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-II</v>
       </c>
       <c r="G62" s="9" t="str">
-        <f t="array" ref="G62">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B62,C62),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G62">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B62,C62),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H62" s="9" t="str">
+        <f t="array" ref="H62">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B62,C62),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H62" s="9" t="str">
-        <f t="array" ref="H62">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B62,C62),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I62" s="9" t="str">
-        <f t="array" ref="I62">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B62,C62),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I62">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B62,C62),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J62" s="9" t="str">
-        <f t="array" ref="J62">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B62,C62),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K62" s="12" t="str">
-        <f t="array" ref="K62">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B62,C62),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J62">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B62,C62),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K62" s="9" t="str">
+        <f t="array" ref="K62">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B62,C62),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L62" s="12" t="str">
+        <f t="array" ref="L62">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B62,C62),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" s="8">
         <v>14.104461710000001</v>
       </c>
@@ -4878,36 +5125,40 @@
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
-      <c r="E63" s="9" t="str">
-        <f t="array" ref="E63">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B63,C63),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E63" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F63" s="9" t="str">
-        <f t="array" ref="F63">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B63,C63),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F63">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B63,C63),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-II</v>
+      </c>
+      <c r="G63" s="9" t="str">
+        <f t="array" ref="G63">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B63,C63),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="G63" s="9" t="str">
-        <f t="array" ref="G63">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B63,C63),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+      <c r="H63" s="9" t="str">
+        <f t="array" ref="H63">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B63,C63),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H63" s="9" t="str">
-        <f t="array" ref="H63">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B63,C63),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I63" s="9" t="str">
-        <f t="array" ref="I63">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B63,C63),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I63">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B63,C63),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J63" s="9" t="str">
-        <f t="array" ref="J63">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B63,C63),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K63" s="12" t="str">
-        <f t="array" ref="K63">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B63,C63),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J63">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B63,C63),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K63" s="9" t="str">
+        <f t="array" ref="K63">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B63,C63),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L63" s="12" t="str">
+        <f t="array" ref="L63">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B63,C63),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" s="8">
         <v>14.19</v>
       </c>
@@ -4918,36 +5169,40 @@
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
-      <c r="E64" s="9" t="str">
-        <f t="array" ref="E64">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B64,C64),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E64" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F64" s="9" t="str">
-        <f t="array" ref="F64">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B64,C64),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F64">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B64,C64),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-II</v>
+      </c>
+      <c r="G64" s="9" t="str">
+        <f t="array" ref="G64">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B64,C64),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="G64" s="9" t="str">
-        <f t="array" ref="G64">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B64,C64),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+      <c r="H64" s="9" t="str">
+        <f t="array" ref="H64">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B64,C64),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H64" s="9" t="str">
-        <f t="array" ref="H64">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B64,C64),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I64" s="9" t="str">
-        <f t="array" ref="I64">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B64,C64),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I64">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B64,C64),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J64" s="9" t="str">
-        <f t="array" ref="J64">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B64,C64),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K64" s="12" t="str">
-        <f t="array" ref="K64">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B64,C64),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J64">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B64,C64),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K64" s="9" t="str">
+        <f t="array" ref="K64">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B64,C64),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L64" s="12" t="str">
+        <f t="array" ref="L64">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B64,C64),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" s="8">
         <v>14.49</v>
       </c>
@@ -4958,36 +5213,40 @@
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
-      <c r="E65" s="9" t="str">
-        <f t="array" ref="E65">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B65,C65),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E65" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F65" s="9" t="str">
-        <f t="array" ref="F65">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B65,C65),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F65">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B65,C65),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-II</v>
+      </c>
+      <c r="G65" s="9" t="str">
+        <f t="array" ref="G65">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B65,C65),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="G65" s="9" t="str">
-        <f t="array" ref="G65">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B65,C65),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+      <c r="H65" s="9" t="str">
+        <f t="array" ref="H65">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B65,C65),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H65" s="9" t="str">
-        <f t="array" ref="H65">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B65,C65),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I65" s="9" t="str">
-        <f t="array" ref="I65">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B65,C65),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I65">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B65,C65),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J65" s="9" t="str">
-        <f t="array" ref="J65">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B65,C65),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K65" s="12" t="str">
-        <f t="array" ref="K65">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B65,C65),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J65">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B65,C65),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K65" s="9" t="str">
+        <f t="array" ref="K65">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B65,C65),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L65" s="12" t="str">
+        <f t="array" ref="L65">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B65,C65),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" s="8">
         <v>15.02</v>
       </c>
@@ -4998,36 +5257,40 @@
         <f t="shared" si="0"/>
         <v>-II</v>
       </c>
-      <c r="E66" s="9" t="str">
-        <f t="array" ref="E66">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B66,C66),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E66" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-II</v>
       </c>
       <c r="F66" s="9" t="str">
-        <f t="array" ref="F66">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B66,C66),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F66">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B66,C66),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-II</v>
+      </c>
+      <c r="G66" s="9" t="str">
+        <f t="array" ref="G66">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B66,C66),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="G66" s="9" t="str">
-        <f t="array" ref="G66">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B66,C66),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+      <c r="H66" s="9" t="str">
+        <f t="array" ref="H66">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B66,C66),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H66" s="9" t="str">
-        <f t="array" ref="H66">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B66,C66),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I66" s="9" t="str">
-        <f t="array" ref="I66">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B66,C66),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I66">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B66,C66),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J66" s="9" t="str">
-        <f t="array" ref="J66">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B66,C66),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K66" s="12" t="str">
-        <f t="array" ref="K66">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B66,C66),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J66">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B66,C66),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K66" s="9" t="str">
+        <f t="array" ref="K66">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B66,C66),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L66" s="12" t="str">
+        <f t="array" ref="L66">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B66,C66),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" s="8">
         <v>15.54</v>
       </c>
@@ -5035,39 +5298,43 @@
         <v>16.059999999999999</v>
       </c>
       <c r="D67" s="23" t="str">
-        <f t="shared" ref="D67:D106" si="1">IF(COUNTIF(E67:K67,"D")&gt;0,"D",IF(COUNTIF(E67:K67,"-III")&gt;0,"-III",IF(COUNTIF(E67:K67,"-II")&gt;0,"-II",IF(COUNTIF(E67:K67,"-I")&gt;0,"-I",IF(COUNTIF(E67:K67,"+0")&gt;0,"+0",IF(COUNTIF(E67:K67,"+I")&gt;0,"+I",IF(COUNTIF(E67:K67,"+II")&gt;0,"+II",IF(COUNTIF(E67:K67,"+III")&gt;0,"+III","ND"))))))))</f>
+        <f t="shared" ref="D67:D106" si="2">IF(COUNTIF(F67:L67,"D")&gt;0,"D",IF(COUNTIF(F67:L67,"-III")&gt;0,"-III",IF(COUNTIF(F67:L67,"-II")&gt;0,"-II",IF(COUNTIF(F67:L67,"-I")&gt;0,"-I",IF(COUNTIF(F67:L67,"+0")&gt;0,"+0",IF(COUNTIF(F67:L67,"+I")&gt;0,"+I",IF(COUNTIF(F67:L67,"+II")&gt;0,"+II",IF(COUNTIF(F67:L67,"+III")&gt;0,"+III","ND"))))))))</f>
         <v>-II</v>
       </c>
-      <c r="E67" s="9" t="str">
-        <f t="array" ref="E67">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B67,C67),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E67" s="23" t="str">
+        <f t="shared" ref="E67:E106" si="3">IF(COUNTIF(F67:L67,"-III")&gt;0,"-III",IF(COUNTIF(F67:L67,"-II")&gt;0,"-II",IF(COUNTIF(F67:L67,"-I")&gt;0,"-I",IF(COUNTIF(F67:L67,"+0")&gt;0,"+0",IF(COUNTIF(F67:L67,"+I")&gt;0,"+I",IF(COUNTIF(F67:L67,"+II")&gt;0,"+II",IF(COUNTIF(F67:L67,"+III")&gt;0,"+III","ND")))))))</f>
         <v>-II</v>
       </c>
       <c r="F67" s="9" t="str">
-        <f t="array" ref="F67">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B67,C67),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F67">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B67,C67),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-II</v>
+      </c>
+      <c r="G67" s="9" t="str">
+        <f t="array" ref="G67">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B67,C67),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="G67" s="9" t="str">
-        <f t="array" ref="G67">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B67,C67),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+      <c r="H67" s="9" t="str">
+        <f t="array" ref="H67">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B67,C67),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H67" s="9" t="str">
-        <f t="array" ref="H67">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B67,C67),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I67" s="9" t="str">
-        <f t="array" ref="I67">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B67,C67),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I67">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B67,C67),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J67" s="9" t="str">
-        <f t="array" ref="J67">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B67,C67),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K67" s="12" t="str">
-        <f t="array" ref="K67">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B67,C67),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J67">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B67,C67),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K67" s="9" t="str">
+        <f t="array" ref="K67">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B67,C67),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L67" s="12" t="str">
+        <f t="array" ref="L67">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B67,C67),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" s="8">
         <v>16.059999999999999</v>
       </c>
@@ -5075,39 +5342,43 @@
         <v>16.59</v>
       </c>
       <c r="D68" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-II</v>
       </c>
-      <c r="E68" s="9" t="str">
-        <f t="array" ref="E68">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B68,C68),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E68" s="23" t="str">
+        <f t="shared" si="3"/>
         <v>-II</v>
       </c>
       <c r="F68" s="9" t="str">
-        <f t="array" ref="F68">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B68,C68),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F68">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B68,C68),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-II</v>
+      </c>
+      <c r="G68" s="9" t="str">
+        <f t="array" ref="G68">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B68,C68),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="G68" s="9" t="str">
-        <f t="array" ref="G68">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B68,C68),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+      <c r="H68" s="9" t="str">
+        <f t="array" ref="H68">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B68,C68),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H68" s="9" t="str">
-        <f t="array" ref="H68">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B68,C68),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I68" s="9" t="str">
-        <f t="array" ref="I68">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B68,C68),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I68">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B68,C68),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J68" s="9" t="str">
-        <f t="array" ref="J68">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B68,C68),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K68" s="12" t="str">
-        <f t="array" ref="K68">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B68,C68),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J68">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B68,C68),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K68" s="9" t="str">
+        <f t="array" ref="K68">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B68,C68),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L68" s="12" t="str">
+        <f t="array" ref="L68">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B68,C68),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" s="8">
         <v>16.59</v>
       </c>
@@ -5115,39 +5386,43 @@
         <v>16.652344551000002</v>
       </c>
       <c r="D69" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-II</v>
       </c>
-      <c r="E69" s="9" t="str">
-        <f t="array" ref="E69">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B69,C69),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E69" s="23" t="str">
+        <f t="shared" si="3"/>
         <v>-II</v>
       </c>
       <c r="F69" s="9" t="str">
-        <f t="array" ref="F69">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B69,C69),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F69">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B69,C69),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-II</v>
+      </c>
+      <c r="G69" s="9" t="str">
+        <f t="array" ref="G69">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B69,C69),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="G69" s="9" t="str">
-        <f t="array" ref="G69">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B69,C69),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+      <c r="H69" s="9" t="str">
+        <f t="array" ref="H69">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B69,C69),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H69" s="9" t="str">
-        <f t="array" ref="H69">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B69,C69),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I69" s="9" t="str">
-        <f t="array" ref="I69">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B69,C69),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I69">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B69,C69),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J69" s="9" t="str">
-        <f t="array" ref="J69">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B69,C69),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K69" s="12" t="str">
-        <f t="array" ref="K69">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B69,C69),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J69">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B69,C69),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K69" s="9" t="str">
+        <f t="array" ref="K69">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B69,C69),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L69" s="12" t="str">
+        <f t="array" ref="L69">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B69,C69),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" s="8">
         <v>16.652344551000002</v>
       </c>
@@ -5155,39 +5430,43 @@
         <v>16.656083170000002</v>
       </c>
       <c r="D70" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-II</v>
       </c>
-      <c r="E70" s="9" t="str">
-        <f t="array" ref="E70">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B70,C70),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E70" s="23" t="str">
+        <f t="shared" si="3"/>
         <v>-II</v>
       </c>
       <c r="F70" s="9" t="str">
-        <f t="array" ref="F70">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B70,C70),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F70">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B70,C70),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-II</v>
       </c>
       <c r="G70" s="9" t="str">
-        <f t="array" ref="G70">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B70,C70),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G70">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B70,C70),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H70" s="9" t="str">
+        <f t="array" ref="H70">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B70,C70),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H70" s="9" t="str">
-        <f t="array" ref="H70">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B70,C70),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I70" s="9" t="str">
-        <f t="array" ref="I70">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B70,C70),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I70">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B70,C70),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J70" s="9" t="str">
-        <f t="array" ref="J70">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B70,C70),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K70" s="12" t="str">
-        <f t="array" ref="K70">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B70,C70),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J70">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B70,C70),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K70" s="9" t="str">
+        <f t="array" ref="K70">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B70,C70),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L70" s="12" t="str">
+        <f t="array" ref="L70">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B70,C70),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71" s="8">
         <v>16.656083170000002</v>
       </c>
@@ -5195,39 +5474,43 @@
         <v>17.11</v>
       </c>
       <c r="D71" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+0</v>
       </c>
-      <c r="E71" s="9" t="str">
-        <f t="array" ref="E71">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B71,C71),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E71" s="23" t="str">
+        <f t="shared" si="3"/>
         <v>+0</v>
       </c>
       <c r="F71" s="9" t="str">
-        <f t="array" ref="F71">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B71,C71),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F71">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B71,C71),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>+0</v>
       </c>
       <c r="G71" s="9" t="str">
-        <f t="array" ref="G71">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B71,C71),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G71">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B71,C71),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H71" s="9" t="str">
+        <f t="array" ref="H71">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B71,C71),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H71" s="9" t="str">
-        <f t="array" ref="H71">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B71,C71),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I71" s="9" t="str">
-        <f t="array" ref="I71">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B71,C71),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I71">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B71,C71),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J71" s="9" t="str">
-        <f t="array" ref="J71">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B71,C71),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K71" s="12" t="str">
-        <f t="array" ref="K71">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B71,C71),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J71">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B71,C71),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K71" s="9" t="str">
+        <f t="array" ref="K71">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B71,C71),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L71" s="12" t="str">
+        <f t="array" ref="L71">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B71,C71),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" s="8">
         <v>17.11</v>
       </c>
@@ -5235,39 +5518,43 @@
         <v>17.155520158000002</v>
       </c>
       <c r="D72" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+0</v>
       </c>
-      <c r="E72" s="9" t="str">
-        <f t="array" ref="E72">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B72,C72),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E72" s="23" t="str">
+        <f t="shared" si="3"/>
         <v>+0</v>
       </c>
       <c r="F72" s="9" t="str">
-        <f t="array" ref="F72">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B72,C72),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F72">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B72,C72),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>+0</v>
       </c>
       <c r="G72" s="9" t="str">
-        <f t="array" ref="G72">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B72,C72),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G72">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B72,C72),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H72" s="9" t="str">
+        <f t="array" ref="H72">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B72,C72),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H72" s="9" t="str">
-        <f t="array" ref="H72">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B72,C72),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I72" s="9" t="str">
-        <f t="array" ref="I72">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B72,C72),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I72">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B72,C72),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J72" s="9" t="str">
-        <f t="array" ref="J72">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B72,C72),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K72" s="12" t="str">
-        <f t="array" ref="K72">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B72,C72),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J72">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B72,C72),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K72" s="9" t="str">
+        <f t="array" ref="K72">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B72,C72),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L72" s="12" t="str">
+        <f t="array" ref="L72">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B72,C72),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" s="8">
         <v>17.155520158000002</v>
       </c>
@@ -5275,39 +5562,43 @@
         <v>17.71</v>
       </c>
       <c r="D73" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+0</v>
       </c>
-      <c r="E73" s="9" t="str">
-        <f t="array" ref="E73">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B73,C73),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E73" s="23" t="str">
+        <f t="shared" si="3"/>
         <v>+0</v>
       </c>
       <c r="F73" s="9" t="str">
-        <f t="array" ref="F73">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B73,C73),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F73">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B73,C73),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>+0</v>
       </c>
       <c r="G73" s="9" t="str">
-        <f t="array" ref="G73">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B73,C73),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G73">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B73,C73),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H73" s="9" t="str">
+        <f t="array" ref="H73">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B73,C73),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H73" s="9" t="str">
-        <f t="array" ref="H73">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B73,C73),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I73" s="9" t="str">
-        <f t="array" ref="I73">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B73,C73),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I73">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B73,C73),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J73" s="9" t="str">
-        <f t="array" ref="J73">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B73,C73),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K73" s="12" t="str">
-        <f t="array" ref="K73">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B73,C73),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J73">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B73,C73),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K73" s="9" t="str">
+        <f t="array" ref="K73">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B73,C73),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L73" s="12" t="str">
+        <f t="array" ref="L73">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B73,C73),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" s="8">
         <v>17.71</v>
       </c>
@@ -5315,39 +5606,43 @@
         <v>17.802401842000002</v>
       </c>
       <c r="D74" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+0</v>
       </c>
-      <c r="E74" s="9" t="str">
-        <f t="array" ref="E74">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B74,C74),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E74" s="23" t="str">
+        <f t="shared" si="3"/>
         <v>+0</v>
       </c>
       <c r="F74" s="9" t="str">
-        <f t="array" ref="F74">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B74,C74),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F74">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B74,C74),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>+0</v>
       </c>
       <c r="G74" s="9" t="str">
-        <f t="array" ref="G74">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B74,C74),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G74">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B74,C74),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H74" s="9" t="str">
+        <f t="array" ref="H74">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B74,C74),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H74" s="9" t="str">
-        <f t="array" ref="H74">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B74,C74),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I74" s="9" t="str">
-        <f t="array" ref="I74">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B74,C74),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I74">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B74,C74),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J74" s="9" t="str">
-        <f t="array" ref="J74">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B74,C74),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K74" s="12" t="str">
-        <f t="array" ref="K74">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B74,C74),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J74">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B74,C74),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K74" s="9" t="str">
+        <f t="array" ref="K74">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B74,C74),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L74" s="12" t="str">
+        <f t="array" ref="L74">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B74,C74),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" s="8">
         <v>17.802401842000002</v>
       </c>
@@ -5355,39 +5650,43 @@
         <v>17.802979463</v>
       </c>
       <c r="D75" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+0</v>
       </c>
-      <c r="E75" s="9" t="str">
-        <f t="array" ref="E75">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B75,C75),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E75" s="23" t="str">
+        <f t="shared" si="3"/>
         <v>+0</v>
       </c>
       <c r="F75" s="9" t="str">
-        <f t="array" ref="F75">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B75,C75),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F75">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B75,C75),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>+0</v>
       </c>
       <c r="G75" s="9" t="str">
-        <f t="array" ref="G75">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B75,C75),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G75">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B75,C75),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H75" s="9" t="str">
+        <f t="array" ref="H75">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B75,C75),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H75" s="9" t="str">
-        <f t="array" ref="H75">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B75,C75),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I75" s="9" t="str">
-        <f t="array" ref="I75">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B75,C75),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I75">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B75,C75),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J75" s="9" t="str">
-        <f t="array" ref="J75">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B75,C75),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K75" s="12" t="str">
-        <f t="array" ref="K75">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B75,C75),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J75">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B75,C75),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K75" s="9" t="str">
+        <f t="array" ref="K75">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B75,C75),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L75" s="12" t="str">
+        <f t="array" ref="L75">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B75,C75),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" s="8">
         <v>17.802979463</v>
       </c>
@@ -5395,39 +5694,43 @@
         <v>17.809999999999999</v>
       </c>
       <c r="D76" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
-      <c r="E76" s="9" t="str">
-        <f t="array" ref="E76">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B76,C76),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E76" s="23" t="str">
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F76" s="9" t="str">
-        <f t="array" ref="F76">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B76,C76),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F76">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B76,C76),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-III</v>
       </c>
       <c r="G76" s="9" t="str">
-        <f t="array" ref="G76">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B76,C76),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G76">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B76,C76),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H76" s="9" t="str">
+        <f t="array" ref="H76">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B76,C76),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H76" s="9" t="str">
-        <f t="array" ref="H76">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B76,C76),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I76" s="9" t="str">
-        <f t="array" ref="I76">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B76,C76),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I76">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B76,C76),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J76" s="9" t="str">
-        <f t="array" ref="J76">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B76,C76),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K76" s="12" t="str">
-        <f t="array" ref="K76">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B76,C76),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J76">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B76,C76),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K76" s="9" t="str">
+        <f t="array" ref="K76">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B76,C76),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L76" s="12" t="str">
+        <f t="array" ref="L76">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B76,C76),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" s="8">
         <v>17.809999999999999</v>
       </c>
@@ -5435,39 +5738,43 @@
         <v>17.850000000000001</v>
       </c>
       <c r="D77" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
-      <c r="E77" s="9" t="str">
-        <f t="array" ref="E77">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B77,C77),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E77" s="23" t="str">
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F77" s="9" t="str">
-        <f t="array" ref="F77">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B77,C77),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F77">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B77,C77),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-III</v>
       </c>
       <c r="G77" s="9" t="str">
-        <f t="array" ref="G77">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B77,C77),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G77">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B77,C77),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H77" s="9" t="str">
+        <f t="array" ref="H77">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B77,C77),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H77" s="9" t="str">
-        <f t="array" ref="H77">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B77,C77),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I77" s="9" t="str">
-        <f t="array" ref="I77">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B77,C77),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I77">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B77,C77),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J77" s="9" t="str">
-        <f t="array" ref="J77">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B77,C77),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K77" s="12" t="str">
-        <f t="array" ref="K77">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B77,C77),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J77">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B77,C77),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K77" s="9" t="str">
+        <f t="array" ref="K77">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B77,C77),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L77" s="12" t="str">
+        <f t="array" ref="L77">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B77,C77),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" s="8">
         <v>17.850000000000001</v>
       </c>
@@ -5475,39 +5782,43 @@
         <v>17.91</v>
       </c>
       <c r="D78" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
-      <c r="E78" s="9" t="str">
-        <f t="array" ref="E78">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B78,C78),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E78" s="23" t="str">
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F78" s="9" t="str">
-        <f t="array" ref="F78">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B78,C78),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F78">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B78,C78),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-III</v>
       </c>
       <c r="G78" s="9" t="str">
-        <f t="array" ref="G78">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B78,C78),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G78">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B78,C78),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H78" s="9" t="str">
+        <f t="array" ref="H78">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B78,C78),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H78" s="9" t="str">
-        <f t="array" ref="H78">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B78,C78),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I78" s="9" t="str">
-        <f t="array" ref="I78">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B78,C78),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I78">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B78,C78),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J78" s="9" t="str">
-        <f t="array" ref="J78">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B78,C78),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K78" s="12" t="str">
-        <f t="array" ref="K78">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B78,C78),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J78">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B78,C78),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K78" s="9" t="str">
+        <f t="array" ref="K78">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B78,C78),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L78" s="12" t="str">
+        <f t="array" ref="L78">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B78,C78),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" s="8">
         <v>17.91</v>
       </c>
@@ -5515,39 +5826,43 @@
         <v>18.29</v>
       </c>
       <c r="D79" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
-      <c r="E79" s="9" t="str">
-        <f t="array" ref="E79">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B79,C79),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E79" s="23" t="str">
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F79" s="9" t="str">
-        <f t="array" ref="F79">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B79,C79),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F79">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B79,C79),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-III</v>
       </c>
       <c r="G79" s="9" t="str">
-        <f t="array" ref="G79">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B79,C79),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G79">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B79,C79),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H79" s="9" t="str">
+        <f t="array" ref="H79">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B79,C79),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H79" s="9" t="str">
-        <f t="array" ref="H79">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B79,C79),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I79" s="9" t="str">
-        <f t="array" ref="I79">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B79,C79),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I79">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B79,C79),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J79" s="9" t="str">
-        <f t="array" ref="J79">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B79,C79),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K79" s="12" t="str">
-        <f t="array" ref="K79">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B79,C79),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J79">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B79,C79),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K79" s="9" t="str">
+        <f t="array" ref="K79">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B79,C79),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L79" s="12" t="str">
+        <f t="array" ref="L79">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B79,C79),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" s="8">
         <v>18.29</v>
       </c>
@@ -5555,39 +5870,43 @@
         <v>18.48</v>
       </c>
       <c r="D80" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
-      <c r="E80" s="9" t="str">
-        <f t="array" ref="E80">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B80,C80),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E80" s="23" t="str">
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F80" s="9" t="str">
-        <f t="array" ref="F80">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B80,C80),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F80">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B80,C80),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-III</v>
       </c>
       <c r="G80" s="9" t="str">
-        <f t="array" ref="G80">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B80,C80),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G80">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B80,C80),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H80" s="9" t="str">
+        <f t="array" ref="H80">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B80,C80),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H80" s="9" t="str">
-        <f t="array" ref="H80">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B80,C80),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I80" s="9" t="str">
-        <f t="array" ref="I80">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B80,C80),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I80">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B80,C80),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J80" s="9" t="str">
-        <f t="array" ref="J80">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B80,C80),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K80" s="12" t="str">
-        <f t="array" ref="K80">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B80,C80),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J80">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B80,C80),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K80" s="9" t="str">
+        <f t="array" ref="K80">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B80,C80),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L80" s="12" t="str">
+        <f t="array" ref="L80">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B80,C80),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" s="8">
         <v>18.48</v>
       </c>
@@ -5595,39 +5914,43 @@
         <v>18.559999999999999</v>
       </c>
       <c r="D81" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
-      <c r="E81" s="9" t="str">
-        <f t="array" ref="E81">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B81,C81),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E81" s="23" t="str">
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F81" s="9" t="str">
-        <f t="array" ref="F81">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B81,C81),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F81">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B81,C81),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-III</v>
       </c>
       <c r="G81" s="9" t="str">
-        <f t="array" ref="G81">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B81,C81),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G81">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B81,C81),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H81" s="9" t="str">
+        <f t="array" ref="H81">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B81,C81),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H81" s="9" t="str">
-        <f t="array" ref="H81">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B81,C81),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I81" s="9" t="str">
-        <f t="array" ref="I81">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B81,C81),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I81">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B81,C81),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J81" s="9" t="str">
-        <f t="array" ref="J81">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B81,C81),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K81" s="12" t="str">
-        <f t="array" ref="K81">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B81,C81),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J81">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B81,C81),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K81" s="9" t="str">
+        <f t="array" ref="K81">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B81,C81),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L81" s="12" t="str">
+        <f t="array" ref="L81">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B81,C81),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" s="8">
         <v>18.559999999999999</v>
       </c>
@@ -5635,39 +5958,43 @@
         <v>18.57818717</v>
       </c>
       <c r="D82" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
-      <c r="E82" s="9" t="str">
-        <f t="array" ref="E82">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B82,C82),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E82" s="23" t="str">
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F82" s="9" t="str">
-        <f t="array" ref="F82">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B82,C82),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F82">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B82,C82),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-III</v>
       </c>
       <c r="G82" s="9" t="str">
-        <f t="array" ref="G82">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B82,C82),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G82">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B82,C82),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H82" s="9" t="str">
+        <f t="array" ref="H82">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B82,C82),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H82" s="9" t="str">
-        <f t="array" ref="H82">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B82,C82),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I82" s="9" t="str">
-        <f t="array" ref="I82">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B82,C82),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I82">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B82,C82),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J82" s="9" t="str">
-        <f t="array" ref="J82">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B82,C82),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K82" s="12" t="str">
-        <f t="array" ref="K82">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B82,C82),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J82">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B82,C82),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K82" s="9" t="str">
+        <f t="array" ref="K82">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B82,C82),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L82" s="12" t="str">
+        <f t="array" ref="L82">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B82,C82),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" s="8">
         <v>18.57818717</v>
       </c>
@@ -5675,39 +6002,43 @@
         <v>18.588187170000001</v>
       </c>
       <c r="D83" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
-      <c r="E83" s="9" t="str">
-        <f t="array" ref="E83">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B83,C83),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E83" s="23" t="str">
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F83" s="9" t="str">
-        <f t="array" ref="F83">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B83,C83),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F83">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B83,C83),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-III</v>
       </c>
       <c r="G83" s="9" t="str">
-        <f t="array" ref="G83">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B83,C83),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G83">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B83,C83),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H83" s="9" t="str">
+        <f t="array" ref="H83">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B83,C83),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H83" s="9" t="str">
-        <f t="array" ref="H83">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B83,C83),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I83" s="9" t="str">
-        <f t="array" ref="I83">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B83,C83),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I83">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B83,C83),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J83" s="9" t="str">
-        <f t="array" ref="J83">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B83,C83),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K83" s="12" t="str">
-        <f t="array" ref="K83">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B83,C83),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J83">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B83,C83),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K83" s="9" t="str">
+        <f t="array" ref="K83">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B83,C83),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L83" s="12" t="str">
+        <f t="array" ref="L83">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B83,C83),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" s="8">
         <v>18.588187170000001</v>
       </c>
@@ -5715,39 +6046,43 @@
         <v>18.605671771000001</v>
       </c>
       <c r="D84" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-III</v>
       </c>
-      <c r="E84" s="9" t="str">
-        <f t="array" ref="E84">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B84,C84),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E84" s="23" t="str">
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F84" s="9" t="str">
-        <f t="array" ref="F84">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B84,C84),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="F84">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B84,C84),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-III</v>
       </c>
       <c r="G84" s="9" t="str">
-        <f t="array" ref="G84">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B84,C84),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G84">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B84,C84),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H84" s="9" t="str">
+        <f t="array" ref="H84">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B84,C84),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H84" s="9" t="str">
-        <f t="array" ref="H84">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B84,C84),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I84" s="9" t="str">
-        <f t="array" ref="I84">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B84,C84),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I84">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B84,C84),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J84" s="9" t="str">
-        <f t="array" ref="J84">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B84,C84),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K84" s="12" t="str">
-        <f t="array" ref="K84">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B84,C84),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J84">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B84,C84),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K84" s="9" t="str">
+        <f t="array" ref="K84">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B84,C84),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L84" s="12" t="str">
+        <f t="array" ref="L84">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B84,C84),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" s="8">
         <v>18.605671771000001</v>
       </c>
@@ -5755,39 +6090,43 @@
         <v>18.605671772000001</v>
       </c>
       <c r="D85" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
-      <c r="E85" s="9" t="str">
-        <f t="array" ref="E85">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B85,C85),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E85" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>+II</v>
       </c>
       <c r="F85" s="9" t="str">
-        <f t="array" ref="F85">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B85,C85),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F85">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B85,C85),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G85" s="9" t="str">
-        <f t="array" ref="G85">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B85,C85),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G85">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B85,C85),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H85" s="9" t="str">
+        <f t="array" ref="H85">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B85,C85),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H85" s="9" t="str">
-        <f t="array" ref="H85">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B85,C85),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I85" s="9" t="str">
-        <f t="array" ref="I85">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B85,C85),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I85">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B85,C85),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J85" s="9" t="str">
-        <f t="array" ref="J85">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B85,C85),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K85" s="12" t="str">
-        <f t="array" ref="K85">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B85,C85),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J85">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B85,C85),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K85" s="9" t="str">
+        <f t="array" ref="K85">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B85,C85),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L85" s="12" t="str">
+        <f t="array" ref="L85">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B85,C85),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" s="8">
         <v>18.605671772000001</v>
       </c>
@@ -5795,39 +6134,43 @@
         <v>18.61409317</v>
       </c>
       <c r="D86" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
-      <c r="E86" s="9" t="str">
-        <f t="array" ref="E86">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B86,C86),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E86" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>+II</v>
       </c>
       <c r="F86" s="9" t="str">
-        <f t="array" ref="F86">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B86,C86),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F86">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B86,C86),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G86" s="9" t="str">
-        <f t="array" ref="G86">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B86,C86),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G86">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B86,C86),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H86" s="9" t="str">
+        <f t="array" ref="H86">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B86,C86),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H86" s="9" t="str">
-        <f t="array" ref="H86">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B86,C86),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I86" s="9" t="str">
-        <f t="array" ref="I86">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B86,C86),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I86">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B86,C86),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J86" s="9" t="str">
-        <f t="array" ref="J86">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B86,C86),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K86" s="12" t="str">
-        <f t="array" ref="K86">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B86,C86),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J86">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B86,C86),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K86" s="9" t="str">
+        <f t="array" ref="K86">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B86,C86),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L86" s="12" t="str">
+        <f t="array" ref="L86">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B86,C86),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" s="8">
         <v>18.61409317</v>
       </c>
@@ -5835,39 +6178,43 @@
         <v>18.624093169999998</v>
       </c>
       <c r="D87" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
-      <c r="E87" s="9" t="str">
-        <f t="array" ref="E87">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B87,C87),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E87" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>+II</v>
       </c>
       <c r="F87" s="9" t="str">
-        <f t="array" ref="F87">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B87,C87),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F87">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B87,C87),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G87" s="9" t="str">
-        <f t="array" ref="G87">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B87,C87),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G87">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B87,C87),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H87" s="9" t="str">
+        <f t="array" ref="H87">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B87,C87),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H87" s="9" t="str">
-        <f t="array" ref="H87">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B87,C87),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I87" s="9" t="str">
-        <f t="array" ref="I87">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B87,C87),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I87">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B87,C87),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J87" s="9" t="str">
-        <f t="array" ref="J87">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B87,C87),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <f t="array" ref="J87">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B87,C87),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K87" s="9" t="str">
+        <f t="array" ref="K87">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B87,C87),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="K87" s="12" t="str">
-        <f t="array" ref="K87">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B87,C87),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L87" s="12" t="str">
+        <f t="array" ref="L87">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B87,C87),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" s="8">
         <v>18.624093169999998</v>
       </c>
@@ -5875,39 +6222,43 @@
         <v>18.64</v>
       </c>
       <c r="D88" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
-      <c r="E88" s="9" t="str">
-        <f t="array" ref="E88">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B88,C88),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E88" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>+II</v>
       </c>
       <c r="F88" s="9" t="str">
-        <f t="array" ref="F88">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B88,C88),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F88">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B88,C88),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G88" s="9" t="str">
-        <f t="array" ref="G88">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B88,C88),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G88">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B88,C88),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H88" s="9" t="str">
+        <f t="array" ref="H88">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B88,C88),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H88" s="9" t="str">
-        <f t="array" ref="H88">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B88,C88),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I88" s="9" t="str">
-        <f t="array" ref="I88">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B88,C88),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I88">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B88,C88),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J88" s="9" t="str">
-        <f t="array" ref="J88">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B88,C88),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K88" s="12" t="str">
-        <f t="array" ref="K88">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B88,C88),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J88">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B88,C88),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K88" s="9" t="str">
+        <f t="array" ref="K88">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B88,C88),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L88" s="12" t="str">
+        <f t="array" ref="L88">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B88,C88),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B89" s="8">
         <v>18.64</v>
       </c>
@@ -5915,39 +6266,43 @@
         <v>18.66</v>
       </c>
       <c r="D89" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
-      <c r="E89" s="9" t="str">
-        <f t="array" ref="E89">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B89,C89),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E89" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>+II</v>
       </c>
       <c r="F89" s="9" t="str">
-        <f t="array" ref="F89">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B89,C89),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F89">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B89,C89),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G89" s="9" t="str">
-        <f t="array" ref="G89">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B89,C89),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G89">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B89,C89),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H89" s="9" t="str">
+        <f t="array" ref="H89">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B89,C89),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H89" s="9" t="str">
-        <f t="array" ref="H89">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B89,C89),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I89" s="9" t="str">
-        <f t="array" ref="I89">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B89,C89),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I89">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B89,C89),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J89" s="9" t="str">
-        <f t="array" ref="J89">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B89,C89),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K89" s="12" t="str">
-        <f t="array" ref="K89">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B89,C89),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J89">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B89,C89),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K89" s="9" t="str">
+        <f t="array" ref="K89">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B89,C89),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L89" s="12" t="str">
+        <f t="array" ref="L89">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B89,C89),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B90" s="8">
         <v>18.66</v>
       </c>
@@ -5955,39 +6310,43 @@
         <v>18.75</v>
       </c>
       <c r="D90" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
-      <c r="E90" s="9" t="str">
-        <f t="array" ref="E90">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B90,C90),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E90" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>+II</v>
       </c>
       <c r="F90" s="9" t="str">
-        <f t="array" ref="F90">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B90,C90),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F90">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B90,C90),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G90" s="9" t="str">
-        <f t="array" ref="G90">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B90,C90),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G90">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B90,C90),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H90" s="9" t="str">
+        <f t="array" ref="H90">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B90,C90),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H90" s="9" t="str">
-        <f t="array" ref="H90">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B90,C90),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I90" s="9" t="str">
-        <f t="array" ref="I90">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B90,C90),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I90">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B90,C90),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J90" s="9" t="str">
-        <f t="array" ref="J90">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B90,C90),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K90" s="12" t="str">
-        <f t="array" ref="K90">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B90,C90),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J90">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B90,C90),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K90" s="9" t="str">
+        <f t="array" ref="K90">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B90,C90),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L90" s="12" t="str">
+        <f t="array" ref="L90">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B90,C90),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B91" s="8">
         <v>18.75</v>
       </c>
@@ -5995,39 +6354,43 @@
         <v>19.070850830000001</v>
       </c>
       <c r="D91" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
-      <c r="E91" s="9" t="str">
-        <f t="array" ref="E91">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B91,C91),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E91" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>+II</v>
       </c>
       <c r="F91" s="9" t="str">
-        <f t="array" ref="F91">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B91,C91),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F91">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B91,C91),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G91" s="9" t="str">
-        <f t="array" ref="G91">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B91,C91),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G91">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B91,C91),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H91" s="9" t="str">
+        <f t="array" ref="H91">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B91,C91),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H91" s="9" t="str">
-        <f t="array" ref="H91">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B91,C91),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I91" s="9" t="str">
-        <f t="array" ref="I91">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B91,C91),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I91">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B91,C91),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J91" s="9" t="str">
-        <f t="array" ref="J91">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B91,C91),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K91" s="12" t="str">
-        <f t="array" ref="K91">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B91,C91),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J91">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B91,C91),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K91" s="9" t="str">
+        <f t="array" ref="K91">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B91,C91),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L91" s="12" t="str">
+        <f t="array" ref="L91">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B91,C91),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B92" s="8">
         <v>19.070850830000001</v>
       </c>
@@ -6035,39 +6398,43 @@
         <v>19.080850829999999</v>
       </c>
       <c r="D92" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
-      <c r="E92" s="9" t="str">
-        <f t="array" ref="E92">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B92,C92),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E92" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>+I</v>
       </c>
       <c r="F92" s="9" t="str">
-        <f t="array" ref="F92">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B92,C92),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F92">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B92,C92),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G92" s="9" t="str">
-        <f t="array" ref="G92">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B92,C92),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G92">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B92,C92),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H92" s="9" t="str">
+        <f t="array" ref="H92">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B92,C92),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H92" s="9" t="str">
-        <f t="array" ref="H92">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B92,C92),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I92" s="9" t="str">
-        <f t="array" ref="I92">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B92,C92),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I92">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B92,C92),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="J92" s="9" t="str">
+        <f t="array" ref="J92">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B92,C92),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+I</v>
       </c>
-      <c r="J92" s="9" t="str">
-        <f t="array" ref="J92">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B92,C92),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+      <c r="K92" s="9" t="str">
+        <f t="array" ref="K92">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B92,C92),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="K92" s="12" t="str">
-        <f t="array" ref="K92">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B92,C92),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L92" s="12" t="str">
+        <f t="array" ref="L92">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B92,C92),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B93" s="8">
         <v>19.080850829999999</v>
       </c>
@@ -6075,39 +6442,43 @@
         <v>19.13233735</v>
       </c>
       <c r="D93" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
-      <c r="E93" s="9" t="str">
-        <f t="array" ref="E93">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B93,C93),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E93" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>+II</v>
       </c>
       <c r="F93" s="9" t="str">
-        <f t="array" ref="F93">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B93,C93),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F93">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B93,C93),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G93" s="9" t="str">
-        <f t="array" ref="G93">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B93,C93),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G93">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B93,C93),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H93" s="9" t="str">
+        <f t="array" ref="H93">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B93,C93),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H93" s="9" t="str">
-        <f t="array" ref="H93">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B93,C93),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I93" s="9" t="str">
-        <f t="array" ref="I93">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B93,C93),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I93">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B93,C93),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J93" s="9" t="str">
-        <f t="array" ref="J93">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B93,C93),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K93" s="12" t="str">
-        <f t="array" ref="K93">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B93,C93),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J93">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B93,C93),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K93" s="9" t="str">
+        <f t="array" ref="K93">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B93,C93),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L93" s="12" t="str">
+        <f t="array" ref="L93">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B93,C93),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B94" s="8">
         <v>19.13233735</v>
       </c>
@@ -6115,39 +6486,43 @@
         <v>19.142337349999998</v>
       </c>
       <c r="D94" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
-      <c r="E94" s="9" t="str">
-        <f t="array" ref="E94">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B94,C94),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E94" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>+II</v>
       </c>
       <c r="F94" s="9" t="str">
-        <f t="array" ref="F94">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B94,C94),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F94">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B94,C94),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G94" s="9" t="str">
-        <f t="array" ref="G94">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B94,C94),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G94">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B94,C94),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H94" s="9" t="str">
+        <f t="array" ref="H94">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B94,C94),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H94" s="9" t="str">
-        <f t="array" ref="H94">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B94,C94),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I94" s="9" t="str">
-        <f t="array" ref="I94">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B94,C94),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I94">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B94,C94),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J94" s="9" t="str">
-        <f t="array" ref="J94">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B94,C94),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K94" s="12" t="str">
-        <f t="array" ref="K94">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B94,C94),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J94">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B94,C94),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K94" s="9" t="str">
+        <f t="array" ref="K94">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B94,C94),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L94" s="12" t="str">
+        <f t="array" ref="L94">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B94,C94),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B95" s="8">
         <v>19.142337349999998</v>
       </c>
@@ -6155,39 +6530,43 @@
         <v>19.574514854</v>
       </c>
       <c r="D95" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
-      <c r="E95" s="9" t="str">
-        <f t="array" ref="E95">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B95,C95),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E95" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>+II</v>
       </c>
       <c r="F95" s="9" t="str">
-        <f t="array" ref="F95">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B95,C95),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F95">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B95,C95),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G95" s="9" t="str">
-        <f t="array" ref="G95">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B95,C95),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G95">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B95,C95),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H95" s="9" t="str">
+        <f t="array" ref="H95">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B95,C95),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H95" s="9" t="str">
-        <f t="array" ref="H95">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B95,C95),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I95" s="9" t="str">
-        <f t="array" ref="I95">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B95,C95),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I95">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B95,C95),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J95" s="9" t="str">
-        <f t="array" ref="J95">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B95,C95),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K95" s="12" t="str">
-        <f t="array" ref="K95">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B95,C95),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J95">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B95,C95),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K95" s="9" t="str">
+        <f t="array" ref="K95">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B95,C95),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L95" s="12" t="str">
+        <f t="array" ref="L95">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B95,C95),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B96" s="8">
         <v>19.574514854</v>
       </c>
@@ -6195,39 +6574,43 @@
         <v>19.670000000000002</v>
       </c>
       <c r="D96" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
-      <c r="E96" s="9" t="str">
-        <f t="array" ref="E96">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B96,C96),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E96" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>+II</v>
       </c>
       <c r="F96" s="9" t="str">
-        <f t="array" ref="F96">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B96,C96),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F96">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B96,C96),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G96" s="9" t="str">
-        <f t="array" ref="G96">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B96,C96),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G96">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B96,C96),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H96" s="9" t="str">
+        <f t="array" ref="H96">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B96,C96),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H96" s="9" t="str">
-        <f t="array" ref="H96">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B96,C96),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I96" s="9" t="str">
-        <f t="array" ref="I96">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B96,C96),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I96">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B96,C96),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J96" s="9" t="str">
-        <f t="array" ref="J96">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B96,C96),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K96" s="12" t="str">
-        <f t="array" ref="K96">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B96,C96),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J96">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B96,C96),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K96" s="9" t="str">
+        <f t="array" ref="K96">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B96,C96),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L96" s="12" t="str">
+        <f t="array" ref="L96">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B96,C96),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B97" s="8">
         <v>19.670000000000002</v>
       </c>
@@ -6235,39 +6618,43 @@
         <v>19.69841048</v>
       </c>
       <c r="D97" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
-      <c r="E97" s="9" t="str">
-        <f t="array" ref="E97">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B97,C97),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E97" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>+II</v>
       </c>
       <c r="F97" s="9" t="str">
-        <f t="array" ref="F97">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B97,C97),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F97">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B97,C97),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G97" s="9" t="str">
-        <f t="array" ref="G97">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B97,C97),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G97">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B97,C97),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H97" s="9" t="str">
+        <f t="array" ref="H97">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B97,C97),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H97" s="9" t="str">
-        <f t="array" ref="H97">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B97,C97),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I97" s="9" t="str">
-        <f t="array" ref="I97">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B97,C97),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I97">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B97,C97),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J97" s="9" t="str">
-        <f t="array" ref="J97">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B97,C97),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K97" s="12" t="str">
-        <f t="array" ref="K97">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B97,C97),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J97">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B97,C97),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K97" s="9" t="str">
+        <f t="array" ref="K97">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B97,C97),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L97" s="12" t="str">
+        <f t="array" ref="L97">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B97,C97),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B98" s="8">
         <v>19.69841048</v>
       </c>
@@ -6275,39 +6662,43 @@
         <v>19.809999999999999</v>
       </c>
       <c r="D98" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
-      <c r="E98" s="9" t="str">
-        <f t="array" ref="E98">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B98,C98),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E98" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>+II</v>
       </c>
       <c r="F98" s="9" t="str">
-        <f t="array" ref="F98">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B98,C98),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F98">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B98,C98),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G98" s="9" t="str">
-        <f t="array" ref="G98">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B98,C98),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G98">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B98,C98),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H98" s="9" t="str">
+        <f t="array" ref="H98">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B98,C98),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H98" s="9" t="str">
-        <f t="array" ref="H98">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B98,C98),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I98" s="9" t="str">
-        <f t="array" ref="I98">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B98,C98),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I98">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B98,C98),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J98" s="9" t="str">
-        <f t="array" ref="J98">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B98,C98),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K98" s="12" t="str">
-        <f t="array" ref="K98">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B98,C98),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J98">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B98,C98),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K98" s="9" t="str">
+        <f t="array" ref="K98">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B98,C98),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L98" s="12" t="str">
+        <f t="array" ref="L98">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B98,C98),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" s="8">
         <v>19.809999999999999</v>
       </c>
@@ -6315,39 +6706,43 @@
         <v>19.989999999999998</v>
       </c>
       <c r="D99" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
-      <c r="E99" s="9" t="str">
-        <f t="array" ref="E99">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B99,C99),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E99" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>+II</v>
       </c>
       <c r="F99" s="9" t="str">
-        <f t="array" ref="F99">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B99,C99),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F99">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B99,C99),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G99" s="9" t="str">
-        <f t="array" ref="G99">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B99,C99),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G99">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B99,C99),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H99" s="9" t="str">
+        <f t="array" ref="H99">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B99,C99),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H99" s="9" t="str">
-        <f t="array" ref="H99">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B99,C99),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I99" s="9" t="str">
-        <f t="array" ref="I99">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B99,C99),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I99">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B99,C99),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J99" s="9" t="str">
-        <f t="array" ref="J99">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B99,C99),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K99" s="12" t="str">
-        <f t="array" ref="K99">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B99,C99),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J99">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B99,C99),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K99" s="9" t="str">
+        <f t="array" ref="K99">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B99,C99),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L99" s="12" t="str">
+        <f t="array" ref="L99">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B99,C99),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B100" s="8">
         <v>19.989999999999998</v>
       </c>
@@ -6355,39 +6750,43 @@
         <v>20.352428100000001</v>
       </c>
       <c r="D100" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
-      <c r="E100" s="9" t="str">
-        <f t="array" ref="E100">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B100,C100),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E100" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>+II</v>
       </c>
       <c r="F100" s="9" t="str">
-        <f t="array" ref="F100">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B100,C100),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F100">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B100,C100),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G100" s="9" t="str">
-        <f t="array" ref="G100">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B100,C100),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G100">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B100,C100),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H100" s="9" t="str">
+        <f t="array" ref="H100">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B100,C100),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H100" s="9" t="str">
-        <f t="array" ref="H100">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B100,C100),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I100" s="9" t="str">
-        <f t="array" ref="I100">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B100,C100),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I100">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B100,C100),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J100" s="9" t="str">
-        <f t="array" ref="J100">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B100,C100),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K100" s="12" t="str">
-        <f t="array" ref="K100">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B100,C100),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J100">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B100,C100),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K100" s="9" t="str">
+        <f t="array" ref="K100">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B100,C100),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L100" s="12" t="str">
+        <f t="array" ref="L100">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B100,C100),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B101" s="8">
         <v>20.352428100000001</v>
       </c>
@@ -6395,39 +6794,43 @@
         <v>20.362428099999999</v>
       </c>
       <c r="D101" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
-      <c r="E101" s="9" t="str">
-        <f t="array" ref="E101">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B101,C101),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E101" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>+II</v>
       </c>
       <c r="F101" s="9" t="str">
-        <f t="array" ref="F101">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B101,C101),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F101">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B101,C101),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G101" s="9" t="str">
-        <f t="array" ref="G101">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B101,C101),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G101">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B101,C101),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H101" s="9" t="str">
+        <f t="array" ref="H101">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B101,C101),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H101" s="9" t="str">
-        <f t="array" ref="H101">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B101,C101),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I101" s="9" t="str">
-        <f t="array" ref="I101">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B101,C101),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I101">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B101,C101),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J101" s="9" t="str">
-        <f t="array" ref="J101">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B101,C101),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K101" s="12" t="str">
-        <f t="array" ref="K101">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B101,C101),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J101">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B101,C101),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K101" s="9" t="str">
+        <f t="array" ref="K101">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B101,C101),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L101" s="12" t="str">
+        <f t="array" ref="L101">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B101,C101),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B102" s="8">
         <v>20.362428099999999</v>
       </c>
@@ -6435,39 +6838,43 @@
         <v>20.49</v>
       </c>
       <c r="D102" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
-      <c r="E102" s="9" t="str">
-        <f t="array" ref="E102">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B102,C102),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E102" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>+II</v>
       </c>
       <c r="F102" s="9" t="str">
-        <f t="array" ref="F102">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B102,C102),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F102">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B102,C102),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G102" s="9" t="str">
-        <f t="array" ref="G102">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B102,C102),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G102">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B102,C102),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H102" s="9" t="str">
+        <f t="array" ref="H102">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B102,C102),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H102" s="9" t="str">
-        <f t="array" ref="H102">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B102,C102),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I102" s="9" t="str">
-        <f t="array" ref="I102">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B102,C102),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I102">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B102,C102),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J102" s="9" t="str">
-        <f t="array" ref="J102">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B102,C102),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K102" s="12" t="str">
-        <f t="array" ref="K102">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B102,C102),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J102">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B102,C102),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K102" s="9" t="str">
+        <f t="array" ref="K102">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B102,C102),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L102" s="12" t="str">
+        <f t="array" ref="L102">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B102,C102),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B103" s="8">
         <v>20.49</v>
       </c>
@@ -6475,39 +6882,43 @@
         <v>20.64</v>
       </c>
       <c r="D103" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
-      <c r="E103" s="9" t="str">
-        <f t="array" ref="E103">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B103,C103),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E103" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>+II</v>
       </c>
       <c r="F103" s="9" t="str">
-        <f t="array" ref="F103">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B103,C103),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F103">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B103,C103),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G103" s="9" t="str">
-        <f t="array" ref="G103">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B103,C103),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G103">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B103,C103),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H103" s="9" t="str">
+        <f t="array" ref="H103">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B103,C103),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H103" s="9" t="str">
-        <f t="array" ref="H103">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B103,C103),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I103" s="9" t="str">
-        <f t="array" ref="I103">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B103,C103),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I103">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B103,C103),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J103" s="9" t="str">
-        <f t="array" ref="J103">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B103,C103),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K103" s="12" t="str">
-        <f t="array" ref="K103">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B103,C103),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J103">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B103,C103),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K103" s="9" t="str">
+        <f t="array" ref="K103">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B103,C103),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L103" s="12" t="str">
+        <f t="array" ref="L103">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B103,C103),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B104" s="8">
         <v>20.64</v>
       </c>
@@ -6515,39 +6926,43 @@
         <v>20.69</v>
       </c>
       <c r="D104" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
-      <c r="E104" s="9" t="str">
-        <f t="array" ref="E104">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B104,C104),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E104" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>+II</v>
       </c>
       <c r="F104" s="9" t="str">
-        <f t="array" ref="F104">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B104,C104),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F104">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B104,C104),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G104" s="9" t="str">
-        <f t="array" ref="G104">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B104,C104),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G104">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B104,C104),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H104" s="9" t="str">
+        <f t="array" ref="H104">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B104,C104),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H104" s="9" t="str">
-        <f t="array" ref="H104">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B104,C104),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I104" s="9" t="str">
-        <f t="array" ref="I104">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B104,C104),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I104">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B104,C104),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J104" s="9" t="str">
-        <f t="array" ref="J104">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B104,C104),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K104" s="12" t="str">
-        <f t="array" ref="K104">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B104,C104),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J104">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B104,C104),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K104" s="9" t="str">
+        <f t="array" ref="K104">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B104,C104),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L104" s="12" t="str">
+        <f t="array" ref="L104">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B104,C104),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B105" s="8">
         <v>20.69</v>
       </c>
@@ -6555,39 +6970,43 @@
         <v>20.76</v>
       </c>
       <c r="D105" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
-      <c r="E105" s="9" t="str">
-        <f t="array" ref="E105">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B105,C105),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E105" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>+II</v>
       </c>
       <c r="F105" s="9" t="str">
-        <f t="array" ref="F105">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B105,C105),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F105">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B105,C105),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G105" s="9" t="str">
-        <f t="array" ref="G105">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B105,C105),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G105">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B105,C105),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H105" s="9" t="str">
+        <f t="array" ref="H105">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B105,C105),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H105" s="9" t="str">
-        <f t="array" ref="H105">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B105,C105),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I105" s="9" t="str">
-        <f t="array" ref="I105">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B105,C105),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I105">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B105,C105),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J105" s="9" t="str">
-        <f t="array" ref="J105">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B105,C105),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K105" s="12" t="str">
-        <f t="array" ref="K105">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B105,C105),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="106" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="array" ref="J105">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B105,C105),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K105" s="9" t="str">
+        <f t="array" ref="K105">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B105,C105),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L105" s="12" t="str">
+        <f t="array" ref="L105">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B105,C105),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B106" s="13">
         <v>20.76</v>
       </c>
@@ -6595,55 +7014,59 @@
         <v>20.93</v>
       </c>
       <c r="D106" s="24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
-      <c r="E106" s="14" t="str">
-        <f t="array" ref="E106">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B106,C106),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+      <c r="E106" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v>+II</v>
       </c>
       <c r="F106" s="14" t="str">
-        <f t="array" ref="F106">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B106,C106),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F106">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B106,C106),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G106" s="14" t="str">
-        <f t="array" ref="G106">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B106,C106),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G106">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B106,C106),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="H106" s="14" t="str">
+        <f t="array" ref="H106">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B106,C106),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+II</v>
       </c>
-      <c r="H106" s="14" t="str">
-        <f t="array" ref="H106">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B106,C106),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I106" s="14" t="str">
-        <f t="array" ref="I106">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B106,C106),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I106">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B106,C106),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J106" s="14" t="str">
-        <f t="array" ref="J106">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B106,C106),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K106" s="17" t="str">
-        <f t="array" ref="K106">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B106,C106),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J106">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B106,C106),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K106" s="14" t="str">
+        <f t="array" ref="K106">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B106,C106),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L106" s="17" t="str">
+        <f t="array" ref="L106">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B106,C106),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C108" s="9"/>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C109" s="9"/>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C110" s="9"/>
     </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C111" s="9"/>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C112" s="9"/>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">
@@ -6728,7 +7151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CBD9B7-2F4E-4E0F-B0DE-0C76068107FF}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/benchmarktests/testdefinitions/Benchmartktest_traject 14-2.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject 14-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A299C67-8F18-43FE-A008-3CC022A384C3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D84A6B1-239E-4657-BED6-C8412A5B60E2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="10" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
   </bookViews>
@@ -2428,8 +2428,8 @@
   </sheetPr>
   <dimension ref="B1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E106"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="E106" sqref="D3:E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2482,11 +2482,11 @@
         <v>0.16564654600000001</v>
       </c>
       <c r="D3" s="22" t="str">
-        <f t="shared" ref="D3:D66" si="0">IF(COUNTIF(F3:L3,"D")&gt;0,"D",IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III","ND"))))))))</f>
+        <f>IF(COUNTIF(F3:L3,"D")&gt;0,"D",IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E3" s="22" t="str">
-        <f t="shared" ref="E3:E66" si="1">IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III","ND")))))))</f>
+        <f>IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F3" s="4" t="str">
@@ -2503,19 +2503,19 @@
       </c>
       <c r="I3" s="4" t="str">
         <f t="array" ref="I3">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B3,C3),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J3" s="4" t="str">
         <f t="array" ref="J3">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B3,C3),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K3" s="4" t="str">
         <f t="array" ref="K3">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B3,C3),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L3" s="7" t="str">
         <f t="array" ref="L3">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B3,C3),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -2526,11 +2526,11 @@
         <v>0.190709198</v>
       </c>
       <c r="D4" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F4:L4,"D")&gt;0,"D",IF(COUNTIF(F4:L4,"-III")&gt;0,"-III",IF(COUNTIF(F4:L4,"-II")&gt;0,"-II",IF(COUNTIF(F4:L4,"-I")&gt;0,"-I",IF(COUNTIF(F4:L4,"+0")&gt;0,"+0",IF(COUNTIF(F4:L4,"+I")&gt;0,"+I",IF(COUNTIF(F4:L4,"+II")&gt;0,"+II",IF(COUNTIF(F4:L4,"+III")&gt;0,"+III",IF(COUNTIF(F4:L4,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E4" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F4:L4,"-III")&gt;0,"-III",IF(COUNTIF(F4:L4,"-II")&gt;0,"-II",IF(COUNTIF(F4:L4,"-I")&gt;0,"-I",IF(COUNTIF(F4:L4,"+0")&gt;0,"+0",IF(COUNTIF(F4:L4,"+I")&gt;0,"+I",IF(COUNTIF(F4:L4,"+II")&gt;0,"+II",IF(COUNTIF(F4:L4,"+III")&gt;0,"+III",IF(COUNTIF(F4:L4,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F4" s="9" t="str">
@@ -2547,19 +2547,19 @@
       </c>
       <c r="I4" s="9" t="str">
         <f t="array" ref="I4">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B4,C4),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J4" s="9" t="str">
         <f t="array" ref="J4">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B4,C4),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K4" s="9" t="str">
         <f t="array" ref="K4">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B4,C4),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L4" s="12" t="str">
         <f t="array" ref="L4">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B4,C4),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -2570,11 +2570,11 @@
         <v>0.21</v>
       </c>
       <c r="D5" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F5:L5,"D")&gt;0,"D",IF(COUNTIF(F5:L5,"-III")&gt;0,"-III",IF(COUNTIF(F5:L5,"-II")&gt;0,"-II",IF(COUNTIF(F5:L5,"-I")&gt;0,"-I",IF(COUNTIF(F5:L5,"+0")&gt;0,"+0",IF(COUNTIF(F5:L5,"+I")&gt;0,"+I",IF(COUNTIF(F5:L5,"+II")&gt;0,"+II",IF(COUNTIF(F5:L5,"+III")&gt;0,"+III",IF(COUNTIF(F5:L5,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E5" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F5:L5,"-III")&gt;0,"-III",IF(COUNTIF(F5:L5,"-II")&gt;0,"-II",IF(COUNTIF(F5:L5,"-I")&gt;0,"-I",IF(COUNTIF(F5:L5,"+0")&gt;0,"+0",IF(COUNTIF(F5:L5,"+I")&gt;0,"+I",IF(COUNTIF(F5:L5,"+II")&gt;0,"+II",IF(COUNTIF(F5:L5,"+III")&gt;0,"+III",IF(COUNTIF(F5:L5,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F5" s="9" t="str">
@@ -2591,19 +2591,19 @@
       </c>
       <c r="I5" s="9" t="str">
         <f t="array" ref="I5">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B5,C5),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J5" s="9" t="str">
         <f t="array" ref="J5">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B5,C5),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K5" s="9" t="str">
         <f t="array" ref="K5">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B5,C5),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L5" s="12" t="str">
         <f t="array" ref="L5">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B5,C5),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -2614,11 +2614,11 @@
         <v>0.22009848399999998</v>
       </c>
       <c r="D6" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F6:L6,"D")&gt;0,"D",IF(COUNTIF(F6:L6,"-III")&gt;0,"-III",IF(COUNTIF(F6:L6,"-II")&gt;0,"-II",IF(COUNTIF(F6:L6,"-I")&gt;0,"-I",IF(COUNTIF(F6:L6,"+0")&gt;0,"+0",IF(COUNTIF(F6:L6,"+I")&gt;0,"+I",IF(COUNTIF(F6:L6,"+II")&gt;0,"+II",IF(COUNTIF(F6:L6,"+III")&gt;0,"+III",IF(COUNTIF(F6:L6,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E6" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F6:L6,"-III")&gt;0,"-III",IF(COUNTIF(F6:L6,"-II")&gt;0,"-II",IF(COUNTIF(F6:L6,"-I")&gt;0,"-I",IF(COUNTIF(F6:L6,"+0")&gt;0,"+0",IF(COUNTIF(F6:L6,"+I")&gt;0,"+I",IF(COUNTIF(F6:L6,"+II")&gt;0,"+II",IF(COUNTIF(F6:L6,"+III")&gt;0,"+III",IF(COUNTIF(F6:L6,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F6" s="9" t="str">
@@ -2635,19 +2635,19 @@
       </c>
       <c r="I6" s="9" t="str">
         <f t="array" ref="I6">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B6,C6),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J6" s="9" t="str">
         <f t="array" ref="J6">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B6,C6),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K6" s="9" t="str">
         <f t="array" ref="K6">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B6,C6),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L6" s="12" t="str">
         <f t="array" ref="L6">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B6,C6),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -2658,11 +2658,11 @@
         <v>0.23085095799999999</v>
       </c>
       <c r="D7" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F7:L7,"D")&gt;0,"D",IF(COUNTIF(F7:L7,"-III")&gt;0,"-III",IF(COUNTIF(F7:L7,"-II")&gt;0,"-II",IF(COUNTIF(F7:L7,"-I")&gt;0,"-I",IF(COUNTIF(F7:L7,"+0")&gt;0,"+0",IF(COUNTIF(F7:L7,"+I")&gt;0,"+I",IF(COUNTIF(F7:L7,"+II")&gt;0,"+II",IF(COUNTIF(F7:L7,"+III")&gt;0,"+III",IF(COUNTIF(F7:L7,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E7" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F7:L7,"-III")&gt;0,"-III",IF(COUNTIF(F7:L7,"-II")&gt;0,"-II",IF(COUNTIF(F7:L7,"-I")&gt;0,"-I",IF(COUNTIF(F7:L7,"+0")&gt;0,"+0",IF(COUNTIF(F7:L7,"+I")&gt;0,"+I",IF(COUNTIF(F7:L7,"+II")&gt;0,"+II",IF(COUNTIF(F7:L7,"+III")&gt;0,"+III",IF(COUNTIF(F7:L7,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F7" s="9" t="str">
@@ -2679,19 +2679,19 @@
       </c>
       <c r="I7" s="9" t="str">
         <f t="array" ref="I7">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B7,C7),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J7" s="9" t="str">
         <f t="array" ref="J7">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B7,C7),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K7" s="9" t="str">
         <f t="array" ref="K7">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B7,C7),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L7" s="12" t="str">
         <f t="array" ref="L7">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B7,C7),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -2702,11 +2702,11 @@
         <v>0.24</v>
       </c>
       <c r="D8" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F8:L8,"D")&gt;0,"D",IF(COUNTIF(F8:L8,"-III")&gt;0,"-III",IF(COUNTIF(F8:L8,"-II")&gt;0,"-II",IF(COUNTIF(F8:L8,"-I")&gt;0,"-I",IF(COUNTIF(F8:L8,"+0")&gt;0,"+0",IF(COUNTIF(F8:L8,"+I")&gt;0,"+I",IF(COUNTIF(F8:L8,"+II")&gt;0,"+II",IF(COUNTIF(F8:L8,"+III")&gt;0,"+III",IF(COUNTIF(F8:L8,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E8" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F8:L8,"-III")&gt;0,"-III",IF(COUNTIF(F8:L8,"-II")&gt;0,"-II",IF(COUNTIF(F8:L8,"-I")&gt;0,"-I",IF(COUNTIF(F8:L8,"+0")&gt;0,"+0",IF(COUNTIF(F8:L8,"+I")&gt;0,"+I",IF(COUNTIF(F8:L8,"+II")&gt;0,"+II",IF(COUNTIF(F8:L8,"+III")&gt;0,"+III",IF(COUNTIF(F8:L8,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F8" s="9" t="str">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="I8" s="9" t="str">
         <f t="array" ref="I8">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B8,C8),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J8" s="9" t="str">
         <f t="array" ref="J8">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B8,C8),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2731,11 +2731,11 @@
       </c>
       <c r="K8" s="9" t="str">
         <f t="array" ref="K8">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B8,C8),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L8" s="12" t="str">
         <f t="array" ref="L8">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B8,C8),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -2746,11 +2746,11 @@
         <v>0.240850958</v>
       </c>
       <c r="D9" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F9:L9,"D")&gt;0,"D",IF(COUNTIF(F9:L9,"-III")&gt;0,"-III",IF(COUNTIF(F9:L9,"-II")&gt;0,"-II",IF(COUNTIF(F9:L9,"-I")&gt;0,"-I",IF(COUNTIF(F9:L9,"+0")&gt;0,"+0",IF(COUNTIF(F9:L9,"+I")&gt;0,"+I",IF(COUNTIF(F9:L9,"+II")&gt;0,"+II",IF(COUNTIF(F9:L9,"+III")&gt;0,"+III",IF(COUNTIF(F9:L9,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E9" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F9:L9,"-III")&gt;0,"-III",IF(COUNTIF(F9:L9,"-II")&gt;0,"-II",IF(COUNTIF(F9:L9,"-I")&gt;0,"-I",IF(COUNTIF(F9:L9,"+0")&gt;0,"+0",IF(COUNTIF(F9:L9,"+I")&gt;0,"+I",IF(COUNTIF(F9:L9,"+II")&gt;0,"+II",IF(COUNTIF(F9:L9,"+III")&gt;0,"+III",IF(COUNTIF(F9:L9,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F9" s="9" t="str">
@@ -2767,7 +2767,7 @@
       </c>
       <c r="I9" s="9" t="str">
         <f t="array" ref="I9">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B9,C9),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J9" s="9" t="str">
         <f t="array" ref="J9">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B9,C9),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2775,11 +2775,11 @@
       </c>
       <c r="K9" s="9" t="str">
         <f t="array" ref="K9">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B9,C9),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L9" s="12" t="str">
         <f t="array" ref="L9">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B9,C9),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -2790,11 +2790,11 @@
         <v>0.34</v>
       </c>
       <c r="D10" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F10:L10,"D")&gt;0,"D",IF(COUNTIF(F10:L10,"-III")&gt;0,"-III",IF(COUNTIF(F10:L10,"-II")&gt;0,"-II",IF(COUNTIF(F10:L10,"-I")&gt;0,"-I",IF(COUNTIF(F10:L10,"+0")&gt;0,"+0",IF(COUNTIF(F10:L10,"+I")&gt;0,"+I",IF(COUNTIF(F10:L10,"+II")&gt;0,"+II",IF(COUNTIF(F10:L10,"+III")&gt;0,"+III",IF(COUNTIF(F10:L10,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E10" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F10:L10,"-III")&gt;0,"-III",IF(COUNTIF(F10:L10,"-II")&gt;0,"-II",IF(COUNTIF(F10:L10,"-I")&gt;0,"-I",IF(COUNTIF(F10:L10,"+0")&gt;0,"+0",IF(COUNTIF(F10:L10,"+I")&gt;0,"+I",IF(COUNTIF(F10:L10,"+II")&gt;0,"+II",IF(COUNTIF(F10:L10,"+III")&gt;0,"+III",IF(COUNTIF(F10:L10,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F10" s="9" t="str">
@@ -2811,19 +2811,19 @@
       </c>
       <c r="I10" s="9" t="str">
         <f t="array" ref="I10">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B10,C10),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J10" s="9" t="str">
         <f t="array" ref="J10">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B10,C10),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K10" s="9" t="str">
         <f t="array" ref="K10">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B10,C10),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L10" s="12" t="str">
         <f t="array" ref="L10">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B10,C10),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -2834,11 +2834,11 @@
         <v>0.342187662</v>
       </c>
       <c r="D11" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F11:L11,"D")&gt;0,"D",IF(COUNTIF(F11:L11,"-III")&gt;0,"-III",IF(COUNTIF(F11:L11,"-II")&gt;0,"-II",IF(COUNTIF(F11:L11,"-I")&gt;0,"-I",IF(COUNTIF(F11:L11,"+0")&gt;0,"+0",IF(COUNTIF(F11:L11,"+I")&gt;0,"+I",IF(COUNTIF(F11:L11,"+II")&gt;0,"+II",IF(COUNTIF(F11:L11,"+III")&gt;0,"+III",IF(COUNTIF(F11:L11,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E11" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F11:L11,"-III")&gt;0,"-III",IF(COUNTIF(F11:L11,"-II")&gt;0,"-II",IF(COUNTIF(F11:L11,"-I")&gt;0,"-I",IF(COUNTIF(F11:L11,"+0")&gt;0,"+0",IF(COUNTIF(F11:L11,"+I")&gt;0,"+I",IF(COUNTIF(F11:L11,"+II")&gt;0,"+II",IF(COUNTIF(F11:L11,"+III")&gt;0,"+III",IF(COUNTIF(F11:L11,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F11" s="9" t="str">
@@ -2855,19 +2855,19 @@
       </c>
       <c r="I11" s="9" t="str">
         <f t="array" ref="I11">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B11,C11),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J11" s="9" t="str">
         <f t="array" ref="J11">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B11,C11),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K11" s="9" t="str">
         <f t="array" ref="K11">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B11,C11),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L11" s="12" t="str">
         <f t="array" ref="L11">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B11,C11),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -2878,11 +2878,11 @@
         <v>0.91</v>
       </c>
       <c r="D12" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F12:L12,"D")&gt;0,"D",IF(COUNTIF(F12:L12,"-III")&gt;0,"-III",IF(COUNTIF(F12:L12,"-II")&gt;0,"-II",IF(COUNTIF(F12:L12,"-I")&gt;0,"-I",IF(COUNTIF(F12:L12,"+0")&gt;0,"+0",IF(COUNTIF(F12:L12,"+I")&gt;0,"+I",IF(COUNTIF(F12:L12,"+II")&gt;0,"+II",IF(COUNTIF(F12:L12,"+III")&gt;0,"+III",IF(COUNTIF(F12:L12,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+III</v>
       </c>
       <c r="E12" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F12:L12,"-III")&gt;0,"-III",IF(COUNTIF(F12:L12,"-II")&gt;0,"-II",IF(COUNTIF(F12:L12,"-I")&gt;0,"-I",IF(COUNTIF(F12:L12,"+0")&gt;0,"+0",IF(COUNTIF(F12:L12,"+I")&gt;0,"+I",IF(COUNTIF(F12:L12,"+II")&gt;0,"+II",IF(COUNTIF(F12:L12,"+III")&gt;0,"+III",IF(COUNTIF(F12:L12,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+III</v>
       </c>
       <c r="F12" s="9" t="str">
@@ -2899,19 +2899,19 @@
       </c>
       <c r="I12" s="9" t="str">
         <f t="array" ref="I12">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B12,C12),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J12" s="9" t="str">
         <f t="array" ref="J12">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B12,C12),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K12" s="9" t="str">
         <f t="array" ref="K12">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B12,C12),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L12" s="12" t="str">
         <f t="array" ref="L12">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B12,C12),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -2922,11 +2922,11 @@
         <v>0.995927067</v>
       </c>
       <c r="D13" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F13:L13,"D")&gt;0,"D",IF(COUNTIF(F13:L13,"-III")&gt;0,"-III",IF(COUNTIF(F13:L13,"-II")&gt;0,"-II",IF(COUNTIF(F13:L13,"-I")&gt;0,"-I",IF(COUNTIF(F13:L13,"+0")&gt;0,"+0",IF(COUNTIF(F13:L13,"+I")&gt;0,"+I",IF(COUNTIF(F13:L13,"+II")&gt;0,"+II",IF(COUNTIF(F13:L13,"+III")&gt;0,"+III",IF(COUNTIF(F13:L13,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+III</v>
       </c>
       <c r="E13" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F13:L13,"-III")&gt;0,"-III",IF(COUNTIF(F13:L13,"-II")&gt;0,"-II",IF(COUNTIF(F13:L13,"-I")&gt;0,"-I",IF(COUNTIF(F13:L13,"+0")&gt;0,"+0",IF(COUNTIF(F13:L13,"+I")&gt;0,"+I",IF(COUNTIF(F13:L13,"+II")&gt;0,"+II",IF(COUNTIF(F13:L13,"+III")&gt;0,"+III",IF(COUNTIF(F13:L13,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+III</v>
       </c>
       <c r="F13" s="9" t="str">
@@ -2943,19 +2943,19 @@
       </c>
       <c r="I13" s="9" t="str">
         <f t="array" ref="I13">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B13,C13),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J13" s="9" t="str">
         <f t="array" ref="J13">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B13,C13),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K13" s="9" t="str">
         <f t="array" ref="K13">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B13,C13),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L13" s="12" t="str">
         <f t="array" ref="L13">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B13,C13),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -2966,11 +2966,11 @@
         <v>0.99592706799999997</v>
       </c>
       <c r="D14" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F14:L14,"D")&gt;0,"D",IF(COUNTIF(F14:L14,"-III")&gt;0,"-III",IF(COUNTIF(F14:L14,"-II")&gt;0,"-II",IF(COUNTIF(F14:L14,"-I")&gt;0,"-I",IF(COUNTIF(F14:L14,"+0")&gt;0,"+0",IF(COUNTIF(F14:L14,"+I")&gt;0,"+I",IF(COUNTIF(F14:L14,"+II")&gt;0,"+II",IF(COUNTIF(F14:L14,"+III")&gt;0,"+III",IF(COUNTIF(F14:L14,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E14" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F14:L14,"-III")&gt;0,"-III",IF(COUNTIF(F14:L14,"-II")&gt;0,"-II",IF(COUNTIF(F14:L14,"-I")&gt;0,"-I",IF(COUNTIF(F14:L14,"+0")&gt;0,"+0",IF(COUNTIF(F14:L14,"+I")&gt;0,"+I",IF(COUNTIF(F14:L14,"+II")&gt;0,"+II",IF(COUNTIF(F14:L14,"+III")&gt;0,"+III",IF(COUNTIF(F14:L14,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F14" s="9" t="str">
@@ -2987,19 +2987,19 @@
       </c>
       <c r="I14" s="9" t="str">
         <f t="array" ref="I14">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B14,C14),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J14" s="9" t="str">
         <f t="array" ref="J14">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B14,C14),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K14" s="9" t="str">
         <f t="array" ref="K14">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B14,C14),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L14" s="12" t="str">
         <f t="array" ref="L14">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B14,C14),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -3010,11 +3010,11 @@
         <v>1.44</v>
       </c>
       <c r="D15" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F15:L15,"D")&gt;0,"D",IF(COUNTIF(F15:L15,"-III")&gt;0,"-III",IF(COUNTIF(F15:L15,"-II")&gt;0,"-II",IF(COUNTIF(F15:L15,"-I")&gt;0,"-I",IF(COUNTIF(F15:L15,"+0")&gt;0,"+0",IF(COUNTIF(F15:L15,"+I")&gt;0,"+I",IF(COUNTIF(F15:L15,"+II")&gt;0,"+II",IF(COUNTIF(F15:L15,"+III")&gt;0,"+III",IF(COUNTIF(F15:L15,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E15" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F15:L15,"-III")&gt;0,"-III",IF(COUNTIF(F15:L15,"-II")&gt;0,"-II",IF(COUNTIF(F15:L15,"-I")&gt;0,"-I",IF(COUNTIF(F15:L15,"+0")&gt;0,"+0",IF(COUNTIF(F15:L15,"+I")&gt;0,"+I",IF(COUNTIF(F15:L15,"+II")&gt;0,"+II",IF(COUNTIF(F15:L15,"+III")&gt;0,"+III",IF(COUNTIF(F15:L15,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F15" s="9" t="str">
@@ -3031,19 +3031,19 @@
       </c>
       <c r="I15" s="9" t="str">
         <f t="array" ref="I15">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B15,C15),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J15" s="9" t="str">
         <f t="array" ref="J15">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B15,C15),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K15" s="9" t="str">
         <f t="array" ref="K15">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B15,C15),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L15" s="12" t="str">
         <f t="array" ref="L15">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B15,C15),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
@@ -3054,11 +3054,11 @@
         <v>1.545093896</v>
       </c>
       <c r="D16" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F16:L16,"D")&gt;0,"D",IF(COUNTIF(F16:L16,"-III")&gt;0,"-III",IF(COUNTIF(F16:L16,"-II")&gt;0,"-II",IF(COUNTIF(F16:L16,"-I")&gt;0,"-I",IF(COUNTIF(F16:L16,"+0")&gt;0,"+0",IF(COUNTIF(F16:L16,"+I")&gt;0,"+I",IF(COUNTIF(F16:L16,"+II")&gt;0,"+II",IF(COUNTIF(F16:L16,"+III")&gt;0,"+III",IF(COUNTIF(F16:L16,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E16" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F16:L16,"-III")&gt;0,"-III",IF(COUNTIF(F16:L16,"-II")&gt;0,"-II",IF(COUNTIF(F16:L16,"-I")&gt;0,"-I",IF(COUNTIF(F16:L16,"+0")&gt;0,"+0",IF(COUNTIF(F16:L16,"+I")&gt;0,"+I",IF(COUNTIF(F16:L16,"+II")&gt;0,"+II",IF(COUNTIF(F16:L16,"+III")&gt;0,"+III",IF(COUNTIF(F16:L16,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F16" s="9" t="str">
@@ -3075,19 +3075,19 @@
       </c>
       <c r="I16" s="9" t="str">
         <f t="array" ref="I16">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B16,C16),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J16" s="9" t="str">
         <f t="array" ref="J16">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B16,C16),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K16" s="9" t="str">
         <f t="array" ref="K16">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B16,C16),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L16" s="12" t="str">
         <f t="array" ref="L16">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B16,C16),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
@@ -3098,11 +3098,11 @@
         <v>1.812946862</v>
       </c>
       <c r="D17" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F17:L17,"D")&gt;0,"D",IF(COUNTIF(F17:L17,"-III")&gt;0,"-III",IF(COUNTIF(F17:L17,"-II")&gt;0,"-II",IF(COUNTIF(F17:L17,"-I")&gt;0,"-I",IF(COUNTIF(F17:L17,"+0")&gt;0,"+0",IF(COUNTIF(F17:L17,"+I")&gt;0,"+I",IF(COUNTIF(F17:L17,"+II")&gt;0,"+II",IF(COUNTIF(F17:L17,"+III")&gt;0,"+III",IF(COUNTIF(F17:L17,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E17" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F17:L17,"-III")&gt;0,"-III",IF(COUNTIF(F17:L17,"-II")&gt;0,"-II",IF(COUNTIF(F17:L17,"-I")&gt;0,"-I",IF(COUNTIF(F17:L17,"+0")&gt;0,"+0",IF(COUNTIF(F17:L17,"+I")&gt;0,"+I",IF(COUNTIF(F17:L17,"+II")&gt;0,"+II",IF(COUNTIF(F17:L17,"+III")&gt;0,"+III",IF(COUNTIF(F17:L17,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F17" s="9" t="str">
@@ -3119,19 +3119,19 @@
       </c>
       <c r="I17" s="9" t="str">
         <f t="array" ref="I17">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B17,C17),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J17" s="9" t="str">
         <f t="array" ref="J17">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B17,C17),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K17" s="9" t="str">
         <f t="array" ref="K17">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B17,C17),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L17" s="12" t="str">
         <f t="array" ref="L17">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B17,C17),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -3142,11 +3142,11 @@
         <v>1.96</v>
       </c>
       <c r="D18" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F18:L18,"D")&gt;0,"D",IF(COUNTIF(F18:L18,"-III")&gt;0,"-III",IF(COUNTIF(F18:L18,"-II")&gt;0,"-II",IF(COUNTIF(F18:L18,"-I")&gt;0,"-I",IF(COUNTIF(F18:L18,"+0")&gt;0,"+0",IF(COUNTIF(F18:L18,"+I")&gt;0,"+I",IF(COUNTIF(F18:L18,"+II")&gt;0,"+II",IF(COUNTIF(F18:L18,"+III")&gt;0,"+III",IF(COUNTIF(F18:L18,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E18" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F18:L18,"-III")&gt;0,"-III",IF(COUNTIF(F18:L18,"-II")&gt;0,"-II",IF(COUNTIF(F18:L18,"-I")&gt;0,"-I",IF(COUNTIF(F18:L18,"+0")&gt;0,"+0",IF(COUNTIF(F18:L18,"+I")&gt;0,"+I",IF(COUNTIF(F18:L18,"+II")&gt;0,"+II",IF(COUNTIF(F18:L18,"+III")&gt;0,"+III",IF(COUNTIF(F18:L18,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F18" s="9" t="str">
@@ -3163,19 +3163,19 @@
       </c>
       <c r="I18" s="9" t="str">
         <f t="array" ref="I18">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B18,C18),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J18" s="9" t="str">
         <f t="array" ref="J18">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B18,C18),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K18" s="9" t="str">
         <f t="array" ref="K18">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B18,C18),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L18" s="12" t="str">
         <f t="array" ref="L18">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B18,C18),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
@@ -3186,11 +3186,11 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="D19" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F19:L19,"D")&gt;0,"D",IF(COUNTIF(F19:L19,"-III")&gt;0,"-III",IF(COUNTIF(F19:L19,"-II")&gt;0,"-II",IF(COUNTIF(F19:L19,"-I")&gt;0,"-I",IF(COUNTIF(F19:L19,"+0")&gt;0,"+0",IF(COUNTIF(F19:L19,"+I")&gt;0,"+I",IF(COUNTIF(F19:L19,"+II")&gt;0,"+II",IF(COUNTIF(F19:L19,"+III")&gt;0,"+III",IF(COUNTIF(F19:L19,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E19" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F19:L19,"-III")&gt;0,"-III",IF(COUNTIF(F19:L19,"-II")&gt;0,"-II",IF(COUNTIF(F19:L19,"-I")&gt;0,"-I",IF(COUNTIF(F19:L19,"+0")&gt;0,"+0",IF(COUNTIF(F19:L19,"+I")&gt;0,"+I",IF(COUNTIF(F19:L19,"+II")&gt;0,"+II",IF(COUNTIF(F19:L19,"+III")&gt;0,"+III",IF(COUNTIF(F19:L19,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F19" s="9" t="str">
@@ -3207,19 +3207,19 @@
       </c>
       <c r="I19" s="9" t="str">
         <f t="array" ref="I19">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B19,C19),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J19" s="9" t="str">
         <f t="array" ref="J19">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B19,C19),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K19" s="9" t="str">
         <f t="array" ref="K19">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B19,C19),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L19" s="12" t="str">
         <f t="array" ref="L19">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B19,C19),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -3230,11 +3230,11 @@
         <v>2.5196520410000001</v>
       </c>
       <c r="D20" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F20:L20,"D")&gt;0,"D",IF(COUNTIF(F20:L20,"-III")&gt;0,"-III",IF(COUNTIF(F20:L20,"-II")&gt;0,"-II",IF(COUNTIF(F20:L20,"-I")&gt;0,"-I",IF(COUNTIF(F20:L20,"+0")&gt;0,"+0",IF(COUNTIF(F20:L20,"+I")&gt;0,"+I",IF(COUNTIF(F20:L20,"+II")&gt;0,"+II",IF(COUNTIF(F20:L20,"+III")&gt;0,"+III",IF(COUNTIF(F20:L20,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E20" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F20:L20,"-III")&gt;0,"-III",IF(COUNTIF(F20:L20,"-II")&gt;0,"-II",IF(COUNTIF(F20:L20,"-I")&gt;0,"-I",IF(COUNTIF(F20:L20,"+0")&gt;0,"+0",IF(COUNTIF(F20:L20,"+I")&gt;0,"+I",IF(COUNTIF(F20:L20,"+II")&gt;0,"+II",IF(COUNTIF(F20:L20,"+III")&gt;0,"+III",IF(COUNTIF(F20:L20,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F20" s="9" t="str">
@@ -3251,19 +3251,19 @@
       </c>
       <c r="I20" s="9" t="str">
         <f t="array" ref="I20">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B20,C20),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J20" s="9" t="str">
         <f t="array" ref="J20">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B20,C20),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K20" s="9" t="str">
         <f t="array" ref="K20">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B20,C20),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L20" s="12" t="str">
         <f t="array" ref="L20">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B20,C20),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
@@ -3274,11 +3274,11 @@
         <v>3.01</v>
       </c>
       <c r="D21" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F21:L21,"D")&gt;0,"D",IF(COUNTIF(F21:L21,"-III")&gt;0,"-III",IF(COUNTIF(F21:L21,"-II")&gt;0,"-II",IF(COUNTIF(F21:L21,"-I")&gt;0,"-I",IF(COUNTIF(F21:L21,"+0")&gt;0,"+0",IF(COUNTIF(F21:L21,"+I")&gt;0,"+I",IF(COUNTIF(F21:L21,"+II")&gt;0,"+II",IF(COUNTIF(F21:L21,"+III")&gt;0,"+III",IF(COUNTIF(F21:L21,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E21" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F21:L21,"-III")&gt;0,"-III",IF(COUNTIF(F21:L21,"-II")&gt;0,"-II",IF(COUNTIF(F21:L21,"-I")&gt;0,"-I",IF(COUNTIF(F21:L21,"+0")&gt;0,"+0",IF(COUNTIF(F21:L21,"+I")&gt;0,"+I",IF(COUNTIF(F21:L21,"+II")&gt;0,"+II",IF(COUNTIF(F21:L21,"+III")&gt;0,"+III",IF(COUNTIF(F21:L21,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F21" s="9" t="str">
@@ -3295,19 +3295,19 @@
       </c>
       <c r="I21" s="9" t="str">
         <f t="array" ref="I21">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B21,C21),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J21" s="9" t="str">
         <f t="array" ref="J21">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B21,C21),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K21" s="9" t="str">
         <f t="array" ref="K21">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B21,C21),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L21" s="12" t="str">
         <f t="array" ref="L21">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B21,C21),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -3318,11 +3318,11 @@
         <v>3.313767881</v>
       </c>
       <c r="D22" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F22:L22,"D")&gt;0,"D",IF(COUNTIF(F22:L22,"-III")&gt;0,"-III",IF(COUNTIF(F22:L22,"-II")&gt;0,"-II",IF(COUNTIF(F22:L22,"-I")&gt;0,"-I",IF(COUNTIF(F22:L22,"+0")&gt;0,"+0",IF(COUNTIF(F22:L22,"+I")&gt;0,"+I",IF(COUNTIF(F22:L22,"+II")&gt;0,"+II",IF(COUNTIF(F22:L22,"+III")&gt;0,"+III",IF(COUNTIF(F22:L22,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E22" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F22:L22,"-III")&gt;0,"-III",IF(COUNTIF(F22:L22,"-II")&gt;0,"-II",IF(COUNTIF(F22:L22,"-I")&gt;0,"-I",IF(COUNTIF(F22:L22,"+0")&gt;0,"+0",IF(COUNTIF(F22:L22,"+I")&gt;0,"+I",IF(COUNTIF(F22:L22,"+II")&gt;0,"+II",IF(COUNTIF(F22:L22,"+III")&gt;0,"+III",IF(COUNTIF(F22:L22,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F22" s="9" t="str">
@@ -3339,19 +3339,19 @@
       </c>
       <c r="I22" s="9" t="str">
         <f t="array" ref="I22">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B22,C22),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J22" s="9" t="str">
         <f t="array" ref="J22">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B22,C22),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K22" s="9" t="str">
         <f t="array" ref="K22">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B22,C22),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L22" s="12" t="str">
         <f t="array" ref="L22">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B22,C22),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
@@ -3362,11 +3362,11 @@
         <v>3.327915993</v>
       </c>
       <c r="D23" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F23:L23,"D")&gt;0,"D",IF(COUNTIF(F23:L23,"-III")&gt;0,"-III",IF(COUNTIF(F23:L23,"-II")&gt;0,"-II",IF(COUNTIF(F23:L23,"-I")&gt;0,"-I",IF(COUNTIF(F23:L23,"+0")&gt;0,"+0",IF(COUNTIF(F23:L23,"+I")&gt;0,"+I",IF(COUNTIF(F23:L23,"+II")&gt;0,"+II",IF(COUNTIF(F23:L23,"+III")&gt;0,"+III",IF(COUNTIF(F23:L23,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E23" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F23:L23,"-III")&gt;0,"-III",IF(COUNTIF(F23:L23,"-II")&gt;0,"-II",IF(COUNTIF(F23:L23,"-I")&gt;0,"-I",IF(COUNTIF(F23:L23,"+0")&gt;0,"+0",IF(COUNTIF(F23:L23,"+I")&gt;0,"+I",IF(COUNTIF(F23:L23,"+II")&gt;0,"+II",IF(COUNTIF(F23:L23,"+III")&gt;0,"+III",IF(COUNTIF(F23:L23,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F23" s="9" t="str">
@@ -3383,19 +3383,19 @@
       </c>
       <c r="I23" s="9" t="str">
         <f t="array" ref="I23">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B23,C23),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J23" s="9" t="str">
         <f t="array" ref="J23">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B23,C23),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K23" s="9" t="str">
         <f t="array" ref="K23">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B23,C23),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L23" s="12" t="str">
         <f t="array" ref="L23">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B23,C23),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -3406,11 +3406,11 @@
         <v>3.54</v>
       </c>
       <c r="D24" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F24:L24,"D")&gt;0,"D",IF(COUNTIF(F24:L24,"-III")&gt;0,"-III",IF(COUNTIF(F24:L24,"-II")&gt;0,"-II",IF(COUNTIF(F24:L24,"-I")&gt;0,"-I",IF(COUNTIF(F24:L24,"+0")&gt;0,"+0",IF(COUNTIF(F24:L24,"+I")&gt;0,"+I",IF(COUNTIF(F24:L24,"+II")&gt;0,"+II",IF(COUNTIF(F24:L24,"+III")&gt;0,"+III",IF(COUNTIF(F24:L24,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E24" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F24:L24,"-III")&gt;0,"-III",IF(COUNTIF(F24:L24,"-II")&gt;0,"-II",IF(COUNTIF(F24:L24,"-I")&gt;0,"-I",IF(COUNTIF(F24:L24,"+0")&gt;0,"+0",IF(COUNTIF(F24:L24,"+I")&gt;0,"+I",IF(COUNTIF(F24:L24,"+II")&gt;0,"+II",IF(COUNTIF(F24:L24,"+III")&gt;0,"+III",IF(COUNTIF(F24:L24,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F24" s="9" t="str">
@@ -3427,19 +3427,19 @@
       </c>
       <c r="I24" s="9" t="str">
         <f t="array" ref="I24">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B24,C24),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J24" s="9" t="str">
         <f t="array" ref="J24">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B24,C24),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K24" s="9" t="str">
         <f t="array" ref="K24">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B24,C24),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L24" s="12" t="str">
         <f t="array" ref="L24">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B24,C24),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
@@ -3450,11 +3450,11 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="D25" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F25:L25,"D")&gt;0,"D",IF(COUNTIF(F25:L25,"-III")&gt;0,"-III",IF(COUNTIF(F25:L25,"-II")&gt;0,"-II",IF(COUNTIF(F25:L25,"-I")&gt;0,"-I",IF(COUNTIF(F25:L25,"+0")&gt;0,"+0",IF(COUNTIF(F25:L25,"+I")&gt;0,"+I",IF(COUNTIF(F25:L25,"+II")&gt;0,"+II",IF(COUNTIF(F25:L25,"+III")&gt;0,"+III",IF(COUNTIF(F25:L25,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E25" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F25:L25,"-III")&gt;0,"-III",IF(COUNTIF(F25:L25,"-II")&gt;0,"-II",IF(COUNTIF(F25:L25,"-I")&gt;0,"-I",IF(COUNTIF(F25:L25,"+0")&gt;0,"+0",IF(COUNTIF(F25:L25,"+I")&gt;0,"+I",IF(COUNTIF(F25:L25,"+II")&gt;0,"+II",IF(COUNTIF(F25:L25,"+III")&gt;0,"+III",IF(COUNTIF(F25:L25,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F25" s="9" t="str">
@@ -3471,19 +3471,19 @@
       </c>
       <c r="I25" s="9" t="str">
         <f t="array" ref="I25">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B25,C25),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J25" s="9" t="str">
         <f t="array" ref="J25">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B25,C25),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K25" s="9" t="str">
         <f t="array" ref="K25">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B25,C25),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L25" s="12" t="str">
         <f t="array" ref="L25">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B25,C25),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -3494,11 +3494,11 @@
         <v>4.3705976250000003</v>
       </c>
       <c r="D26" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F26:L26,"D")&gt;0,"D",IF(COUNTIF(F26:L26,"-III")&gt;0,"-III",IF(COUNTIF(F26:L26,"-II")&gt;0,"-II",IF(COUNTIF(F26:L26,"-I")&gt;0,"-I",IF(COUNTIF(F26:L26,"+0")&gt;0,"+0",IF(COUNTIF(F26:L26,"+I")&gt;0,"+I",IF(COUNTIF(F26:L26,"+II")&gt;0,"+II",IF(COUNTIF(F26:L26,"+III")&gt;0,"+III",IF(COUNTIF(F26:L26,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E26" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F26:L26,"-III")&gt;0,"-III",IF(COUNTIF(F26:L26,"-II")&gt;0,"-II",IF(COUNTIF(F26:L26,"-I")&gt;0,"-I",IF(COUNTIF(F26:L26,"+0")&gt;0,"+0",IF(COUNTIF(F26:L26,"+I")&gt;0,"+I",IF(COUNTIF(F26:L26,"+II")&gt;0,"+II",IF(COUNTIF(F26:L26,"+III")&gt;0,"+III",IF(COUNTIF(F26:L26,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F26" s="9" t="str">
@@ -3515,19 +3515,19 @@
       </c>
       <c r="I26" s="9" t="str">
         <f t="array" ref="I26">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B26,C26),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J26" s="9" t="str">
         <f t="array" ref="J26">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B26,C26),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K26" s="9" t="str">
         <f t="array" ref="K26">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B26,C26),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L26" s="12" t="str">
         <f t="array" ref="L26">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B26,C26),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
@@ -3538,11 +3538,11 @@
         <v>4.58</v>
       </c>
       <c r="D27" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F27:L27,"D")&gt;0,"D",IF(COUNTIF(F27:L27,"-III")&gt;0,"-III",IF(COUNTIF(F27:L27,"-II")&gt;0,"-II",IF(COUNTIF(F27:L27,"-I")&gt;0,"-I",IF(COUNTIF(F27:L27,"+0")&gt;0,"+0",IF(COUNTIF(F27:L27,"+I")&gt;0,"+I",IF(COUNTIF(F27:L27,"+II")&gt;0,"+II",IF(COUNTIF(F27:L27,"+III")&gt;0,"+III",IF(COUNTIF(F27:L27,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E27" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F27:L27,"-III")&gt;0,"-III",IF(COUNTIF(F27:L27,"-II")&gt;0,"-II",IF(COUNTIF(F27:L27,"-I")&gt;0,"-I",IF(COUNTIF(F27:L27,"+0")&gt;0,"+0",IF(COUNTIF(F27:L27,"+I")&gt;0,"+I",IF(COUNTIF(F27:L27,"+II")&gt;0,"+II",IF(COUNTIF(F27:L27,"+III")&gt;0,"+III",IF(COUNTIF(F27:L27,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F27" s="9" t="str">
@@ -3559,19 +3559,19 @@
       </c>
       <c r="I27" s="9" t="str">
         <f t="array" ref="I27">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B27,C27),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J27" s="9" t="str">
         <f t="array" ref="J27">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B27,C27),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K27" s="9" t="str">
         <f t="array" ref="K27">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B27,C27),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L27" s="12" t="str">
         <f t="array" ref="L27">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B27,C27),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
@@ -3582,11 +3582,11 @@
         <v>5.1100000000000003</v>
       </c>
       <c r="D28" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F28:L28,"D")&gt;0,"D",IF(COUNTIF(F28:L28,"-III")&gt;0,"-III",IF(COUNTIF(F28:L28,"-II")&gt;0,"-II",IF(COUNTIF(F28:L28,"-I")&gt;0,"-I",IF(COUNTIF(F28:L28,"+0")&gt;0,"+0",IF(COUNTIF(F28:L28,"+I")&gt;0,"+I",IF(COUNTIF(F28:L28,"+II")&gt;0,"+II",IF(COUNTIF(F28:L28,"+III")&gt;0,"+III",IF(COUNTIF(F28:L28,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E28" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F28:L28,"-III")&gt;0,"-III",IF(COUNTIF(F28:L28,"-II")&gt;0,"-II",IF(COUNTIF(F28:L28,"-I")&gt;0,"-I",IF(COUNTIF(F28:L28,"+0")&gt;0,"+0",IF(COUNTIF(F28:L28,"+I")&gt;0,"+I",IF(COUNTIF(F28:L28,"+II")&gt;0,"+II",IF(COUNTIF(F28:L28,"+III")&gt;0,"+III",IF(COUNTIF(F28:L28,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F28" s="9" t="str">
@@ -3603,19 +3603,19 @@
       </c>
       <c r="I28" s="9" t="str">
         <f t="array" ref="I28">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B28,C28),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J28" s="9" t="str">
         <f t="array" ref="J28">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B28,C28),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K28" s="9" t="str">
         <f t="array" ref="K28">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B28,C28),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L28" s="12" t="str">
         <f t="array" ref="L28">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B28,C28),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
@@ -3626,11 +3626,11 @@
         <v>5.64</v>
       </c>
       <c r="D29" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F29:L29,"D")&gt;0,"D",IF(COUNTIF(F29:L29,"-III")&gt;0,"-III",IF(COUNTIF(F29:L29,"-II")&gt;0,"-II",IF(COUNTIF(F29:L29,"-I")&gt;0,"-I",IF(COUNTIF(F29:L29,"+0")&gt;0,"+0",IF(COUNTIF(F29:L29,"+I")&gt;0,"+I",IF(COUNTIF(F29:L29,"+II")&gt;0,"+II",IF(COUNTIF(F29:L29,"+III")&gt;0,"+III",IF(COUNTIF(F29:L29,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E29" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F29:L29,"-III")&gt;0,"-III",IF(COUNTIF(F29:L29,"-II")&gt;0,"-II",IF(COUNTIF(F29:L29,"-I")&gt;0,"-I",IF(COUNTIF(F29:L29,"+0")&gt;0,"+0",IF(COUNTIF(F29:L29,"+I")&gt;0,"+I",IF(COUNTIF(F29:L29,"+II")&gt;0,"+II",IF(COUNTIF(F29:L29,"+III")&gt;0,"+III",IF(COUNTIF(F29:L29,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F29" s="9" t="str">
@@ -3647,19 +3647,19 @@
       </c>
       <c r="I29" s="9" t="str">
         <f t="array" ref="I29">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B29,C29),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J29" s="9" t="str">
         <f t="array" ref="J29">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B29,C29),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K29" s="9" t="str">
         <f t="array" ref="K29">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B29,C29),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L29" s="12" t="str">
         <f t="array" ref="L29">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B29,C29),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
@@ -3670,11 +3670,11 @@
         <v>5.6951114260000004</v>
       </c>
       <c r="D30" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F30:L30,"D")&gt;0,"D",IF(COUNTIF(F30:L30,"-III")&gt;0,"-III",IF(COUNTIF(F30:L30,"-II")&gt;0,"-II",IF(COUNTIF(F30:L30,"-I")&gt;0,"-I",IF(COUNTIF(F30:L30,"+0")&gt;0,"+0",IF(COUNTIF(F30:L30,"+I")&gt;0,"+I",IF(COUNTIF(F30:L30,"+II")&gt;0,"+II",IF(COUNTIF(F30:L30,"+III")&gt;0,"+III",IF(COUNTIF(F30:L30,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E30" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F30:L30,"-III")&gt;0,"-III",IF(COUNTIF(F30:L30,"-II")&gt;0,"-II",IF(COUNTIF(F30:L30,"-I")&gt;0,"-I",IF(COUNTIF(F30:L30,"+0")&gt;0,"+0",IF(COUNTIF(F30:L30,"+I")&gt;0,"+I",IF(COUNTIF(F30:L30,"+II")&gt;0,"+II",IF(COUNTIF(F30:L30,"+III")&gt;0,"+III",IF(COUNTIF(F30:L30,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F30" s="9" t="str">
@@ -3691,19 +3691,19 @@
       </c>
       <c r="I30" s="9" t="str">
         <f t="array" ref="I30">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B30,C30),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J30" s="9" t="str">
         <f t="array" ref="J30">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B30,C30),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K30" s="9" t="str">
         <f t="array" ref="K30">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B30,C30),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L30" s="12" t="str">
         <f t="array" ref="L30">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B30,C30),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
@@ -3714,11 +3714,11 @@
         <v>6.24</v>
       </c>
       <c r="D31" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F31:L31,"D")&gt;0,"D",IF(COUNTIF(F31:L31,"-III")&gt;0,"-III",IF(COUNTIF(F31:L31,"-II")&gt;0,"-II",IF(COUNTIF(F31:L31,"-I")&gt;0,"-I",IF(COUNTIF(F31:L31,"+0")&gt;0,"+0",IF(COUNTIF(F31:L31,"+I")&gt;0,"+I",IF(COUNTIF(F31:L31,"+II")&gt;0,"+II",IF(COUNTIF(F31:L31,"+III")&gt;0,"+III",IF(COUNTIF(F31:L31,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E31" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F31:L31,"-III")&gt;0,"-III",IF(COUNTIF(F31:L31,"-II")&gt;0,"-II",IF(COUNTIF(F31:L31,"-I")&gt;0,"-I",IF(COUNTIF(F31:L31,"+0")&gt;0,"+0",IF(COUNTIF(F31:L31,"+I")&gt;0,"+I",IF(COUNTIF(F31:L31,"+II")&gt;0,"+II",IF(COUNTIF(F31:L31,"+III")&gt;0,"+III",IF(COUNTIF(F31:L31,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F31" s="9" t="str">
@@ -3735,19 +3735,19 @@
       </c>
       <c r="I31" s="9" t="str">
         <f t="array" ref="I31">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B31,C31),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J31" s="9" t="str">
         <f t="array" ref="J31">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B31,C31),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K31" s="9" t="str">
         <f t="array" ref="K31">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B31,C31),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L31" s="12" t="str">
         <f t="array" ref="L31">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B31,C31),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
@@ -3758,11 +3758,11 @@
         <v>6.84</v>
       </c>
       <c r="D32" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F32:L32,"D")&gt;0,"D",IF(COUNTIF(F32:L32,"-III")&gt;0,"-III",IF(COUNTIF(F32:L32,"-II")&gt;0,"-II",IF(COUNTIF(F32:L32,"-I")&gt;0,"-I",IF(COUNTIF(F32:L32,"+0")&gt;0,"+0",IF(COUNTIF(F32:L32,"+I")&gt;0,"+I",IF(COUNTIF(F32:L32,"+II")&gt;0,"+II",IF(COUNTIF(F32:L32,"+III")&gt;0,"+III",IF(COUNTIF(F32:L32,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E32" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F32:L32,"-III")&gt;0,"-III",IF(COUNTIF(F32:L32,"-II")&gt;0,"-II",IF(COUNTIF(F32:L32,"-I")&gt;0,"-I",IF(COUNTIF(F32:L32,"+0")&gt;0,"+0",IF(COUNTIF(F32:L32,"+I")&gt;0,"+I",IF(COUNTIF(F32:L32,"+II")&gt;0,"+II",IF(COUNTIF(F32:L32,"+III")&gt;0,"+III",IF(COUNTIF(F32:L32,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F32" s="9" t="str">
@@ -3779,19 +3779,19 @@
       </c>
       <c r="I32" s="9" t="str">
         <f t="array" ref="I32">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B32,C32),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J32" s="9" t="str">
         <f t="array" ref="J32">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B32,C32),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K32" s="9" t="str">
         <f t="array" ref="K32">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B32,C32),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L32" s="12" t="str">
         <f t="array" ref="L32">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B32,C32),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
@@ -3802,11 +3802,11 @@
         <v>7.41</v>
       </c>
       <c r="D33" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F33:L33,"D")&gt;0,"D",IF(COUNTIF(F33:L33,"-III")&gt;0,"-III",IF(COUNTIF(F33:L33,"-II")&gt;0,"-II",IF(COUNTIF(F33:L33,"-I")&gt;0,"-I",IF(COUNTIF(F33:L33,"+0")&gt;0,"+0",IF(COUNTIF(F33:L33,"+I")&gt;0,"+I",IF(COUNTIF(F33:L33,"+II")&gt;0,"+II",IF(COUNTIF(F33:L33,"+III")&gt;0,"+III",IF(COUNTIF(F33:L33,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E33" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F33:L33,"-III")&gt;0,"-III",IF(COUNTIF(F33:L33,"-II")&gt;0,"-II",IF(COUNTIF(F33:L33,"-I")&gt;0,"-I",IF(COUNTIF(F33:L33,"+0")&gt;0,"+0",IF(COUNTIF(F33:L33,"+I")&gt;0,"+I",IF(COUNTIF(F33:L33,"+II")&gt;0,"+II",IF(COUNTIF(F33:L33,"+III")&gt;0,"+III",IF(COUNTIF(F33:L33,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F33" s="9" t="str">
@@ -3823,19 +3823,19 @@
       </c>
       <c r="I33" s="9" t="str">
         <f t="array" ref="I33">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B33,C33),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J33" s="9" t="str">
         <f t="array" ref="J33">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B33,C33),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K33" s="9" t="str">
         <f t="array" ref="K33">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B33,C33),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L33" s="12" t="str">
         <f t="array" ref="L33">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B33,C33),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -3846,11 +3846,11 @@
         <v>7.94</v>
       </c>
       <c r="D34" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F34:L34,"D")&gt;0,"D",IF(COUNTIF(F34:L34,"-III")&gt;0,"-III",IF(COUNTIF(F34:L34,"-II")&gt;0,"-II",IF(COUNTIF(F34:L34,"-I")&gt;0,"-I",IF(COUNTIF(F34:L34,"+0")&gt;0,"+0",IF(COUNTIF(F34:L34,"+I")&gt;0,"+I",IF(COUNTIF(F34:L34,"+II")&gt;0,"+II",IF(COUNTIF(F34:L34,"+III")&gt;0,"+III",IF(COUNTIF(F34:L34,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E34" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F34:L34,"-III")&gt;0,"-III",IF(COUNTIF(F34:L34,"-II")&gt;0,"-II",IF(COUNTIF(F34:L34,"-I")&gt;0,"-I",IF(COUNTIF(F34:L34,"+0")&gt;0,"+0",IF(COUNTIF(F34:L34,"+I")&gt;0,"+I",IF(COUNTIF(F34:L34,"+II")&gt;0,"+II",IF(COUNTIF(F34:L34,"+III")&gt;0,"+III",IF(COUNTIF(F34:L34,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F34" s="9" t="str">
@@ -3867,19 +3867,19 @@
       </c>
       <c r="I34" s="9" t="str">
         <f t="array" ref="I34">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B34,C34),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J34" s="9" t="str">
         <f t="array" ref="J34">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B34,C34),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K34" s="9" t="str">
         <f t="array" ref="K34">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B34,C34),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L34" s="12" t="str">
         <f t="array" ref="L34">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B34,C34),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
@@ -3890,11 +3890,11 @@
         <v>8.0399999999999991</v>
       </c>
       <c r="D35" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F35:L35,"D")&gt;0,"D",IF(COUNTIF(F35:L35,"-III")&gt;0,"-III",IF(COUNTIF(F35:L35,"-II")&gt;0,"-II",IF(COUNTIF(F35:L35,"-I")&gt;0,"-I",IF(COUNTIF(F35:L35,"+0")&gt;0,"+0",IF(COUNTIF(F35:L35,"+I")&gt;0,"+I",IF(COUNTIF(F35:L35,"+II")&gt;0,"+II",IF(COUNTIF(F35:L35,"+III")&gt;0,"+III",IF(COUNTIF(F35:L35,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E35" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F35:L35,"-III")&gt;0,"-III",IF(COUNTIF(F35:L35,"-II")&gt;0,"-II",IF(COUNTIF(F35:L35,"-I")&gt;0,"-I",IF(COUNTIF(F35:L35,"+0")&gt;0,"+0",IF(COUNTIF(F35:L35,"+I")&gt;0,"+I",IF(COUNTIF(F35:L35,"+II")&gt;0,"+II",IF(COUNTIF(F35:L35,"+III")&gt;0,"+III",IF(COUNTIF(F35:L35,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F35" s="9" t="str">
@@ -3911,19 +3911,19 @@
       </c>
       <c r="I35" s="9" t="str">
         <f t="array" ref="I35">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B35,C35),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J35" s="9" t="str">
         <f t="array" ref="J35">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B35,C35),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K35" s="9" t="str">
         <f t="array" ref="K35">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B35,C35),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L35" s="12" t="str">
         <f t="array" ref="L35">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B35,C35),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
@@ -3934,11 +3934,11 @@
         <v>8.2464557510000009</v>
       </c>
       <c r="D36" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F36:L36,"D")&gt;0,"D",IF(COUNTIF(F36:L36,"-III")&gt;0,"-III",IF(COUNTIF(F36:L36,"-II")&gt;0,"-II",IF(COUNTIF(F36:L36,"-I")&gt;0,"-I",IF(COUNTIF(F36:L36,"+0")&gt;0,"+0",IF(COUNTIF(F36:L36,"+I")&gt;0,"+I",IF(COUNTIF(F36:L36,"+II")&gt;0,"+II",IF(COUNTIF(F36:L36,"+III")&gt;0,"+III",IF(COUNTIF(F36:L36,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E36" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F36:L36,"-III")&gt;0,"-III",IF(COUNTIF(F36:L36,"-II")&gt;0,"-II",IF(COUNTIF(F36:L36,"-I")&gt;0,"-I",IF(COUNTIF(F36:L36,"+0")&gt;0,"+0",IF(COUNTIF(F36:L36,"+I")&gt;0,"+I",IF(COUNTIF(F36:L36,"+II")&gt;0,"+II",IF(COUNTIF(F36:L36,"+III")&gt;0,"+III",IF(COUNTIF(F36:L36,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F36" s="9" t="str">
@@ -3955,19 +3955,19 @@
       </c>
       <c r="I36" s="9" t="str">
         <f t="array" ref="I36">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B36,C36),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J36" s="9" t="str">
         <f t="array" ref="J36">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B36,C36),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K36" s="9" t="str">
         <f t="array" ref="K36">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B36,C36),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L36" s="12" t="str">
         <f t="array" ref="L36">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B36,C36),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
@@ -3978,11 +3978,11 @@
         <v>8.2505978840000012</v>
       </c>
       <c r="D37" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F37:L37,"D")&gt;0,"D",IF(COUNTIF(F37:L37,"-III")&gt;0,"-III",IF(COUNTIF(F37:L37,"-II")&gt;0,"-II",IF(COUNTIF(F37:L37,"-I")&gt;0,"-I",IF(COUNTIF(F37:L37,"+0")&gt;0,"+0",IF(COUNTIF(F37:L37,"+I")&gt;0,"+I",IF(COUNTIF(F37:L37,"+II")&gt;0,"+II",IF(COUNTIF(F37:L37,"+III")&gt;0,"+III",IF(COUNTIF(F37:L37,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-I</v>
       </c>
       <c r="E37" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F37:L37,"-III")&gt;0,"-III",IF(COUNTIF(F37:L37,"-II")&gt;0,"-II",IF(COUNTIF(F37:L37,"-I")&gt;0,"-I",IF(COUNTIF(F37:L37,"+0")&gt;0,"+0",IF(COUNTIF(F37:L37,"+I")&gt;0,"+I",IF(COUNTIF(F37:L37,"+II")&gt;0,"+II",IF(COUNTIF(F37:L37,"+III")&gt;0,"+III",IF(COUNTIF(F37:L37,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-I</v>
       </c>
       <c r="F37" s="9" t="str">
@@ -3999,19 +3999,19 @@
       </c>
       <c r="I37" s="9" t="str">
         <f t="array" ref="I37">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B37,C37),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J37" s="9" t="str">
         <f t="array" ref="J37">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B37,C37),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K37" s="9" t="str">
         <f t="array" ref="K37">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B37,C37),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L37" s="12" t="str">
         <f t="array" ref="L37">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B37,C37),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -4022,11 +4022,11 @@
         <v>8.5399999999999991</v>
       </c>
       <c r="D38" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F38:L38,"D")&gt;0,"D",IF(COUNTIF(F38:L38,"-III")&gt;0,"-III",IF(COUNTIF(F38:L38,"-II")&gt;0,"-II",IF(COUNTIF(F38:L38,"-I")&gt;0,"-I",IF(COUNTIF(F38:L38,"+0")&gt;0,"+0",IF(COUNTIF(F38:L38,"+I")&gt;0,"+I",IF(COUNTIF(F38:L38,"+II")&gt;0,"+II",IF(COUNTIF(F38:L38,"+III")&gt;0,"+III",IF(COUNTIF(F38:L38,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-I</v>
       </c>
       <c r="E38" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F38:L38,"-III")&gt;0,"-III",IF(COUNTIF(F38:L38,"-II")&gt;0,"-II",IF(COUNTIF(F38:L38,"-I")&gt;0,"-I",IF(COUNTIF(F38:L38,"+0")&gt;0,"+0",IF(COUNTIF(F38:L38,"+I")&gt;0,"+I",IF(COUNTIF(F38:L38,"+II")&gt;0,"+II",IF(COUNTIF(F38:L38,"+III")&gt;0,"+III",IF(COUNTIF(F38:L38,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-I</v>
       </c>
       <c r="F38" s="9" t="str">
@@ -4043,19 +4043,19 @@
       </c>
       <c r="I38" s="9" t="str">
         <f t="array" ref="I38">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B38,C38),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J38" s="9" t="str">
         <f t="array" ref="J38">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B38,C38),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K38" s="9" t="str">
         <f t="array" ref="K38">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B38,C38),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L38" s="12" t="str">
         <f t="array" ref="L38">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B38,C38),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
@@ -4066,11 +4066,11 @@
         <v>8.91</v>
       </c>
       <c r="D39" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F39:L39,"D")&gt;0,"D",IF(COUNTIF(F39:L39,"-III")&gt;0,"-III",IF(COUNTIF(F39:L39,"-II")&gt;0,"-II",IF(COUNTIF(F39:L39,"-I")&gt;0,"-I",IF(COUNTIF(F39:L39,"+0")&gt;0,"+0",IF(COUNTIF(F39:L39,"+I")&gt;0,"+I",IF(COUNTIF(F39:L39,"+II")&gt;0,"+II",IF(COUNTIF(F39:L39,"+III")&gt;0,"+III",IF(COUNTIF(F39:L39,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-I</v>
       </c>
       <c r="E39" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F39:L39,"-III")&gt;0,"-III",IF(COUNTIF(F39:L39,"-II")&gt;0,"-II",IF(COUNTIF(F39:L39,"-I")&gt;0,"-I",IF(COUNTIF(F39:L39,"+0")&gt;0,"+0",IF(COUNTIF(F39:L39,"+I")&gt;0,"+I",IF(COUNTIF(F39:L39,"+II")&gt;0,"+II",IF(COUNTIF(F39:L39,"+III")&gt;0,"+III",IF(COUNTIF(F39:L39,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-I</v>
       </c>
       <c r="F39" s="9" t="str">
@@ -4087,19 +4087,19 @@
       </c>
       <c r="I39" s="9" t="str">
         <f t="array" ref="I39">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B39,C39),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J39" s="9" t="str">
         <f t="array" ref="J39">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B39,C39),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K39" s="9" t="str">
         <f t="array" ref="K39">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B39,C39),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L39" s="12" t="str">
         <f t="array" ref="L39">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B39,C39),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -4110,11 +4110,11 @@
         <v>8.9463643600000005</v>
       </c>
       <c r="D40" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F40:L40,"D")&gt;0,"D",IF(COUNTIF(F40:L40,"-III")&gt;0,"-III",IF(COUNTIF(F40:L40,"-II")&gt;0,"-II",IF(COUNTIF(F40:L40,"-I")&gt;0,"-I",IF(COUNTIF(F40:L40,"+0")&gt;0,"+0",IF(COUNTIF(F40:L40,"+I")&gt;0,"+I",IF(COUNTIF(F40:L40,"+II")&gt;0,"+II",IF(COUNTIF(F40:L40,"+III")&gt;0,"+III",IF(COUNTIF(F40:L40,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-I</v>
       </c>
       <c r="E40" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F40:L40,"-III")&gt;0,"-III",IF(COUNTIF(F40:L40,"-II")&gt;0,"-II",IF(COUNTIF(F40:L40,"-I")&gt;0,"-I",IF(COUNTIF(F40:L40,"+0")&gt;0,"+0",IF(COUNTIF(F40:L40,"+I")&gt;0,"+I",IF(COUNTIF(F40:L40,"+II")&gt;0,"+II",IF(COUNTIF(F40:L40,"+III")&gt;0,"+III",IF(COUNTIF(F40:L40,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-I</v>
       </c>
       <c r="F40" s="9" t="str">
@@ -4131,19 +4131,19 @@
       </c>
       <c r="I40" s="9" t="str">
         <f t="array" ref="I40">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B40,C40),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J40" s="9" t="str">
         <f t="array" ref="J40">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B40,C40),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K40" s="9" t="str">
         <f t="array" ref="K40">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B40,C40),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L40" s="12" t="str">
         <f t="array" ref="L40">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B40,C40),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
@@ -4154,11 +4154,11 @@
         <v>9.2968308060000009</v>
       </c>
       <c r="D41" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F41:L41,"D")&gt;0,"D",IF(COUNTIF(F41:L41,"-III")&gt;0,"-III",IF(COUNTIF(F41:L41,"-II")&gt;0,"-II",IF(COUNTIF(F41:L41,"-I")&gt;0,"-I",IF(COUNTIF(F41:L41,"+0")&gt;0,"+0",IF(COUNTIF(F41:L41,"+I")&gt;0,"+I",IF(COUNTIF(F41:L41,"+II")&gt;0,"+II",IF(COUNTIF(F41:L41,"+III")&gt;0,"+III",IF(COUNTIF(F41:L41,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E41" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F41:L41,"-III")&gt;0,"-III",IF(COUNTIF(F41:L41,"-II")&gt;0,"-II",IF(COUNTIF(F41:L41,"-I")&gt;0,"-I",IF(COUNTIF(F41:L41,"+0")&gt;0,"+0",IF(COUNTIF(F41:L41,"+I")&gt;0,"+I",IF(COUNTIF(F41:L41,"+II")&gt;0,"+II",IF(COUNTIF(F41:L41,"+III")&gt;0,"+III",IF(COUNTIF(F41:L41,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F41" s="9" t="str">
@@ -4175,19 +4175,19 @@
       </c>
       <c r="I41" s="9" t="str">
         <f t="array" ref="I41">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B41,C41),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J41" s="9" t="str">
         <f t="array" ref="J41">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B41,C41),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K41" s="9" t="str">
         <f t="array" ref="K41">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B41,C41),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L41" s="12" t="str">
         <f t="array" ref="L41">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B41,C41),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
@@ -4198,11 +4198,11 @@
         <v>9.296830807000001</v>
       </c>
       <c r="D42" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F42:L42,"D")&gt;0,"D",IF(COUNTIF(F42:L42,"-III")&gt;0,"-III",IF(COUNTIF(F42:L42,"-II")&gt;0,"-II",IF(COUNTIF(F42:L42,"-I")&gt;0,"-I",IF(COUNTIF(F42:L42,"+0")&gt;0,"+0",IF(COUNTIF(F42:L42,"+I")&gt;0,"+I",IF(COUNTIF(F42:L42,"+II")&gt;0,"+II",IF(COUNTIF(F42:L42,"+III")&gt;0,"+III",IF(COUNTIF(F42:L42,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E42" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F42:L42,"-III")&gt;0,"-III",IF(COUNTIF(F42:L42,"-II")&gt;0,"-II",IF(COUNTIF(F42:L42,"-I")&gt;0,"-I",IF(COUNTIF(F42:L42,"+0")&gt;0,"+0",IF(COUNTIF(F42:L42,"+I")&gt;0,"+I",IF(COUNTIF(F42:L42,"+II")&gt;0,"+II",IF(COUNTIF(F42:L42,"+III")&gt;0,"+III",IF(COUNTIF(F42:L42,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F42" s="9" t="str">
@@ -4219,19 +4219,19 @@
       </c>
       <c r="I42" s="9" t="str">
         <f t="array" ref="I42">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B42,C42),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J42" s="9" t="str">
         <f t="array" ref="J42">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B42,C42),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K42" s="9" t="str">
         <f t="array" ref="K42">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B42,C42),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L42" s="12" t="str">
         <f t="array" ref="L42">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B42,C42),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
@@ -4242,11 +4242,11 @@
         <v>9.34</v>
       </c>
       <c r="D43" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F43:L43,"D")&gt;0,"D",IF(COUNTIF(F43:L43,"-III")&gt;0,"-III",IF(COUNTIF(F43:L43,"-II")&gt;0,"-II",IF(COUNTIF(F43:L43,"-I")&gt;0,"-I",IF(COUNTIF(F43:L43,"+0")&gt;0,"+0",IF(COUNTIF(F43:L43,"+I")&gt;0,"+I",IF(COUNTIF(F43:L43,"+II")&gt;0,"+II",IF(COUNTIF(F43:L43,"+III")&gt;0,"+III",IF(COUNTIF(F43:L43,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E43" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F43:L43,"-III")&gt;0,"-III",IF(COUNTIF(F43:L43,"-II")&gt;0,"-II",IF(COUNTIF(F43:L43,"-I")&gt;0,"-I",IF(COUNTIF(F43:L43,"+0")&gt;0,"+0",IF(COUNTIF(F43:L43,"+I")&gt;0,"+I",IF(COUNTIF(F43:L43,"+II")&gt;0,"+II",IF(COUNTIF(F43:L43,"+III")&gt;0,"+III",IF(COUNTIF(F43:L43,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F43" s="9" t="str">
@@ -4263,19 +4263,19 @@
       </c>
       <c r="I43" s="9" t="str">
         <f t="array" ref="I43">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B43,C43),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J43" s="9" t="str">
         <f t="array" ref="J43">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B43,C43),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K43" s="9" t="str">
         <f t="array" ref="K43">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B43,C43),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L43" s="12" t="str">
         <f t="array" ref="L43">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B43,C43),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -4286,11 +4286,11 @@
         <v>9.4600000000000009</v>
       </c>
       <c r="D44" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F44:L44,"D")&gt;0,"D",IF(COUNTIF(F44:L44,"-III")&gt;0,"-III",IF(COUNTIF(F44:L44,"-II")&gt;0,"-II",IF(COUNTIF(F44:L44,"-I")&gt;0,"-I",IF(COUNTIF(F44:L44,"+0")&gt;0,"+0",IF(COUNTIF(F44:L44,"+I")&gt;0,"+I",IF(COUNTIF(F44:L44,"+II")&gt;0,"+II",IF(COUNTIF(F44:L44,"+III")&gt;0,"+III",IF(COUNTIF(F44:L44,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E44" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F44:L44,"-III")&gt;0,"-III",IF(COUNTIF(F44:L44,"-II")&gt;0,"-II",IF(COUNTIF(F44:L44,"-I")&gt;0,"-I",IF(COUNTIF(F44:L44,"+0")&gt;0,"+0",IF(COUNTIF(F44:L44,"+I")&gt;0,"+I",IF(COUNTIF(F44:L44,"+II")&gt;0,"+II",IF(COUNTIF(F44:L44,"+III")&gt;0,"+III",IF(COUNTIF(F44:L44,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F44" s="9" t="str">
@@ -4307,19 +4307,19 @@
       </c>
       <c r="I44" s="9" t="str">
         <f t="array" ref="I44">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B44,C44),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J44" s="9" t="str">
         <f t="array" ref="J44">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B44,C44),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K44" s="9" t="str">
         <f t="array" ref="K44">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B44,C44),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L44" s="12" t="str">
         <f t="array" ref="L44">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B44,C44),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
@@ -4330,11 +4330,11 @@
         <v>9.64</v>
       </c>
       <c r="D45" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F45:L45,"D")&gt;0,"D",IF(COUNTIF(F45:L45,"-III")&gt;0,"-III",IF(COUNTIF(F45:L45,"-II")&gt;0,"-II",IF(COUNTIF(F45:L45,"-I")&gt;0,"-I",IF(COUNTIF(F45:L45,"+0")&gt;0,"+0",IF(COUNTIF(F45:L45,"+I")&gt;0,"+I",IF(COUNTIF(F45:L45,"+II")&gt;0,"+II",IF(COUNTIF(F45:L45,"+III")&gt;0,"+III",IF(COUNTIF(F45:L45,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E45" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F45:L45,"-III")&gt;0,"-III",IF(COUNTIF(F45:L45,"-II")&gt;0,"-II",IF(COUNTIF(F45:L45,"-I")&gt;0,"-I",IF(COUNTIF(F45:L45,"+0")&gt;0,"+0",IF(COUNTIF(F45:L45,"+I")&gt;0,"+I",IF(COUNTIF(F45:L45,"+II")&gt;0,"+II",IF(COUNTIF(F45:L45,"+III")&gt;0,"+III",IF(COUNTIF(F45:L45,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F45" s="9" t="str">
@@ -4351,19 +4351,19 @@
       </c>
       <c r="I45" s="9" t="str">
         <f t="array" ref="I45">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B45,C45),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J45" s="9" t="str">
         <f t="array" ref="J45">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B45,C45),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K45" s="9" t="str">
         <f t="array" ref="K45">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B45,C45),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L45" s="12" t="str">
         <f t="array" ref="L45">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B45,C45),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
@@ -4374,11 +4374,11 @@
         <v>9.76</v>
       </c>
       <c r="D46" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F46:L46,"D")&gt;0,"D",IF(COUNTIF(F46:L46,"-III")&gt;0,"-III",IF(COUNTIF(F46:L46,"-II")&gt;0,"-II",IF(COUNTIF(F46:L46,"-I")&gt;0,"-I",IF(COUNTIF(F46:L46,"+0")&gt;0,"+0",IF(COUNTIF(F46:L46,"+I")&gt;0,"+I",IF(COUNTIF(F46:L46,"+II")&gt;0,"+II",IF(COUNTIF(F46:L46,"+III")&gt;0,"+III",IF(COUNTIF(F46:L46,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E46" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F46:L46,"-III")&gt;0,"-III",IF(COUNTIF(F46:L46,"-II")&gt;0,"-II",IF(COUNTIF(F46:L46,"-I")&gt;0,"-I",IF(COUNTIF(F46:L46,"+0")&gt;0,"+0",IF(COUNTIF(F46:L46,"+I")&gt;0,"+I",IF(COUNTIF(F46:L46,"+II")&gt;0,"+II",IF(COUNTIF(F46:L46,"+III")&gt;0,"+III",IF(COUNTIF(F46:L46,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F46" s="9" t="str">
@@ -4395,19 +4395,19 @@
       </c>
       <c r="I46" s="9" t="str">
         <f t="array" ref="I46">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B46,C46),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J46" s="9" t="str">
         <f t="array" ref="J46">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B46,C46),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K46" s="9" t="str">
         <f t="array" ref="K46">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B46,C46),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L46" s="12" t="str">
         <f t="array" ref="L46">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B46,C46),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
@@ -4418,11 +4418,11 @@
         <v>9.7975727730000006</v>
       </c>
       <c r="D47" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F47:L47,"D")&gt;0,"D",IF(COUNTIF(F47:L47,"-III")&gt;0,"-III",IF(COUNTIF(F47:L47,"-II")&gt;0,"-II",IF(COUNTIF(F47:L47,"-I")&gt;0,"-I",IF(COUNTIF(F47:L47,"+0")&gt;0,"+0",IF(COUNTIF(F47:L47,"+I")&gt;0,"+I",IF(COUNTIF(F47:L47,"+II")&gt;0,"+II",IF(COUNTIF(F47:L47,"+III")&gt;0,"+III",IF(COUNTIF(F47:L47,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E47" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F47:L47,"-III")&gt;0,"-III",IF(COUNTIF(F47:L47,"-II")&gt;0,"-II",IF(COUNTIF(F47:L47,"-I")&gt;0,"-I",IF(COUNTIF(F47:L47,"+0")&gt;0,"+0",IF(COUNTIF(F47:L47,"+I")&gt;0,"+I",IF(COUNTIF(F47:L47,"+II")&gt;0,"+II",IF(COUNTIF(F47:L47,"+III")&gt;0,"+III",IF(COUNTIF(F47:L47,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F47" s="9" t="str">
@@ -4439,19 +4439,19 @@
       </c>
       <c r="I47" s="9" t="str">
         <f t="array" ref="I47">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B47,C47),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J47" s="9" t="str">
         <f t="array" ref="J47">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B47,C47),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K47" s="9" t="str">
         <f t="array" ref="K47">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B47,C47),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L47" s="12" t="str">
         <f t="array" ref="L47">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B47,C47),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -4462,11 +4462,11 @@
         <v>9.7975727740000007</v>
       </c>
       <c r="D48" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F48:L48,"D")&gt;0,"D",IF(COUNTIF(F48:L48,"-III")&gt;0,"-III",IF(COUNTIF(F48:L48,"-II")&gt;0,"-II",IF(COUNTIF(F48:L48,"-I")&gt;0,"-I",IF(COUNTIF(F48:L48,"+0")&gt;0,"+0",IF(COUNTIF(F48:L48,"+I")&gt;0,"+I",IF(COUNTIF(F48:L48,"+II")&gt;0,"+II",IF(COUNTIF(F48:L48,"+III")&gt;0,"+III",IF(COUNTIF(F48:L48,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E48" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F48:L48,"-III")&gt;0,"-III",IF(COUNTIF(F48:L48,"-II")&gt;0,"-II",IF(COUNTIF(F48:L48,"-I")&gt;0,"-I",IF(COUNTIF(F48:L48,"+0")&gt;0,"+0",IF(COUNTIF(F48:L48,"+I")&gt;0,"+I",IF(COUNTIF(F48:L48,"+II")&gt;0,"+II",IF(COUNTIF(F48:L48,"+III")&gt;0,"+III",IF(COUNTIF(F48:L48,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F48" s="9" t="str">
@@ -4483,19 +4483,19 @@
       </c>
       <c r="I48" s="9" t="str">
         <f t="array" ref="I48">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B48,C48),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J48" s="9" t="str">
         <f t="array" ref="J48">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B48,C48),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K48" s="9" t="str">
         <f t="array" ref="K48">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B48,C48),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L48" s="12" t="str">
         <f t="array" ref="L48">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B48,C48),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
@@ -4506,11 +4506,11 @@
         <v>10.01</v>
       </c>
       <c r="D49" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F49:L49,"D")&gt;0,"D",IF(COUNTIF(F49:L49,"-III")&gt;0,"-III",IF(COUNTIF(F49:L49,"-II")&gt;0,"-II",IF(COUNTIF(F49:L49,"-I")&gt;0,"-I",IF(COUNTIF(F49:L49,"+0")&gt;0,"+0",IF(COUNTIF(F49:L49,"+I")&gt;0,"+I",IF(COUNTIF(F49:L49,"+II")&gt;0,"+II",IF(COUNTIF(F49:L49,"+III")&gt;0,"+III",IF(COUNTIF(F49:L49,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E49" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F49:L49,"-III")&gt;0,"-III",IF(COUNTIF(F49:L49,"-II")&gt;0,"-II",IF(COUNTIF(F49:L49,"-I")&gt;0,"-I",IF(COUNTIF(F49:L49,"+0")&gt;0,"+0",IF(COUNTIF(F49:L49,"+I")&gt;0,"+I",IF(COUNTIF(F49:L49,"+II")&gt;0,"+II",IF(COUNTIF(F49:L49,"+III")&gt;0,"+III",IF(COUNTIF(F49:L49,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F49" s="9" t="str">
@@ -4527,19 +4527,19 @@
       </c>
       <c r="I49" s="9" t="str">
         <f t="array" ref="I49">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B49,C49),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J49" s="9" t="str">
         <f t="array" ref="J49">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B49,C49),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K49" s="9" t="str">
         <f t="array" ref="K49">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B49,C49),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L49" s="12" t="str">
         <f t="array" ref="L49">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B49,C49),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
@@ -4550,11 +4550,11 @@
         <v>10.59</v>
       </c>
       <c r="D50" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F50:L50,"D")&gt;0,"D",IF(COUNTIF(F50:L50,"-III")&gt;0,"-III",IF(COUNTIF(F50:L50,"-II")&gt;0,"-II",IF(COUNTIF(F50:L50,"-I")&gt;0,"-I",IF(COUNTIF(F50:L50,"+0")&gt;0,"+0",IF(COUNTIF(F50:L50,"+I")&gt;0,"+I",IF(COUNTIF(F50:L50,"+II")&gt;0,"+II",IF(COUNTIF(F50:L50,"+III")&gt;0,"+III",IF(COUNTIF(F50:L50,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E50" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F50:L50,"-III")&gt;0,"-III",IF(COUNTIF(F50:L50,"-II")&gt;0,"-II",IF(COUNTIF(F50:L50,"-I")&gt;0,"-I",IF(COUNTIF(F50:L50,"+0")&gt;0,"+0",IF(COUNTIF(F50:L50,"+I")&gt;0,"+I",IF(COUNTIF(F50:L50,"+II")&gt;0,"+II",IF(COUNTIF(F50:L50,"+III")&gt;0,"+III",IF(COUNTIF(F50:L50,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F50" s="9" t="str">
@@ -4571,19 +4571,19 @@
       </c>
       <c r="I50" s="9" t="str">
         <f t="array" ref="I50">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B50,C50),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J50" s="9" t="str">
         <f t="array" ref="J50">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B50,C50),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K50" s="9" t="str">
         <f t="array" ref="K50">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B50,C50),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L50" s="12" t="str">
         <f t="array" ref="L50">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B50,C50),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
@@ -4594,11 +4594,11 @@
         <v>11.11</v>
       </c>
       <c r="D51" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F51:L51,"D")&gt;0,"D",IF(COUNTIF(F51:L51,"-III")&gt;0,"-III",IF(COUNTIF(F51:L51,"-II")&gt;0,"-II",IF(COUNTIF(F51:L51,"-I")&gt;0,"-I",IF(COUNTIF(F51:L51,"+0")&gt;0,"+0",IF(COUNTIF(F51:L51,"+I")&gt;0,"+I",IF(COUNTIF(F51:L51,"+II")&gt;0,"+II",IF(COUNTIF(F51:L51,"+III")&gt;0,"+III",IF(COUNTIF(F51:L51,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E51" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F51:L51,"-III")&gt;0,"-III",IF(COUNTIF(F51:L51,"-II")&gt;0,"-II",IF(COUNTIF(F51:L51,"-I")&gt;0,"-I",IF(COUNTIF(F51:L51,"+0")&gt;0,"+0",IF(COUNTIF(F51:L51,"+I")&gt;0,"+I",IF(COUNTIF(F51:L51,"+II")&gt;0,"+II",IF(COUNTIF(F51:L51,"+III")&gt;0,"+III",IF(COUNTIF(F51:L51,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F51" s="9" t="str">
@@ -4615,19 +4615,19 @@
       </c>
       <c r="I51" s="9" t="str">
         <f t="array" ref="I51">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B51,C51),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J51" s="9" t="str">
         <f t="array" ref="J51">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B51,C51),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K51" s="9" t="str">
         <f t="array" ref="K51">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B51,C51),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L51" s="12" t="str">
         <f t="array" ref="L51">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B51,C51),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
@@ -4638,11 +4638,11 @@
         <v>11.64</v>
       </c>
       <c r="D52" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F52:L52,"D")&gt;0,"D",IF(COUNTIF(F52:L52,"-III")&gt;0,"-III",IF(COUNTIF(F52:L52,"-II")&gt;0,"-II",IF(COUNTIF(F52:L52,"-I")&gt;0,"-I",IF(COUNTIF(F52:L52,"+0")&gt;0,"+0",IF(COUNTIF(F52:L52,"+I")&gt;0,"+I",IF(COUNTIF(F52:L52,"+II")&gt;0,"+II",IF(COUNTIF(F52:L52,"+III")&gt;0,"+III",IF(COUNTIF(F52:L52,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E52" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F52:L52,"-III")&gt;0,"-III",IF(COUNTIF(F52:L52,"-II")&gt;0,"-II",IF(COUNTIF(F52:L52,"-I")&gt;0,"-I",IF(COUNTIF(F52:L52,"+0")&gt;0,"+0",IF(COUNTIF(F52:L52,"+I")&gt;0,"+I",IF(COUNTIF(F52:L52,"+II")&gt;0,"+II",IF(COUNTIF(F52:L52,"+III")&gt;0,"+III",IF(COUNTIF(F52:L52,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F52" s="9" t="str">
@@ -4659,19 +4659,19 @@
       </c>
       <c r="I52" s="9" t="str">
         <f t="array" ref="I52">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B52,C52),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J52" s="9" t="str">
         <f t="array" ref="J52">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B52,C52),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K52" s="9" t="str">
         <f t="array" ref="K52">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B52,C52),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L52" s="12" t="str">
         <f t="array" ref="L52">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B52,C52),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
@@ -4682,11 +4682,11 @@
         <v>12.16</v>
       </c>
       <c r="D53" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F53:L53,"D")&gt;0,"D",IF(COUNTIF(F53:L53,"-III")&gt;0,"-III",IF(COUNTIF(F53:L53,"-II")&gt;0,"-II",IF(COUNTIF(F53:L53,"-I")&gt;0,"-I",IF(COUNTIF(F53:L53,"+0")&gt;0,"+0",IF(COUNTIF(F53:L53,"+I")&gt;0,"+I",IF(COUNTIF(F53:L53,"+II")&gt;0,"+II",IF(COUNTIF(F53:L53,"+III")&gt;0,"+III",IF(COUNTIF(F53:L53,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E53" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F53:L53,"-III")&gt;0,"-III",IF(COUNTIF(F53:L53,"-II")&gt;0,"-II",IF(COUNTIF(F53:L53,"-I")&gt;0,"-I",IF(COUNTIF(F53:L53,"+0")&gt;0,"+0",IF(COUNTIF(F53:L53,"+I")&gt;0,"+I",IF(COUNTIF(F53:L53,"+II")&gt;0,"+II",IF(COUNTIF(F53:L53,"+III")&gt;0,"+III",IF(COUNTIF(F53:L53,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F53" s="9" t="str">
@@ -4703,19 +4703,19 @@
       </c>
       <c r="I53" s="9" t="str">
         <f t="array" ref="I53">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B53,C53),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J53" s="9" t="str">
         <f t="array" ref="J53">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B53,C53),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K53" s="9" t="str">
         <f t="array" ref="K53">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B53,C53),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L53" s="12" t="str">
         <f t="array" ref="L53">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B53,C53),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
@@ -4726,11 +4726,11 @@
         <v>12.69</v>
       </c>
       <c r="D54" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F54:L54,"D")&gt;0,"D",IF(COUNTIF(F54:L54,"-III")&gt;0,"-III",IF(COUNTIF(F54:L54,"-II")&gt;0,"-II",IF(COUNTIF(F54:L54,"-I")&gt;0,"-I",IF(COUNTIF(F54:L54,"+0")&gt;0,"+0",IF(COUNTIF(F54:L54,"+I")&gt;0,"+I",IF(COUNTIF(F54:L54,"+II")&gt;0,"+II",IF(COUNTIF(F54:L54,"+III")&gt;0,"+III",IF(COUNTIF(F54:L54,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E54" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F54:L54,"-III")&gt;0,"-III",IF(COUNTIF(F54:L54,"-II")&gt;0,"-II",IF(COUNTIF(F54:L54,"-I")&gt;0,"-I",IF(COUNTIF(F54:L54,"+0")&gt;0,"+0",IF(COUNTIF(F54:L54,"+I")&gt;0,"+I",IF(COUNTIF(F54:L54,"+II")&gt;0,"+II",IF(COUNTIF(F54:L54,"+III")&gt;0,"+III",IF(COUNTIF(F54:L54,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F54" s="9" t="str">
@@ -4747,19 +4747,19 @@
       </c>
       <c r="I54" s="9" t="str">
         <f t="array" ref="I54">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B54,C54),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J54" s="9" t="str">
         <f t="array" ref="J54">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B54,C54),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K54" s="9" t="str">
         <f t="array" ref="K54">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B54,C54),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L54" s="12" t="str">
         <f t="array" ref="L54">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B54,C54),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
@@ -4770,11 +4770,11 @@
         <v>13.19</v>
       </c>
       <c r="D55" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F55:L55,"D")&gt;0,"D",IF(COUNTIF(F55:L55,"-III")&gt;0,"-III",IF(COUNTIF(F55:L55,"-II")&gt;0,"-II",IF(COUNTIF(F55:L55,"-I")&gt;0,"-I",IF(COUNTIF(F55:L55,"+0")&gt;0,"+0",IF(COUNTIF(F55:L55,"+I")&gt;0,"+I",IF(COUNTIF(F55:L55,"+II")&gt;0,"+II",IF(COUNTIF(F55:L55,"+III")&gt;0,"+III",IF(COUNTIF(F55:L55,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E55" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F55:L55,"-III")&gt;0,"-III",IF(COUNTIF(F55:L55,"-II")&gt;0,"-II",IF(COUNTIF(F55:L55,"-I")&gt;0,"-I",IF(COUNTIF(F55:L55,"+0")&gt;0,"+0",IF(COUNTIF(F55:L55,"+I")&gt;0,"+I",IF(COUNTIF(F55:L55,"+II")&gt;0,"+II",IF(COUNTIF(F55:L55,"+III")&gt;0,"+III",IF(COUNTIF(F55:L55,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F55" s="9" t="str">
@@ -4791,19 +4791,19 @@
       </c>
       <c r="I55" s="9" t="str">
         <f t="array" ref="I55">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B55,C55),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J55" s="9" t="str">
         <f t="array" ref="J55">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B55,C55),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K55" s="9" t="str">
         <f t="array" ref="K55">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B55,C55),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L55" s="12" t="str">
         <f t="array" ref="L55">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B55,C55),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
@@ -4814,11 +4814,11 @@
         <v>13.197809816000001</v>
       </c>
       <c r="D56" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F56:L56,"D")&gt;0,"D",IF(COUNTIF(F56:L56,"-III")&gt;0,"-III",IF(COUNTIF(F56:L56,"-II")&gt;0,"-II",IF(COUNTIF(F56:L56,"-I")&gt;0,"-I",IF(COUNTIF(F56:L56,"+0")&gt;0,"+0",IF(COUNTIF(F56:L56,"+I")&gt;0,"+I",IF(COUNTIF(F56:L56,"+II")&gt;0,"+II",IF(COUNTIF(F56:L56,"+III")&gt;0,"+III",IF(COUNTIF(F56:L56,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E56" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F56:L56,"-III")&gt;0,"-III",IF(COUNTIF(F56:L56,"-II")&gt;0,"-II",IF(COUNTIF(F56:L56,"-I")&gt;0,"-I",IF(COUNTIF(F56:L56,"+0")&gt;0,"+0",IF(COUNTIF(F56:L56,"+I")&gt;0,"+I",IF(COUNTIF(F56:L56,"+II")&gt;0,"+II",IF(COUNTIF(F56:L56,"+III")&gt;0,"+III",IF(COUNTIF(F56:L56,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F56" s="9" t="str">
@@ -4835,19 +4835,19 @@
       </c>
       <c r="I56" s="9" t="str">
         <f t="array" ref="I56">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B56,C56),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J56" s="9" t="str">
         <f t="array" ref="J56">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B56,C56),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K56" s="9" t="str">
         <f t="array" ref="K56">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B56,C56),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L56" s="12" t="str">
         <f t="array" ref="L56">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B56,C56),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
@@ -4858,11 +4858,11 @@
         <v>13.197809817000001</v>
       </c>
       <c r="D57" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F57:L57,"D")&gt;0,"D",IF(COUNTIF(F57:L57,"-III")&gt;0,"-III",IF(COUNTIF(F57:L57,"-II")&gt;0,"-II",IF(COUNTIF(F57:L57,"-I")&gt;0,"-I",IF(COUNTIF(F57:L57,"+0")&gt;0,"+0",IF(COUNTIF(F57:L57,"+I")&gt;0,"+I",IF(COUNTIF(F57:L57,"+II")&gt;0,"+II",IF(COUNTIF(F57:L57,"+III")&gt;0,"+III",IF(COUNTIF(F57:L57,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E57" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F57:L57,"-III")&gt;0,"-III",IF(COUNTIF(F57:L57,"-II")&gt;0,"-II",IF(COUNTIF(F57:L57,"-I")&gt;0,"-I",IF(COUNTIF(F57:L57,"+0")&gt;0,"+0",IF(COUNTIF(F57:L57,"+I")&gt;0,"+I",IF(COUNTIF(F57:L57,"+II")&gt;0,"+II",IF(COUNTIF(F57:L57,"+III")&gt;0,"+III",IF(COUNTIF(F57:L57,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F57" s="9" t="str">
@@ -4879,19 +4879,19 @@
       </c>
       <c r="I57" s="9" t="str">
         <f t="array" ref="I57">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B57,C57),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J57" s="9" t="str">
         <f t="array" ref="J57">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B57,C57),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K57" s="9" t="str">
         <f t="array" ref="K57">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B57,C57),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L57" s="12" t="str">
         <f t="array" ref="L57">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B57,C57),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
@@ -4902,11 +4902,11 @@
         <v>13.46</v>
       </c>
       <c r="D58" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F58:L58,"D")&gt;0,"D",IF(COUNTIF(F58:L58,"-III")&gt;0,"-III",IF(COUNTIF(F58:L58,"-II")&gt;0,"-II",IF(COUNTIF(F58:L58,"-I")&gt;0,"-I",IF(COUNTIF(F58:L58,"+0")&gt;0,"+0",IF(COUNTIF(F58:L58,"+I")&gt;0,"+I",IF(COUNTIF(F58:L58,"+II")&gt;0,"+II",IF(COUNTIF(F58:L58,"+III")&gt;0,"+III",IF(COUNTIF(F58:L58,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E58" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F58:L58,"-III")&gt;0,"-III",IF(COUNTIF(F58:L58,"-II")&gt;0,"-II",IF(COUNTIF(F58:L58,"-I")&gt;0,"-I",IF(COUNTIF(F58:L58,"+0")&gt;0,"+0",IF(COUNTIF(F58:L58,"+I")&gt;0,"+I",IF(COUNTIF(F58:L58,"+II")&gt;0,"+II",IF(COUNTIF(F58:L58,"+III")&gt;0,"+III",IF(COUNTIF(F58:L58,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F58" s="9" t="str">
@@ -4923,19 +4923,19 @@
       </c>
       <c r="I58" s="9" t="str">
         <f t="array" ref="I58">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B58,C58),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J58" s="9" t="str">
         <f t="array" ref="J58">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B58,C58),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K58" s="9" t="str">
         <f t="array" ref="K58">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B58,C58),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L58" s="12" t="str">
         <f t="array" ref="L58">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B58,C58),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
@@ -4946,11 +4946,11 @@
         <v>13.84</v>
       </c>
       <c r="D59" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F59:L59,"D")&gt;0,"D",IF(COUNTIF(F59:L59,"-III")&gt;0,"-III",IF(COUNTIF(F59:L59,"-II")&gt;0,"-II",IF(COUNTIF(F59:L59,"-I")&gt;0,"-I",IF(COUNTIF(F59:L59,"+0")&gt;0,"+0",IF(COUNTIF(F59:L59,"+I")&gt;0,"+I",IF(COUNTIF(F59:L59,"+II")&gt;0,"+II",IF(COUNTIF(F59:L59,"+III")&gt;0,"+III",IF(COUNTIF(F59:L59,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E59" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F59:L59,"-III")&gt;0,"-III",IF(COUNTIF(F59:L59,"-II")&gt;0,"-II",IF(COUNTIF(F59:L59,"-I")&gt;0,"-I",IF(COUNTIF(F59:L59,"+0")&gt;0,"+0",IF(COUNTIF(F59:L59,"+I")&gt;0,"+I",IF(COUNTIF(F59:L59,"+II")&gt;0,"+II",IF(COUNTIF(F59:L59,"+III")&gt;0,"+III",IF(COUNTIF(F59:L59,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F59" s="9" t="str">
@@ -4967,19 +4967,19 @@
       </c>
       <c r="I59" s="9" t="str">
         <f t="array" ref="I59">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B59,C59),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J59" s="9" t="str">
         <f t="array" ref="J59">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B59,C59),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K59" s="9" t="str">
         <f t="array" ref="K59">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B59,C59),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L59" s="12" t="str">
         <f t="array" ref="L59">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B59,C59),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
@@ -4990,11 +4990,11 @@
         <v>14.06</v>
       </c>
       <c r="D60" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F60:L60,"D")&gt;0,"D",IF(COUNTIF(F60:L60,"-III")&gt;0,"-III",IF(COUNTIF(F60:L60,"-II")&gt;0,"-II",IF(COUNTIF(F60:L60,"-I")&gt;0,"-I",IF(COUNTIF(F60:L60,"+0")&gt;0,"+0",IF(COUNTIF(F60:L60,"+I")&gt;0,"+I",IF(COUNTIF(F60:L60,"+II")&gt;0,"+II",IF(COUNTIF(F60:L60,"+III")&gt;0,"+III",IF(COUNTIF(F60:L60,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E60" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F60:L60,"-III")&gt;0,"-III",IF(COUNTIF(F60:L60,"-II")&gt;0,"-II",IF(COUNTIF(F60:L60,"-I")&gt;0,"-I",IF(COUNTIF(F60:L60,"+0")&gt;0,"+0",IF(COUNTIF(F60:L60,"+I")&gt;0,"+I",IF(COUNTIF(F60:L60,"+II")&gt;0,"+II",IF(COUNTIF(F60:L60,"+III")&gt;0,"+III",IF(COUNTIF(F60:L60,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F60" s="9" t="str">
@@ -5011,19 +5011,19 @@
       </c>
       <c r="I60" s="9" t="str">
         <f t="array" ref="I60">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B60,C60),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J60" s="9" t="str">
         <f t="array" ref="J60">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B60,C60),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K60" s="9" t="str">
         <f t="array" ref="K60">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B60,C60),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L60" s="12" t="str">
         <f t="array" ref="L60">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B60,C60),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
@@ -5034,11 +5034,11 @@
         <v>14.104461709000001</v>
       </c>
       <c r="D61" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F61:L61,"D")&gt;0,"D",IF(COUNTIF(F61:L61,"-III")&gt;0,"-III",IF(COUNTIF(F61:L61,"-II")&gt;0,"-II",IF(COUNTIF(F61:L61,"-I")&gt;0,"-I",IF(COUNTIF(F61:L61,"+0")&gt;0,"+0",IF(COUNTIF(F61:L61,"+I")&gt;0,"+I",IF(COUNTIF(F61:L61,"+II")&gt;0,"+II",IF(COUNTIF(F61:L61,"+III")&gt;0,"+III",IF(COUNTIF(F61:L61,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E61" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F61:L61,"-III")&gt;0,"-III",IF(COUNTIF(F61:L61,"-II")&gt;0,"-II",IF(COUNTIF(F61:L61,"-I")&gt;0,"-I",IF(COUNTIF(F61:L61,"+0")&gt;0,"+0",IF(COUNTIF(F61:L61,"+I")&gt;0,"+I",IF(COUNTIF(F61:L61,"+II")&gt;0,"+II",IF(COUNTIF(F61:L61,"+III")&gt;0,"+III",IF(COUNTIF(F61:L61,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F61" s="9" t="str">
@@ -5055,19 +5055,19 @@
       </c>
       <c r="I61" s="9" t="str">
         <f t="array" ref="I61">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B61,C61),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J61" s="9" t="str">
         <f t="array" ref="J61">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B61,C61),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K61" s="9" t="str">
         <f t="array" ref="K61">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B61,C61),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L61" s="12" t="str">
         <f t="array" ref="L61">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B61,C61),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
@@ -5078,11 +5078,11 @@
         <v>14.104461710000001</v>
       </c>
       <c r="D62" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F62:L62,"D")&gt;0,"D",IF(COUNTIF(F62:L62,"-III")&gt;0,"-III",IF(COUNTIF(F62:L62,"-II")&gt;0,"-II",IF(COUNTIF(F62:L62,"-I")&gt;0,"-I",IF(COUNTIF(F62:L62,"+0")&gt;0,"+0",IF(COUNTIF(F62:L62,"+I")&gt;0,"+I",IF(COUNTIF(F62:L62,"+II")&gt;0,"+II",IF(COUNTIF(F62:L62,"+III")&gt;0,"+III",IF(COUNTIF(F62:L62,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E62" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F62:L62,"-III")&gt;0,"-III",IF(COUNTIF(F62:L62,"-II")&gt;0,"-II",IF(COUNTIF(F62:L62,"-I")&gt;0,"-I",IF(COUNTIF(F62:L62,"+0")&gt;0,"+0",IF(COUNTIF(F62:L62,"+I")&gt;0,"+I",IF(COUNTIF(F62:L62,"+II")&gt;0,"+II",IF(COUNTIF(F62:L62,"+III")&gt;0,"+III",IF(COUNTIF(F62:L62,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F62" s="9" t="str">
@@ -5099,19 +5099,19 @@
       </c>
       <c r="I62" s="9" t="str">
         <f t="array" ref="I62">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B62,C62),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J62" s="9" t="str">
         <f t="array" ref="J62">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B62,C62),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K62" s="9" t="str">
         <f t="array" ref="K62">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B62,C62),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L62" s="12" t="str">
         <f t="array" ref="L62">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B62,C62),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
@@ -5122,11 +5122,11 @@
         <v>14.19</v>
       </c>
       <c r="D63" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F63:L63,"D")&gt;0,"D",IF(COUNTIF(F63:L63,"-III")&gt;0,"-III",IF(COUNTIF(F63:L63,"-II")&gt;0,"-II",IF(COUNTIF(F63:L63,"-I")&gt;0,"-I",IF(COUNTIF(F63:L63,"+0")&gt;0,"+0",IF(COUNTIF(F63:L63,"+I")&gt;0,"+I",IF(COUNTIF(F63:L63,"+II")&gt;0,"+II",IF(COUNTIF(F63:L63,"+III")&gt;0,"+III",IF(COUNTIF(F63:L63,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E63" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F63:L63,"-III")&gt;0,"-III",IF(COUNTIF(F63:L63,"-II")&gt;0,"-II",IF(COUNTIF(F63:L63,"-I")&gt;0,"-I",IF(COUNTIF(F63:L63,"+0")&gt;0,"+0",IF(COUNTIF(F63:L63,"+I")&gt;0,"+I",IF(COUNTIF(F63:L63,"+II")&gt;0,"+II",IF(COUNTIF(F63:L63,"+III")&gt;0,"+III",IF(COUNTIF(F63:L63,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F63" s="9" t="str">
@@ -5143,19 +5143,19 @@
       </c>
       <c r="I63" s="9" t="str">
         <f t="array" ref="I63">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B63,C63),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J63" s="9" t="str">
         <f t="array" ref="J63">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B63,C63),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K63" s="9" t="str">
         <f t="array" ref="K63">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B63,C63),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L63" s="12" t="str">
         <f t="array" ref="L63">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B63,C63),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
@@ -5166,11 +5166,11 @@
         <v>14.49</v>
       </c>
       <c r="D64" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F64:L64,"D")&gt;0,"D",IF(COUNTIF(F64:L64,"-III")&gt;0,"-III",IF(COUNTIF(F64:L64,"-II")&gt;0,"-II",IF(COUNTIF(F64:L64,"-I")&gt;0,"-I",IF(COUNTIF(F64:L64,"+0")&gt;0,"+0",IF(COUNTIF(F64:L64,"+I")&gt;0,"+I",IF(COUNTIF(F64:L64,"+II")&gt;0,"+II",IF(COUNTIF(F64:L64,"+III")&gt;0,"+III",IF(COUNTIF(F64:L64,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E64" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F64:L64,"-III")&gt;0,"-III",IF(COUNTIF(F64:L64,"-II")&gt;0,"-II",IF(COUNTIF(F64:L64,"-I")&gt;0,"-I",IF(COUNTIF(F64:L64,"+0")&gt;0,"+0",IF(COUNTIF(F64:L64,"+I")&gt;0,"+I",IF(COUNTIF(F64:L64,"+II")&gt;0,"+II",IF(COUNTIF(F64:L64,"+III")&gt;0,"+III",IF(COUNTIF(F64:L64,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F64" s="9" t="str">
@@ -5187,19 +5187,19 @@
       </c>
       <c r="I64" s="9" t="str">
         <f t="array" ref="I64">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B64,C64),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J64" s="9" t="str">
         <f t="array" ref="J64">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B64,C64),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K64" s="9" t="str">
         <f t="array" ref="K64">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B64,C64),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L64" s="12" t="str">
         <f t="array" ref="L64">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B64,C64),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
@@ -5210,11 +5210,11 @@
         <v>15.02</v>
       </c>
       <c r="D65" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F65:L65,"D")&gt;0,"D",IF(COUNTIF(F65:L65,"-III")&gt;0,"-III",IF(COUNTIF(F65:L65,"-II")&gt;0,"-II",IF(COUNTIF(F65:L65,"-I")&gt;0,"-I",IF(COUNTIF(F65:L65,"+0")&gt;0,"+0",IF(COUNTIF(F65:L65,"+I")&gt;0,"+I",IF(COUNTIF(F65:L65,"+II")&gt;0,"+II",IF(COUNTIF(F65:L65,"+III")&gt;0,"+III",IF(COUNTIF(F65:L65,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E65" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F65:L65,"-III")&gt;0,"-III",IF(COUNTIF(F65:L65,"-II")&gt;0,"-II",IF(COUNTIF(F65:L65,"-I")&gt;0,"-I",IF(COUNTIF(F65:L65,"+0")&gt;0,"+0",IF(COUNTIF(F65:L65,"+I")&gt;0,"+I",IF(COUNTIF(F65:L65,"+II")&gt;0,"+II",IF(COUNTIF(F65:L65,"+III")&gt;0,"+III",IF(COUNTIF(F65:L65,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F65" s="9" t="str">
@@ -5231,19 +5231,19 @@
       </c>
       <c r="I65" s="9" t="str">
         <f t="array" ref="I65">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B65,C65),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J65" s="9" t="str">
         <f t="array" ref="J65">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B65,C65),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K65" s="9" t="str">
         <f t="array" ref="K65">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B65,C65),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L65" s="12" t="str">
         <f t="array" ref="L65">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B65,C65),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
@@ -5254,11 +5254,11 @@
         <v>15.54</v>
       </c>
       <c r="D66" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F66:L66,"D")&gt;0,"D",IF(COUNTIF(F66:L66,"-III")&gt;0,"-III",IF(COUNTIF(F66:L66,"-II")&gt;0,"-II",IF(COUNTIF(F66:L66,"-I")&gt;0,"-I",IF(COUNTIF(F66:L66,"+0")&gt;0,"+0",IF(COUNTIF(F66:L66,"+I")&gt;0,"+I",IF(COUNTIF(F66:L66,"+II")&gt;0,"+II",IF(COUNTIF(F66:L66,"+III")&gt;0,"+III",IF(COUNTIF(F66:L66,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E66" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F66:L66,"-III")&gt;0,"-III",IF(COUNTIF(F66:L66,"-II")&gt;0,"-II",IF(COUNTIF(F66:L66,"-I")&gt;0,"-I",IF(COUNTIF(F66:L66,"+0")&gt;0,"+0",IF(COUNTIF(F66:L66,"+I")&gt;0,"+I",IF(COUNTIF(F66:L66,"+II")&gt;0,"+II",IF(COUNTIF(F66:L66,"+III")&gt;0,"+III",IF(COUNTIF(F66:L66,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F66" s="9" t="str">
@@ -5275,19 +5275,19 @@
       </c>
       <c r="I66" s="9" t="str">
         <f t="array" ref="I66">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B66,C66),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J66" s="9" t="str">
         <f t="array" ref="J66">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B66,C66),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K66" s="9" t="str">
         <f t="array" ref="K66">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B66,C66),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L66" s="12" t="str">
         <f t="array" ref="L66">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B66,C66),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
@@ -5298,11 +5298,11 @@
         <v>16.059999999999999</v>
       </c>
       <c r="D67" s="23" t="str">
-        <f t="shared" ref="D67:D106" si="2">IF(COUNTIF(F67:L67,"D")&gt;0,"D",IF(COUNTIF(F67:L67,"-III")&gt;0,"-III",IF(COUNTIF(F67:L67,"-II")&gt;0,"-II",IF(COUNTIF(F67:L67,"-I")&gt;0,"-I",IF(COUNTIF(F67:L67,"+0")&gt;0,"+0",IF(COUNTIF(F67:L67,"+I")&gt;0,"+I",IF(COUNTIF(F67:L67,"+II")&gt;0,"+II",IF(COUNTIF(F67:L67,"+III")&gt;0,"+III","ND"))))))))</f>
+        <f>IF(COUNTIF(F67:L67,"D")&gt;0,"D",IF(COUNTIF(F67:L67,"-III")&gt;0,"-III",IF(COUNTIF(F67:L67,"-II")&gt;0,"-II",IF(COUNTIF(F67:L67,"-I")&gt;0,"-I",IF(COUNTIF(F67:L67,"+0")&gt;0,"+0",IF(COUNTIF(F67:L67,"+I")&gt;0,"+I",IF(COUNTIF(F67:L67,"+II")&gt;0,"+II",IF(COUNTIF(F67:L67,"+III")&gt;0,"+III",IF(COUNTIF(F67:L67,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E67" s="23" t="str">
-        <f t="shared" ref="E67:E106" si="3">IF(COUNTIF(F67:L67,"-III")&gt;0,"-III",IF(COUNTIF(F67:L67,"-II")&gt;0,"-II",IF(COUNTIF(F67:L67,"-I")&gt;0,"-I",IF(COUNTIF(F67:L67,"+0")&gt;0,"+0",IF(COUNTIF(F67:L67,"+I")&gt;0,"+I",IF(COUNTIF(F67:L67,"+II")&gt;0,"+II",IF(COUNTIF(F67:L67,"+III")&gt;0,"+III","ND")))))))</f>
+        <f>IF(COUNTIF(F67:L67,"-III")&gt;0,"-III",IF(COUNTIF(F67:L67,"-II")&gt;0,"-II",IF(COUNTIF(F67:L67,"-I")&gt;0,"-I",IF(COUNTIF(F67:L67,"+0")&gt;0,"+0",IF(COUNTIF(F67:L67,"+I")&gt;0,"+I",IF(COUNTIF(F67:L67,"+II")&gt;0,"+II",IF(COUNTIF(F67:L67,"+III")&gt;0,"+III",IF(COUNTIF(F67:L67,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F67" s="9" t="str">
@@ -5319,19 +5319,19 @@
       </c>
       <c r="I67" s="9" t="str">
         <f t="array" ref="I67">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B67,C67),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J67" s="9" t="str">
         <f t="array" ref="J67">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B67,C67),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K67" s="9" t="str">
         <f t="array" ref="K67">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B67,C67),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L67" s="12" t="str">
         <f t="array" ref="L67">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B67,C67),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
@@ -5342,11 +5342,11 @@
         <v>16.59</v>
       </c>
       <c r="D68" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F68:L68,"D")&gt;0,"D",IF(COUNTIF(F68:L68,"-III")&gt;0,"-III",IF(COUNTIF(F68:L68,"-II")&gt;0,"-II",IF(COUNTIF(F68:L68,"-I")&gt;0,"-I",IF(COUNTIF(F68:L68,"+0")&gt;0,"+0",IF(COUNTIF(F68:L68,"+I")&gt;0,"+I",IF(COUNTIF(F68:L68,"+II")&gt;0,"+II",IF(COUNTIF(F68:L68,"+III")&gt;0,"+III",IF(COUNTIF(F68:L68,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E68" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F68:L68,"-III")&gt;0,"-III",IF(COUNTIF(F68:L68,"-II")&gt;0,"-II",IF(COUNTIF(F68:L68,"-I")&gt;0,"-I",IF(COUNTIF(F68:L68,"+0")&gt;0,"+0",IF(COUNTIF(F68:L68,"+I")&gt;0,"+I",IF(COUNTIF(F68:L68,"+II")&gt;0,"+II",IF(COUNTIF(F68:L68,"+III")&gt;0,"+III",IF(COUNTIF(F68:L68,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F68" s="9" t="str">
@@ -5363,19 +5363,19 @@
       </c>
       <c r="I68" s="9" t="str">
         <f t="array" ref="I68">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B68,C68),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J68" s="9" t="str">
         <f t="array" ref="J68">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B68,C68),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K68" s="9" t="str">
         <f t="array" ref="K68">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B68,C68),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L68" s="12" t="str">
         <f t="array" ref="L68">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B68,C68),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
@@ -5386,11 +5386,11 @@
         <v>16.652344551000002</v>
       </c>
       <c r="D69" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F69:L69,"D")&gt;0,"D",IF(COUNTIF(F69:L69,"-III")&gt;0,"-III",IF(COUNTIF(F69:L69,"-II")&gt;0,"-II",IF(COUNTIF(F69:L69,"-I")&gt;0,"-I",IF(COUNTIF(F69:L69,"+0")&gt;0,"+0",IF(COUNTIF(F69:L69,"+I")&gt;0,"+I",IF(COUNTIF(F69:L69,"+II")&gt;0,"+II",IF(COUNTIF(F69:L69,"+III")&gt;0,"+III",IF(COUNTIF(F69:L69,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E69" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F69:L69,"-III")&gt;0,"-III",IF(COUNTIF(F69:L69,"-II")&gt;0,"-II",IF(COUNTIF(F69:L69,"-I")&gt;0,"-I",IF(COUNTIF(F69:L69,"+0")&gt;0,"+0",IF(COUNTIF(F69:L69,"+I")&gt;0,"+I",IF(COUNTIF(F69:L69,"+II")&gt;0,"+II",IF(COUNTIF(F69:L69,"+III")&gt;0,"+III",IF(COUNTIF(F69:L69,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F69" s="9" t="str">
@@ -5407,19 +5407,19 @@
       </c>
       <c r="I69" s="9" t="str">
         <f t="array" ref="I69">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B69,C69),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J69" s="9" t="str">
         <f t="array" ref="J69">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B69,C69),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K69" s="9" t="str">
         <f t="array" ref="K69">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B69,C69),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L69" s="12" t="str">
         <f t="array" ref="L69">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B69,C69),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
@@ -5430,11 +5430,11 @@
         <v>16.656083170000002</v>
       </c>
       <c r="D70" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F70:L70,"D")&gt;0,"D",IF(COUNTIF(F70:L70,"-III")&gt;0,"-III",IF(COUNTIF(F70:L70,"-II")&gt;0,"-II",IF(COUNTIF(F70:L70,"-I")&gt;0,"-I",IF(COUNTIF(F70:L70,"+0")&gt;0,"+0",IF(COUNTIF(F70:L70,"+I")&gt;0,"+I",IF(COUNTIF(F70:L70,"+II")&gt;0,"+II",IF(COUNTIF(F70:L70,"+III")&gt;0,"+III",IF(COUNTIF(F70:L70,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E70" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F70:L70,"-III")&gt;0,"-III",IF(COUNTIF(F70:L70,"-II")&gt;0,"-II",IF(COUNTIF(F70:L70,"-I")&gt;0,"-I",IF(COUNTIF(F70:L70,"+0")&gt;0,"+0",IF(COUNTIF(F70:L70,"+I")&gt;0,"+I",IF(COUNTIF(F70:L70,"+II")&gt;0,"+II",IF(COUNTIF(F70:L70,"+III")&gt;0,"+III",IF(COUNTIF(F70:L70,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F70" s="9" t="str">
@@ -5451,19 +5451,19 @@
       </c>
       <c r="I70" s="9" t="str">
         <f t="array" ref="I70">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B70,C70),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J70" s="9" t="str">
         <f t="array" ref="J70">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B70,C70),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K70" s="9" t="str">
         <f t="array" ref="K70">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B70,C70),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L70" s="12" t="str">
         <f t="array" ref="L70">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B70,C70),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
@@ -5474,11 +5474,11 @@
         <v>17.11</v>
       </c>
       <c r="D71" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F71:L71,"D")&gt;0,"D",IF(COUNTIF(F71:L71,"-III")&gt;0,"-III",IF(COUNTIF(F71:L71,"-II")&gt;0,"-II",IF(COUNTIF(F71:L71,"-I")&gt;0,"-I",IF(COUNTIF(F71:L71,"+0")&gt;0,"+0",IF(COUNTIF(F71:L71,"+I")&gt;0,"+I",IF(COUNTIF(F71:L71,"+II")&gt;0,"+II",IF(COUNTIF(F71:L71,"+III")&gt;0,"+III",IF(COUNTIF(F71:L71,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E71" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F71:L71,"-III")&gt;0,"-III",IF(COUNTIF(F71:L71,"-II")&gt;0,"-II",IF(COUNTIF(F71:L71,"-I")&gt;0,"-I",IF(COUNTIF(F71:L71,"+0")&gt;0,"+0",IF(COUNTIF(F71:L71,"+I")&gt;0,"+I",IF(COUNTIF(F71:L71,"+II")&gt;0,"+II",IF(COUNTIF(F71:L71,"+III")&gt;0,"+III",IF(COUNTIF(F71:L71,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F71" s="9" t="str">
@@ -5495,19 +5495,19 @@
       </c>
       <c r="I71" s="9" t="str">
         <f t="array" ref="I71">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B71,C71),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J71" s="9" t="str">
         <f t="array" ref="J71">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B71,C71),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K71" s="9" t="str">
         <f t="array" ref="K71">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B71,C71),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L71" s="12" t="str">
         <f t="array" ref="L71">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B71,C71),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
@@ -5518,11 +5518,11 @@
         <v>17.155520158000002</v>
       </c>
       <c r="D72" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F72:L72,"D")&gt;0,"D",IF(COUNTIF(F72:L72,"-III")&gt;0,"-III",IF(COUNTIF(F72:L72,"-II")&gt;0,"-II",IF(COUNTIF(F72:L72,"-I")&gt;0,"-I",IF(COUNTIF(F72:L72,"+0")&gt;0,"+0",IF(COUNTIF(F72:L72,"+I")&gt;0,"+I",IF(COUNTIF(F72:L72,"+II")&gt;0,"+II",IF(COUNTIF(F72:L72,"+III")&gt;0,"+III",IF(COUNTIF(F72:L72,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E72" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F72:L72,"-III")&gt;0,"-III",IF(COUNTIF(F72:L72,"-II")&gt;0,"-II",IF(COUNTIF(F72:L72,"-I")&gt;0,"-I",IF(COUNTIF(F72:L72,"+0")&gt;0,"+0",IF(COUNTIF(F72:L72,"+I")&gt;0,"+I",IF(COUNTIF(F72:L72,"+II")&gt;0,"+II",IF(COUNTIF(F72:L72,"+III")&gt;0,"+III",IF(COUNTIF(F72:L72,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F72" s="9" t="str">
@@ -5539,19 +5539,19 @@
       </c>
       <c r="I72" s="9" t="str">
         <f t="array" ref="I72">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B72,C72),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J72" s="9" t="str">
         <f t="array" ref="J72">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B72,C72),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K72" s="9" t="str">
         <f t="array" ref="K72">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B72,C72),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L72" s="12" t="str">
         <f t="array" ref="L72">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B72,C72),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
@@ -5562,11 +5562,11 @@
         <v>17.71</v>
       </c>
       <c r="D73" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F73:L73,"D")&gt;0,"D",IF(COUNTIF(F73:L73,"-III")&gt;0,"-III",IF(COUNTIF(F73:L73,"-II")&gt;0,"-II",IF(COUNTIF(F73:L73,"-I")&gt;0,"-I",IF(COUNTIF(F73:L73,"+0")&gt;0,"+0",IF(COUNTIF(F73:L73,"+I")&gt;0,"+I",IF(COUNTIF(F73:L73,"+II")&gt;0,"+II",IF(COUNTIF(F73:L73,"+III")&gt;0,"+III",IF(COUNTIF(F73:L73,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E73" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F73:L73,"-III")&gt;0,"-III",IF(COUNTIF(F73:L73,"-II")&gt;0,"-II",IF(COUNTIF(F73:L73,"-I")&gt;0,"-I",IF(COUNTIF(F73:L73,"+0")&gt;0,"+0",IF(COUNTIF(F73:L73,"+I")&gt;0,"+I",IF(COUNTIF(F73:L73,"+II")&gt;0,"+II",IF(COUNTIF(F73:L73,"+III")&gt;0,"+III",IF(COUNTIF(F73:L73,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F73" s="9" t="str">
@@ -5583,19 +5583,19 @@
       </c>
       <c r="I73" s="9" t="str">
         <f t="array" ref="I73">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B73,C73),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J73" s="9" t="str">
         <f t="array" ref="J73">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B73,C73),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K73" s="9" t="str">
         <f t="array" ref="K73">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B73,C73),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L73" s="12" t="str">
         <f t="array" ref="L73">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B73,C73),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
@@ -5606,11 +5606,11 @@
         <v>17.802401842000002</v>
       </c>
       <c r="D74" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F74:L74,"D")&gt;0,"D",IF(COUNTIF(F74:L74,"-III")&gt;0,"-III",IF(COUNTIF(F74:L74,"-II")&gt;0,"-II",IF(COUNTIF(F74:L74,"-I")&gt;0,"-I",IF(COUNTIF(F74:L74,"+0")&gt;0,"+0",IF(COUNTIF(F74:L74,"+I")&gt;0,"+I",IF(COUNTIF(F74:L74,"+II")&gt;0,"+II",IF(COUNTIF(F74:L74,"+III")&gt;0,"+III",IF(COUNTIF(F74:L74,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E74" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F74:L74,"-III")&gt;0,"-III",IF(COUNTIF(F74:L74,"-II")&gt;0,"-II",IF(COUNTIF(F74:L74,"-I")&gt;0,"-I",IF(COUNTIF(F74:L74,"+0")&gt;0,"+0",IF(COUNTIF(F74:L74,"+I")&gt;0,"+I",IF(COUNTIF(F74:L74,"+II")&gt;0,"+II",IF(COUNTIF(F74:L74,"+III")&gt;0,"+III",IF(COUNTIF(F74:L74,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F74" s="9" t="str">
@@ -5627,19 +5627,19 @@
       </c>
       <c r="I74" s="9" t="str">
         <f t="array" ref="I74">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B74,C74),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J74" s="9" t="str">
         <f t="array" ref="J74">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B74,C74),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K74" s="9" t="str">
         <f t="array" ref="K74">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B74,C74),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L74" s="12" t="str">
         <f t="array" ref="L74">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B74,C74),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
@@ -5650,11 +5650,11 @@
         <v>17.802979463</v>
       </c>
       <c r="D75" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F75:L75,"D")&gt;0,"D",IF(COUNTIF(F75:L75,"-III")&gt;0,"-III",IF(COUNTIF(F75:L75,"-II")&gt;0,"-II",IF(COUNTIF(F75:L75,"-I")&gt;0,"-I",IF(COUNTIF(F75:L75,"+0")&gt;0,"+0",IF(COUNTIF(F75:L75,"+I")&gt;0,"+I",IF(COUNTIF(F75:L75,"+II")&gt;0,"+II",IF(COUNTIF(F75:L75,"+III")&gt;0,"+III",IF(COUNTIF(F75:L75,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E75" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F75:L75,"-III")&gt;0,"-III",IF(COUNTIF(F75:L75,"-II")&gt;0,"-II",IF(COUNTIF(F75:L75,"-I")&gt;0,"-I",IF(COUNTIF(F75:L75,"+0")&gt;0,"+0",IF(COUNTIF(F75:L75,"+I")&gt;0,"+I",IF(COUNTIF(F75:L75,"+II")&gt;0,"+II",IF(COUNTIF(F75:L75,"+III")&gt;0,"+III",IF(COUNTIF(F75:L75,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F75" s="9" t="str">
@@ -5671,19 +5671,19 @@
       </c>
       <c r="I75" s="9" t="str">
         <f t="array" ref="I75">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B75,C75),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J75" s="9" t="str">
         <f t="array" ref="J75">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B75,C75),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K75" s="9" t="str">
         <f t="array" ref="K75">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B75,C75),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L75" s="12" t="str">
         <f t="array" ref="L75">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B75,C75),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
@@ -5694,11 +5694,11 @@
         <v>17.809999999999999</v>
       </c>
       <c r="D76" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F76:L76,"D")&gt;0,"D",IF(COUNTIF(F76:L76,"-III")&gt;0,"-III",IF(COUNTIF(F76:L76,"-II")&gt;0,"-II",IF(COUNTIF(F76:L76,"-I")&gt;0,"-I",IF(COUNTIF(F76:L76,"+0")&gt;0,"+0",IF(COUNTIF(F76:L76,"+I")&gt;0,"+I",IF(COUNTIF(F76:L76,"+II")&gt;0,"+II",IF(COUNTIF(F76:L76,"+III")&gt;0,"+III",IF(COUNTIF(F76:L76,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E76" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F76:L76,"-III")&gt;0,"-III",IF(COUNTIF(F76:L76,"-II")&gt;0,"-II",IF(COUNTIF(F76:L76,"-I")&gt;0,"-I",IF(COUNTIF(F76:L76,"+0")&gt;0,"+0",IF(COUNTIF(F76:L76,"+I")&gt;0,"+I",IF(COUNTIF(F76:L76,"+II")&gt;0,"+II",IF(COUNTIF(F76:L76,"+III")&gt;0,"+III",IF(COUNTIF(F76:L76,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F76" s="9" t="str">
@@ -5715,19 +5715,19 @@
       </c>
       <c r="I76" s="9" t="str">
         <f t="array" ref="I76">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B76,C76),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J76" s="9" t="str">
         <f t="array" ref="J76">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B76,C76),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K76" s="9" t="str">
         <f t="array" ref="K76">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B76,C76),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L76" s="12" t="str">
         <f t="array" ref="L76">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B76,C76),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
@@ -5738,11 +5738,11 @@
         <v>17.850000000000001</v>
       </c>
       <c r="D77" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F77:L77,"D")&gt;0,"D",IF(COUNTIF(F77:L77,"-III")&gt;0,"-III",IF(COUNTIF(F77:L77,"-II")&gt;0,"-II",IF(COUNTIF(F77:L77,"-I")&gt;0,"-I",IF(COUNTIF(F77:L77,"+0")&gt;0,"+0",IF(COUNTIF(F77:L77,"+I")&gt;0,"+I",IF(COUNTIF(F77:L77,"+II")&gt;0,"+II",IF(COUNTIF(F77:L77,"+III")&gt;0,"+III",IF(COUNTIF(F77:L77,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E77" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F77:L77,"-III")&gt;0,"-III",IF(COUNTIF(F77:L77,"-II")&gt;0,"-II",IF(COUNTIF(F77:L77,"-I")&gt;0,"-I",IF(COUNTIF(F77:L77,"+0")&gt;0,"+0",IF(COUNTIF(F77:L77,"+I")&gt;0,"+I",IF(COUNTIF(F77:L77,"+II")&gt;0,"+II",IF(COUNTIF(F77:L77,"+III")&gt;0,"+III",IF(COUNTIF(F77:L77,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F77" s="9" t="str">
@@ -5759,19 +5759,19 @@
       </c>
       <c r="I77" s="9" t="str">
         <f t="array" ref="I77">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B77,C77),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J77" s="9" t="str">
         <f t="array" ref="J77">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B77,C77),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K77" s="9" t="str">
         <f t="array" ref="K77">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B77,C77),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L77" s="12" t="str">
         <f t="array" ref="L77">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B77,C77),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
@@ -5782,11 +5782,11 @@
         <v>17.91</v>
       </c>
       <c r="D78" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F78:L78,"D")&gt;0,"D",IF(COUNTIF(F78:L78,"-III")&gt;0,"-III",IF(COUNTIF(F78:L78,"-II")&gt;0,"-II",IF(COUNTIF(F78:L78,"-I")&gt;0,"-I",IF(COUNTIF(F78:L78,"+0")&gt;0,"+0",IF(COUNTIF(F78:L78,"+I")&gt;0,"+I",IF(COUNTIF(F78:L78,"+II")&gt;0,"+II",IF(COUNTIF(F78:L78,"+III")&gt;0,"+III",IF(COUNTIF(F78:L78,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E78" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F78:L78,"-III")&gt;0,"-III",IF(COUNTIF(F78:L78,"-II")&gt;0,"-II",IF(COUNTIF(F78:L78,"-I")&gt;0,"-I",IF(COUNTIF(F78:L78,"+0")&gt;0,"+0",IF(COUNTIF(F78:L78,"+I")&gt;0,"+I",IF(COUNTIF(F78:L78,"+II")&gt;0,"+II",IF(COUNTIF(F78:L78,"+III")&gt;0,"+III",IF(COUNTIF(F78:L78,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F78" s="9" t="str">
@@ -5803,19 +5803,19 @@
       </c>
       <c r="I78" s="9" t="str">
         <f t="array" ref="I78">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B78,C78),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J78" s="9" t="str">
         <f t="array" ref="J78">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B78,C78),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K78" s="9" t="str">
         <f t="array" ref="K78">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B78,C78),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L78" s="12" t="str">
         <f t="array" ref="L78">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B78,C78),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
@@ -5826,11 +5826,11 @@
         <v>18.29</v>
       </c>
       <c r="D79" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F79:L79,"D")&gt;0,"D",IF(COUNTIF(F79:L79,"-III")&gt;0,"-III",IF(COUNTIF(F79:L79,"-II")&gt;0,"-II",IF(COUNTIF(F79:L79,"-I")&gt;0,"-I",IF(COUNTIF(F79:L79,"+0")&gt;0,"+0",IF(COUNTIF(F79:L79,"+I")&gt;0,"+I",IF(COUNTIF(F79:L79,"+II")&gt;0,"+II",IF(COUNTIF(F79:L79,"+III")&gt;0,"+III",IF(COUNTIF(F79:L79,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E79" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F79:L79,"-III")&gt;0,"-III",IF(COUNTIF(F79:L79,"-II")&gt;0,"-II",IF(COUNTIF(F79:L79,"-I")&gt;0,"-I",IF(COUNTIF(F79:L79,"+0")&gt;0,"+0",IF(COUNTIF(F79:L79,"+I")&gt;0,"+I",IF(COUNTIF(F79:L79,"+II")&gt;0,"+II",IF(COUNTIF(F79:L79,"+III")&gt;0,"+III",IF(COUNTIF(F79:L79,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F79" s="9" t="str">
@@ -5847,19 +5847,19 @@
       </c>
       <c r="I79" s="9" t="str">
         <f t="array" ref="I79">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B79,C79),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J79" s="9" t="str">
         <f t="array" ref="J79">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B79,C79),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K79" s="9" t="str">
         <f t="array" ref="K79">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B79,C79),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L79" s="12" t="str">
         <f t="array" ref="L79">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B79,C79),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
@@ -5870,11 +5870,11 @@
         <v>18.48</v>
       </c>
       <c r="D80" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F80:L80,"D")&gt;0,"D",IF(COUNTIF(F80:L80,"-III")&gt;0,"-III",IF(COUNTIF(F80:L80,"-II")&gt;0,"-II",IF(COUNTIF(F80:L80,"-I")&gt;0,"-I",IF(COUNTIF(F80:L80,"+0")&gt;0,"+0",IF(COUNTIF(F80:L80,"+I")&gt;0,"+I",IF(COUNTIF(F80:L80,"+II")&gt;0,"+II",IF(COUNTIF(F80:L80,"+III")&gt;0,"+III",IF(COUNTIF(F80:L80,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E80" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F80:L80,"-III")&gt;0,"-III",IF(COUNTIF(F80:L80,"-II")&gt;0,"-II",IF(COUNTIF(F80:L80,"-I")&gt;0,"-I",IF(COUNTIF(F80:L80,"+0")&gt;0,"+0",IF(COUNTIF(F80:L80,"+I")&gt;0,"+I",IF(COUNTIF(F80:L80,"+II")&gt;0,"+II",IF(COUNTIF(F80:L80,"+III")&gt;0,"+III",IF(COUNTIF(F80:L80,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F80" s="9" t="str">
@@ -5891,19 +5891,19 @@
       </c>
       <c r="I80" s="9" t="str">
         <f t="array" ref="I80">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B80,C80),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J80" s="9" t="str">
         <f t="array" ref="J80">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B80,C80),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K80" s="9" t="str">
         <f t="array" ref="K80">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B80,C80),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L80" s="12" t="str">
         <f t="array" ref="L80">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B80,C80),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
@@ -5914,11 +5914,11 @@
         <v>18.559999999999999</v>
       </c>
       <c r="D81" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F81:L81,"D")&gt;0,"D",IF(COUNTIF(F81:L81,"-III")&gt;0,"-III",IF(COUNTIF(F81:L81,"-II")&gt;0,"-II",IF(COUNTIF(F81:L81,"-I")&gt;0,"-I",IF(COUNTIF(F81:L81,"+0")&gt;0,"+0",IF(COUNTIF(F81:L81,"+I")&gt;0,"+I",IF(COUNTIF(F81:L81,"+II")&gt;0,"+II",IF(COUNTIF(F81:L81,"+III")&gt;0,"+III",IF(COUNTIF(F81:L81,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E81" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F81:L81,"-III")&gt;0,"-III",IF(COUNTIF(F81:L81,"-II")&gt;0,"-II",IF(COUNTIF(F81:L81,"-I")&gt;0,"-I",IF(COUNTIF(F81:L81,"+0")&gt;0,"+0",IF(COUNTIF(F81:L81,"+I")&gt;0,"+I",IF(COUNTIF(F81:L81,"+II")&gt;0,"+II",IF(COUNTIF(F81:L81,"+III")&gt;0,"+III",IF(COUNTIF(F81:L81,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F81" s="9" t="str">
@@ -5935,19 +5935,19 @@
       </c>
       <c r="I81" s="9" t="str">
         <f t="array" ref="I81">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B81,C81),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J81" s="9" t="str">
         <f t="array" ref="J81">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B81,C81),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K81" s="9" t="str">
         <f t="array" ref="K81">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B81,C81),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L81" s="12" t="str">
         <f t="array" ref="L81">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B81,C81),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
@@ -5958,11 +5958,11 @@
         <v>18.57818717</v>
       </c>
       <c r="D82" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F82:L82,"D")&gt;0,"D",IF(COUNTIF(F82:L82,"-III")&gt;0,"-III",IF(COUNTIF(F82:L82,"-II")&gt;0,"-II",IF(COUNTIF(F82:L82,"-I")&gt;0,"-I",IF(COUNTIF(F82:L82,"+0")&gt;0,"+0",IF(COUNTIF(F82:L82,"+I")&gt;0,"+I",IF(COUNTIF(F82:L82,"+II")&gt;0,"+II",IF(COUNTIF(F82:L82,"+III")&gt;0,"+III",IF(COUNTIF(F82:L82,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E82" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F82:L82,"-III")&gt;0,"-III",IF(COUNTIF(F82:L82,"-II")&gt;0,"-II",IF(COUNTIF(F82:L82,"-I")&gt;0,"-I",IF(COUNTIF(F82:L82,"+0")&gt;0,"+0",IF(COUNTIF(F82:L82,"+I")&gt;0,"+I",IF(COUNTIF(F82:L82,"+II")&gt;0,"+II",IF(COUNTIF(F82:L82,"+III")&gt;0,"+III",IF(COUNTIF(F82:L82,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F82" s="9" t="str">
@@ -5979,19 +5979,19 @@
       </c>
       <c r="I82" s="9" t="str">
         <f t="array" ref="I82">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B82,C82),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J82" s="9" t="str">
         <f t="array" ref="J82">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B82,C82),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K82" s="9" t="str">
         <f t="array" ref="K82">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B82,C82),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L82" s="12" t="str">
         <f t="array" ref="L82">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B82,C82),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
@@ -6002,11 +6002,11 @@
         <v>18.588187170000001</v>
       </c>
       <c r="D83" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F83:L83,"D")&gt;0,"D",IF(COUNTIF(F83:L83,"-III")&gt;0,"-III",IF(COUNTIF(F83:L83,"-II")&gt;0,"-II",IF(COUNTIF(F83:L83,"-I")&gt;0,"-I",IF(COUNTIF(F83:L83,"+0")&gt;0,"+0",IF(COUNTIF(F83:L83,"+I")&gt;0,"+I",IF(COUNTIF(F83:L83,"+II")&gt;0,"+II",IF(COUNTIF(F83:L83,"+III")&gt;0,"+III",IF(COUNTIF(F83:L83,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E83" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F83:L83,"-III")&gt;0,"-III",IF(COUNTIF(F83:L83,"-II")&gt;0,"-II",IF(COUNTIF(F83:L83,"-I")&gt;0,"-I",IF(COUNTIF(F83:L83,"+0")&gt;0,"+0",IF(COUNTIF(F83:L83,"+I")&gt;0,"+I",IF(COUNTIF(F83:L83,"+II")&gt;0,"+II",IF(COUNTIF(F83:L83,"+III")&gt;0,"+III",IF(COUNTIF(F83:L83,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F83" s="9" t="str">
@@ -6023,7 +6023,7 @@
       </c>
       <c r="I83" s="9" t="str">
         <f t="array" ref="I83">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B83,C83),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J83" s="9" t="str">
         <f t="array" ref="J83">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B83,C83),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -6031,11 +6031,11 @@
       </c>
       <c r="K83" s="9" t="str">
         <f t="array" ref="K83">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B83,C83),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L83" s="12" t="str">
         <f t="array" ref="L83">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B83,C83),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
@@ -6046,11 +6046,11 @@
         <v>18.605671771000001</v>
       </c>
       <c r="D84" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F84:L84,"D")&gt;0,"D",IF(COUNTIF(F84:L84,"-III")&gt;0,"-III",IF(COUNTIF(F84:L84,"-II")&gt;0,"-II",IF(COUNTIF(F84:L84,"-I")&gt;0,"-I",IF(COUNTIF(F84:L84,"+0")&gt;0,"+0",IF(COUNTIF(F84:L84,"+I")&gt;0,"+I",IF(COUNTIF(F84:L84,"+II")&gt;0,"+II",IF(COUNTIF(F84:L84,"+III")&gt;0,"+III",IF(COUNTIF(F84:L84,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E84" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F84:L84,"-III")&gt;0,"-III",IF(COUNTIF(F84:L84,"-II")&gt;0,"-II",IF(COUNTIF(F84:L84,"-I")&gt;0,"-I",IF(COUNTIF(F84:L84,"+0")&gt;0,"+0",IF(COUNTIF(F84:L84,"+I")&gt;0,"+I",IF(COUNTIF(F84:L84,"+II")&gt;0,"+II",IF(COUNTIF(F84:L84,"+III")&gt;0,"+III",IF(COUNTIF(F84:L84,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F84" s="9" t="str">
@@ -6067,19 +6067,19 @@
       </c>
       <c r="I84" s="9" t="str">
         <f t="array" ref="I84">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B84,C84),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J84" s="9" t="str">
         <f t="array" ref="J84">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B84,C84),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K84" s="9" t="str">
         <f t="array" ref="K84">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B84,C84),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L84" s="12" t="str">
         <f t="array" ref="L84">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B84,C84),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
@@ -6090,11 +6090,11 @@
         <v>18.605671772000001</v>
       </c>
       <c r="D85" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F85:L85,"D")&gt;0,"D",IF(COUNTIF(F85:L85,"-III")&gt;0,"-III",IF(COUNTIF(F85:L85,"-II")&gt;0,"-II",IF(COUNTIF(F85:L85,"-I")&gt;0,"-I",IF(COUNTIF(F85:L85,"+0")&gt;0,"+0",IF(COUNTIF(F85:L85,"+I")&gt;0,"+I",IF(COUNTIF(F85:L85,"+II")&gt;0,"+II",IF(COUNTIF(F85:L85,"+III")&gt;0,"+III",IF(COUNTIF(F85:L85,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E85" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F85:L85,"-III")&gt;0,"-III",IF(COUNTIF(F85:L85,"-II")&gt;0,"-II",IF(COUNTIF(F85:L85,"-I")&gt;0,"-I",IF(COUNTIF(F85:L85,"+0")&gt;0,"+0",IF(COUNTIF(F85:L85,"+I")&gt;0,"+I",IF(COUNTIF(F85:L85,"+II")&gt;0,"+II",IF(COUNTIF(F85:L85,"+III")&gt;0,"+III",IF(COUNTIF(F85:L85,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F85" s="9" t="str">
@@ -6111,19 +6111,19 @@
       </c>
       <c r="I85" s="9" t="str">
         <f t="array" ref="I85">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B85,C85),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J85" s="9" t="str">
         <f t="array" ref="J85">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B85,C85),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K85" s="9" t="str">
         <f t="array" ref="K85">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B85,C85),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L85" s="12" t="str">
         <f t="array" ref="L85">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B85,C85),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
@@ -6134,11 +6134,11 @@
         <v>18.61409317</v>
       </c>
       <c r="D86" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F86:L86,"D")&gt;0,"D",IF(COUNTIF(F86:L86,"-III")&gt;0,"-III",IF(COUNTIF(F86:L86,"-II")&gt;0,"-II",IF(COUNTIF(F86:L86,"-I")&gt;0,"-I",IF(COUNTIF(F86:L86,"+0")&gt;0,"+0",IF(COUNTIF(F86:L86,"+I")&gt;0,"+I",IF(COUNTIF(F86:L86,"+II")&gt;0,"+II",IF(COUNTIF(F86:L86,"+III")&gt;0,"+III",IF(COUNTIF(F86:L86,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E86" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F86:L86,"-III")&gt;0,"-III",IF(COUNTIF(F86:L86,"-II")&gt;0,"-II",IF(COUNTIF(F86:L86,"-I")&gt;0,"-I",IF(COUNTIF(F86:L86,"+0")&gt;0,"+0",IF(COUNTIF(F86:L86,"+I")&gt;0,"+I",IF(COUNTIF(F86:L86,"+II")&gt;0,"+II",IF(COUNTIF(F86:L86,"+III")&gt;0,"+III",IF(COUNTIF(F86:L86,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F86" s="9" t="str">
@@ -6155,19 +6155,19 @@
       </c>
       <c r="I86" s="9" t="str">
         <f t="array" ref="I86">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B86,C86),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J86" s="9" t="str">
         <f t="array" ref="J86">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B86,C86),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K86" s="9" t="str">
         <f t="array" ref="K86">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B86,C86),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L86" s="12" t="str">
         <f t="array" ref="L86">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B86,C86),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
@@ -6178,11 +6178,11 @@
         <v>18.624093169999998</v>
       </c>
       <c r="D87" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F87:L87,"D")&gt;0,"D",IF(COUNTIF(F87:L87,"-III")&gt;0,"-III",IF(COUNTIF(F87:L87,"-II")&gt;0,"-II",IF(COUNTIF(F87:L87,"-I")&gt;0,"-I",IF(COUNTIF(F87:L87,"+0")&gt;0,"+0",IF(COUNTIF(F87:L87,"+I")&gt;0,"+I",IF(COUNTIF(F87:L87,"+II")&gt;0,"+II",IF(COUNTIF(F87:L87,"+III")&gt;0,"+III",IF(COUNTIF(F87:L87,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E87" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F87:L87,"-III")&gt;0,"-III",IF(COUNTIF(F87:L87,"-II")&gt;0,"-II",IF(COUNTIF(F87:L87,"-I")&gt;0,"-I",IF(COUNTIF(F87:L87,"+0")&gt;0,"+0",IF(COUNTIF(F87:L87,"+I")&gt;0,"+I",IF(COUNTIF(F87:L87,"+II")&gt;0,"+II",IF(COUNTIF(F87:L87,"+III")&gt;0,"+III",IF(COUNTIF(F87:L87,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F87" s="9" t="str">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="I87" s="9" t="str">
         <f t="array" ref="I87">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B87,C87),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J87" s="9" t="str">
         <f t="array" ref="J87">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B87,C87),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -6222,11 +6222,11 @@
         <v>18.64</v>
       </c>
       <c r="D88" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F88:L88,"D")&gt;0,"D",IF(COUNTIF(F88:L88,"-III")&gt;0,"-III",IF(COUNTIF(F88:L88,"-II")&gt;0,"-II",IF(COUNTIF(F88:L88,"-I")&gt;0,"-I",IF(COUNTIF(F88:L88,"+0")&gt;0,"+0",IF(COUNTIF(F88:L88,"+I")&gt;0,"+I",IF(COUNTIF(F88:L88,"+II")&gt;0,"+II",IF(COUNTIF(F88:L88,"+III")&gt;0,"+III",IF(COUNTIF(F88:L88,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E88" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F88:L88,"-III")&gt;0,"-III",IF(COUNTIF(F88:L88,"-II")&gt;0,"-II",IF(COUNTIF(F88:L88,"-I")&gt;0,"-I",IF(COUNTIF(F88:L88,"+0")&gt;0,"+0",IF(COUNTIF(F88:L88,"+I")&gt;0,"+I",IF(COUNTIF(F88:L88,"+II")&gt;0,"+II",IF(COUNTIF(F88:L88,"+III")&gt;0,"+III",IF(COUNTIF(F88:L88,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F88" s="9" t="str">
@@ -6243,19 +6243,19 @@
       </c>
       <c r="I88" s="9" t="str">
         <f t="array" ref="I88">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B88,C88),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J88" s="9" t="str">
         <f t="array" ref="J88">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B88,C88),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K88" s="9" t="str">
         <f t="array" ref="K88">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B88,C88),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L88" s="12" t="str">
         <f t="array" ref="L88">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B88,C88),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
@@ -6266,11 +6266,11 @@
         <v>18.66</v>
       </c>
       <c r="D89" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F89:L89,"D")&gt;0,"D",IF(COUNTIF(F89:L89,"-III")&gt;0,"-III",IF(COUNTIF(F89:L89,"-II")&gt;0,"-II",IF(COUNTIF(F89:L89,"-I")&gt;0,"-I",IF(COUNTIF(F89:L89,"+0")&gt;0,"+0",IF(COUNTIF(F89:L89,"+I")&gt;0,"+I",IF(COUNTIF(F89:L89,"+II")&gt;0,"+II",IF(COUNTIF(F89:L89,"+III")&gt;0,"+III",IF(COUNTIF(F89:L89,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E89" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F89:L89,"-III")&gt;0,"-III",IF(COUNTIF(F89:L89,"-II")&gt;0,"-II",IF(COUNTIF(F89:L89,"-I")&gt;0,"-I",IF(COUNTIF(F89:L89,"+0")&gt;0,"+0",IF(COUNTIF(F89:L89,"+I")&gt;0,"+I",IF(COUNTIF(F89:L89,"+II")&gt;0,"+II",IF(COUNTIF(F89:L89,"+III")&gt;0,"+III",IF(COUNTIF(F89:L89,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F89" s="9" t="str">
@@ -6287,19 +6287,19 @@
       </c>
       <c r="I89" s="9" t="str">
         <f t="array" ref="I89">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B89,C89),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J89" s="9" t="str">
         <f t="array" ref="J89">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B89,C89),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K89" s="9" t="str">
         <f t="array" ref="K89">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B89,C89),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L89" s="12" t="str">
         <f t="array" ref="L89">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B89,C89),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
@@ -6310,11 +6310,11 @@
         <v>18.75</v>
       </c>
       <c r="D90" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F90:L90,"D")&gt;0,"D",IF(COUNTIF(F90:L90,"-III")&gt;0,"-III",IF(COUNTIF(F90:L90,"-II")&gt;0,"-II",IF(COUNTIF(F90:L90,"-I")&gt;0,"-I",IF(COUNTIF(F90:L90,"+0")&gt;0,"+0",IF(COUNTIF(F90:L90,"+I")&gt;0,"+I",IF(COUNTIF(F90:L90,"+II")&gt;0,"+II",IF(COUNTIF(F90:L90,"+III")&gt;0,"+III",IF(COUNTIF(F90:L90,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E90" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F90:L90,"-III")&gt;0,"-III",IF(COUNTIF(F90:L90,"-II")&gt;0,"-II",IF(COUNTIF(F90:L90,"-I")&gt;0,"-I",IF(COUNTIF(F90:L90,"+0")&gt;0,"+0",IF(COUNTIF(F90:L90,"+I")&gt;0,"+I",IF(COUNTIF(F90:L90,"+II")&gt;0,"+II",IF(COUNTIF(F90:L90,"+III")&gt;0,"+III",IF(COUNTIF(F90:L90,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F90" s="9" t="str">
@@ -6331,19 +6331,19 @@
       </c>
       <c r="I90" s="9" t="str">
         <f t="array" ref="I90">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B90,C90),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J90" s="9" t="str">
         <f t="array" ref="J90">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B90,C90),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K90" s="9" t="str">
         <f t="array" ref="K90">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B90,C90),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L90" s="12" t="str">
         <f t="array" ref="L90">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B90,C90),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
@@ -6354,11 +6354,11 @@
         <v>19.070850830000001</v>
       </c>
       <c r="D91" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F91:L91,"D")&gt;0,"D",IF(COUNTIF(F91:L91,"-III")&gt;0,"-III",IF(COUNTIF(F91:L91,"-II")&gt;0,"-II",IF(COUNTIF(F91:L91,"-I")&gt;0,"-I",IF(COUNTIF(F91:L91,"+0")&gt;0,"+0",IF(COUNTIF(F91:L91,"+I")&gt;0,"+I",IF(COUNTIF(F91:L91,"+II")&gt;0,"+II",IF(COUNTIF(F91:L91,"+III")&gt;0,"+III",IF(COUNTIF(F91:L91,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E91" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F91:L91,"-III")&gt;0,"-III",IF(COUNTIF(F91:L91,"-II")&gt;0,"-II",IF(COUNTIF(F91:L91,"-I")&gt;0,"-I",IF(COUNTIF(F91:L91,"+0")&gt;0,"+0",IF(COUNTIF(F91:L91,"+I")&gt;0,"+I",IF(COUNTIF(F91:L91,"+II")&gt;0,"+II",IF(COUNTIF(F91:L91,"+III")&gt;0,"+III",IF(COUNTIF(F91:L91,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F91" s="9" t="str">
@@ -6375,19 +6375,19 @@
       </c>
       <c r="I91" s="9" t="str">
         <f t="array" ref="I91">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B91,C91),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J91" s="9" t="str">
         <f t="array" ref="J91">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B91,C91),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K91" s="9" t="str">
         <f t="array" ref="K91">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B91,C91),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L91" s="12" t="str">
         <f t="array" ref="L91">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B91,C91),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
@@ -6398,11 +6398,11 @@
         <v>19.080850829999999</v>
       </c>
       <c r="D92" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F92:L92,"D")&gt;0,"D",IF(COUNTIF(F92:L92,"-III")&gt;0,"-III",IF(COUNTIF(F92:L92,"-II")&gt;0,"-II",IF(COUNTIF(F92:L92,"-I")&gt;0,"-I",IF(COUNTIF(F92:L92,"+0")&gt;0,"+0",IF(COUNTIF(F92:L92,"+I")&gt;0,"+I",IF(COUNTIF(F92:L92,"+II")&gt;0,"+II",IF(COUNTIF(F92:L92,"+III")&gt;0,"+III",IF(COUNTIF(F92:L92,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E92" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F92:L92,"-III")&gt;0,"-III",IF(COUNTIF(F92:L92,"-II")&gt;0,"-II",IF(COUNTIF(F92:L92,"-I")&gt;0,"-I",IF(COUNTIF(F92:L92,"+0")&gt;0,"+0",IF(COUNTIF(F92:L92,"+I")&gt;0,"+I",IF(COUNTIF(F92:L92,"+II")&gt;0,"+II",IF(COUNTIF(F92:L92,"+III")&gt;0,"+III",IF(COUNTIF(F92:L92,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F92" s="9" t="str">
@@ -6419,7 +6419,7 @@
       </c>
       <c r="I92" s="9" t="str">
         <f t="array" ref="I92">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B92,C92),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J92" s="9" t="str">
         <f t="array" ref="J92">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B92,C92),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="L92" s="12" t="str">
         <f t="array" ref="L92">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B92,C92),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
@@ -6442,11 +6442,11 @@
         <v>19.13233735</v>
       </c>
       <c r="D93" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F93:L93,"D")&gt;0,"D",IF(COUNTIF(F93:L93,"-III")&gt;0,"-III",IF(COUNTIF(F93:L93,"-II")&gt;0,"-II",IF(COUNTIF(F93:L93,"-I")&gt;0,"-I",IF(COUNTIF(F93:L93,"+0")&gt;0,"+0",IF(COUNTIF(F93:L93,"+I")&gt;0,"+I",IF(COUNTIF(F93:L93,"+II")&gt;0,"+II",IF(COUNTIF(F93:L93,"+III")&gt;0,"+III",IF(COUNTIF(F93:L93,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E93" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F93:L93,"-III")&gt;0,"-III",IF(COUNTIF(F93:L93,"-II")&gt;0,"-II",IF(COUNTIF(F93:L93,"-I")&gt;0,"-I",IF(COUNTIF(F93:L93,"+0")&gt;0,"+0",IF(COUNTIF(F93:L93,"+I")&gt;0,"+I",IF(COUNTIF(F93:L93,"+II")&gt;0,"+II",IF(COUNTIF(F93:L93,"+III")&gt;0,"+III",IF(COUNTIF(F93:L93,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F93" s="9" t="str">
@@ -6463,19 +6463,19 @@
       </c>
       <c r="I93" s="9" t="str">
         <f t="array" ref="I93">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B93,C93),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J93" s="9" t="str">
         <f t="array" ref="J93">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B93,C93),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K93" s="9" t="str">
         <f t="array" ref="K93">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B93,C93),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L93" s="12" t="str">
         <f t="array" ref="L93">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B93,C93),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
@@ -6486,11 +6486,11 @@
         <v>19.142337349999998</v>
       </c>
       <c r="D94" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F94:L94,"D")&gt;0,"D",IF(COUNTIF(F94:L94,"-III")&gt;0,"-III",IF(COUNTIF(F94:L94,"-II")&gt;0,"-II",IF(COUNTIF(F94:L94,"-I")&gt;0,"-I",IF(COUNTIF(F94:L94,"+0")&gt;0,"+0",IF(COUNTIF(F94:L94,"+I")&gt;0,"+I",IF(COUNTIF(F94:L94,"+II")&gt;0,"+II",IF(COUNTIF(F94:L94,"+III")&gt;0,"+III",IF(COUNTIF(F94:L94,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E94" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F94:L94,"-III")&gt;0,"-III",IF(COUNTIF(F94:L94,"-II")&gt;0,"-II",IF(COUNTIF(F94:L94,"-I")&gt;0,"-I",IF(COUNTIF(F94:L94,"+0")&gt;0,"+0",IF(COUNTIF(F94:L94,"+I")&gt;0,"+I",IF(COUNTIF(F94:L94,"+II")&gt;0,"+II",IF(COUNTIF(F94:L94,"+III")&gt;0,"+III",IF(COUNTIF(F94:L94,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F94" s="9" t="str">
@@ -6507,7 +6507,7 @@
       </c>
       <c r="I94" s="9" t="str">
         <f t="array" ref="I94">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B94,C94),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J94" s="9" t="str">
         <f t="array" ref="J94">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B94,C94),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -6515,11 +6515,11 @@
       </c>
       <c r="K94" s="9" t="str">
         <f t="array" ref="K94">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B94,C94),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L94" s="12" t="str">
         <f t="array" ref="L94">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B94,C94),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
@@ -6530,11 +6530,11 @@
         <v>19.574514854</v>
       </c>
       <c r="D95" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F95:L95,"D")&gt;0,"D",IF(COUNTIF(F95:L95,"-III")&gt;0,"-III",IF(COUNTIF(F95:L95,"-II")&gt;0,"-II",IF(COUNTIF(F95:L95,"-I")&gt;0,"-I",IF(COUNTIF(F95:L95,"+0")&gt;0,"+0",IF(COUNTIF(F95:L95,"+I")&gt;0,"+I",IF(COUNTIF(F95:L95,"+II")&gt;0,"+II",IF(COUNTIF(F95:L95,"+III")&gt;0,"+III",IF(COUNTIF(F95:L95,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E95" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F95:L95,"-III")&gt;0,"-III",IF(COUNTIF(F95:L95,"-II")&gt;0,"-II",IF(COUNTIF(F95:L95,"-I")&gt;0,"-I",IF(COUNTIF(F95:L95,"+0")&gt;0,"+0",IF(COUNTIF(F95:L95,"+I")&gt;0,"+I",IF(COUNTIF(F95:L95,"+II")&gt;0,"+II",IF(COUNTIF(F95:L95,"+III")&gt;0,"+III",IF(COUNTIF(F95:L95,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F95" s="9" t="str">
@@ -6551,19 +6551,19 @@
       </c>
       <c r="I95" s="9" t="str">
         <f t="array" ref="I95">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B95,C95),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J95" s="9" t="str">
         <f t="array" ref="J95">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B95,C95),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K95" s="9" t="str">
         <f t="array" ref="K95">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B95,C95),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L95" s="12" t="str">
         <f t="array" ref="L95">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B95,C95),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
@@ -6574,11 +6574,11 @@
         <v>19.670000000000002</v>
       </c>
       <c r="D96" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F96:L96,"D")&gt;0,"D",IF(COUNTIF(F96:L96,"-III")&gt;0,"-III",IF(COUNTIF(F96:L96,"-II")&gt;0,"-II",IF(COUNTIF(F96:L96,"-I")&gt;0,"-I",IF(COUNTIF(F96:L96,"+0")&gt;0,"+0",IF(COUNTIF(F96:L96,"+I")&gt;0,"+I",IF(COUNTIF(F96:L96,"+II")&gt;0,"+II",IF(COUNTIF(F96:L96,"+III")&gt;0,"+III",IF(COUNTIF(F96:L96,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E96" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F96:L96,"-III")&gt;0,"-III",IF(COUNTIF(F96:L96,"-II")&gt;0,"-II",IF(COUNTIF(F96:L96,"-I")&gt;0,"-I",IF(COUNTIF(F96:L96,"+0")&gt;0,"+0",IF(COUNTIF(F96:L96,"+I")&gt;0,"+I",IF(COUNTIF(F96:L96,"+II")&gt;0,"+II",IF(COUNTIF(F96:L96,"+III")&gt;0,"+III",IF(COUNTIF(F96:L96,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F96" s="9" t="str">
@@ -6595,19 +6595,19 @@
       </c>
       <c r="I96" s="9" t="str">
         <f t="array" ref="I96">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B96,C96),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J96" s="9" t="str">
         <f t="array" ref="J96">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B96,C96),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K96" s="9" t="str">
         <f t="array" ref="K96">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B96,C96),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L96" s="12" t="str">
         <f t="array" ref="L96">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B96,C96),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
@@ -6618,11 +6618,11 @@
         <v>19.69841048</v>
       </c>
       <c r="D97" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F97:L97,"D")&gt;0,"D",IF(COUNTIF(F97:L97,"-III")&gt;0,"-III",IF(COUNTIF(F97:L97,"-II")&gt;0,"-II",IF(COUNTIF(F97:L97,"-I")&gt;0,"-I",IF(COUNTIF(F97:L97,"+0")&gt;0,"+0",IF(COUNTIF(F97:L97,"+I")&gt;0,"+I",IF(COUNTIF(F97:L97,"+II")&gt;0,"+II",IF(COUNTIF(F97:L97,"+III")&gt;0,"+III",IF(COUNTIF(F97:L97,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E97" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F97:L97,"-III")&gt;0,"-III",IF(COUNTIF(F97:L97,"-II")&gt;0,"-II",IF(COUNTIF(F97:L97,"-I")&gt;0,"-I",IF(COUNTIF(F97:L97,"+0")&gt;0,"+0",IF(COUNTIF(F97:L97,"+I")&gt;0,"+I",IF(COUNTIF(F97:L97,"+II")&gt;0,"+II",IF(COUNTIF(F97:L97,"+III")&gt;0,"+III",IF(COUNTIF(F97:L97,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F97" s="9" t="str">
@@ -6639,19 +6639,19 @@
       </c>
       <c r="I97" s="9" t="str">
         <f t="array" ref="I97">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B97,C97),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J97" s="9" t="str">
         <f t="array" ref="J97">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B97,C97),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K97" s="9" t="str">
         <f t="array" ref="K97">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B97,C97),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L97" s="12" t="str">
         <f t="array" ref="L97">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B97,C97),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
@@ -6662,11 +6662,11 @@
         <v>19.809999999999999</v>
       </c>
       <c r="D98" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F98:L98,"D")&gt;0,"D",IF(COUNTIF(F98:L98,"-III")&gt;0,"-III",IF(COUNTIF(F98:L98,"-II")&gt;0,"-II",IF(COUNTIF(F98:L98,"-I")&gt;0,"-I",IF(COUNTIF(F98:L98,"+0")&gt;0,"+0",IF(COUNTIF(F98:L98,"+I")&gt;0,"+I",IF(COUNTIF(F98:L98,"+II")&gt;0,"+II",IF(COUNTIF(F98:L98,"+III")&gt;0,"+III",IF(COUNTIF(F98:L98,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E98" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F98:L98,"-III")&gt;0,"-III",IF(COUNTIF(F98:L98,"-II")&gt;0,"-II",IF(COUNTIF(F98:L98,"-I")&gt;0,"-I",IF(COUNTIF(F98:L98,"+0")&gt;0,"+0",IF(COUNTIF(F98:L98,"+I")&gt;0,"+I",IF(COUNTIF(F98:L98,"+II")&gt;0,"+II",IF(COUNTIF(F98:L98,"+III")&gt;0,"+III",IF(COUNTIF(F98:L98,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F98" s="9" t="str">
@@ -6683,19 +6683,19 @@
       </c>
       <c r="I98" s="9" t="str">
         <f t="array" ref="I98">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B98,C98),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J98" s="9" t="str">
         <f t="array" ref="J98">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B98,C98),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K98" s="9" t="str">
         <f t="array" ref="K98">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B98,C98),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L98" s="12" t="str">
         <f t="array" ref="L98">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B98,C98),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
@@ -6706,11 +6706,11 @@
         <v>19.989999999999998</v>
       </c>
       <c r="D99" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F99:L99,"D")&gt;0,"D",IF(COUNTIF(F99:L99,"-III")&gt;0,"-III",IF(COUNTIF(F99:L99,"-II")&gt;0,"-II",IF(COUNTIF(F99:L99,"-I")&gt;0,"-I",IF(COUNTIF(F99:L99,"+0")&gt;0,"+0",IF(COUNTIF(F99:L99,"+I")&gt;0,"+I",IF(COUNTIF(F99:L99,"+II")&gt;0,"+II",IF(COUNTIF(F99:L99,"+III")&gt;0,"+III",IF(COUNTIF(F99:L99,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E99" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F99:L99,"-III")&gt;0,"-III",IF(COUNTIF(F99:L99,"-II")&gt;0,"-II",IF(COUNTIF(F99:L99,"-I")&gt;0,"-I",IF(COUNTIF(F99:L99,"+0")&gt;0,"+0",IF(COUNTIF(F99:L99,"+I")&gt;0,"+I",IF(COUNTIF(F99:L99,"+II")&gt;0,"+II",IF(COUNTIF(F99:L99,"+III")&gt;0,"+III",IF(COUNTIF(F99:L99,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F99" s="9" t="str">
@@ -6727,19 +6727,19 @@
       </c>
       <c r="I99" s="9" t="str">
         <f t="array" ref="I99">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B99,C99),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J99" s="9" t="str">
         <f t="array" ref="J99">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B99,C99),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K99" s="9" t="str">
         <f t="array" ref="K99">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B99,C99),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L99" s="12" t="str">
         <f t="array" ref="L99">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B99,C99),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
@@ -6750,11 +6750,11 @@
         <v>20.352428100000001</v>
       </c>
       <c r="D100" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F100:L100,"D")&gt;0,"D",IF(COUNTIF(F100:L100,"-III")&gt;0,"-III",IF(COUNTIF(F100:L100,"-II")&gt;0,"-II",IF(COUNTIF(F100:L100,"-I")&gt;0,"-I",IF(COUNTIF(F100:L100,"+0")&gt;0,"+0",IF(COUNTIF(F100:L100,"+I")&gt;0,"+I",IF(COUNTIF(F100:L100,"+II")&gt;0,"+II",IF(COUNTIF(F100:L100,"+III")&gt;0,"+III",IF(COUNTIF(F100:L100,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E100" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F100:L100,"-III")&gt;0,"-III",IF(COUNTIF(F100:L100,"-II")&gt;0,"-II",IF(COUNTIF(F100:L100,"-I")&gt;0,"-I",IF(COUNTIF(F100:L100,"+0")&gt;0,"+0",IF(COUNTIF(F100:L100,"+I")&gt;0,"+I",IF(COUNTIF(F100:L100,"+II")&gt;0,"+II",IF(COUNTIF(F100:L100,"+III")&gt;0,"+III",IF(COUNTIF(F100:L100,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F100" s="9" t="str">
@@ -6771,19 +6771,19 @@
       </c>
       <c r="I100" s="9" t="str">
         <f t="array" ref="I100">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B100,C100),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J100" s="9" t="str">
         <f t="array" ref="J100">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B100,C100),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K100" s="9" t="str">
         <f t="array" ref="K100">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B100,C100),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L100" s="12" t="str">
         <f t="array" ref="L100">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B100,C100),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
@@ -6794,11 +6794,11 @@
         <v>20.362428099999999</v>
       </c>
       <c r="D101" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F101:L101,"D")&gt;0,"D",IF(COUNTIF(F101:L101,"-III")&gt;0,"-III",IF(COUNTIF(F101:L101,"-II")&gt;0,"-II",IF(COUNTIF(F101:L101,"-I")&gt;0,"-I",IF(COUNTIF(F101:L101,"+0")&gt;0,"+0",IF(COUNTIF(F101:L101,"+I")&gt;0,"+I",IF(COUNTIF(F101:L101,"+II")&gt;0,"+II",IF(COUNTIF(F101:L101,"+III")&gt;0,"+III",IF(COUNTIF(F101:L101,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E101" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F101:L101,"-III")&gt;0,"-III",IF(COUNTIF(F101:L101,"-II")&gt;0,"-II",IF(COUNTIF(F101:L101,"-I")&gt;0,"-I",IF(COUNTIF(F101:L101,"+0")&gt;0,"+0",IF(COUNTIF(F101:L101,"+I")&gt;0,"+I",IF(COUNTIF(F101:L101,"+II")&gt;0,"+II",IF(COUNTIF(F101:L101,"+III")&gt;0,"+III",IF(COUNTIF(F101:L101,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F101" s="9" t="str">
@@ -6815,7 +6815,7 @@
       </c>
       <c r="I101" s="9" t="str">
         <f t="array" ref="I101">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B101,C101),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J101" s="9" t="str">
         <f t="array" ref="J101">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B101,C101),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -6823,11 +6823,11 @@
       </c>
       <c r="K101" s="9" t="str">
         <f t="array" ref="K101">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B101,C101),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L101" s="12" t="str">
         <f t="array" ref="L101">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B101,C101),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
@@ -6838,11 +6838,11 @@
         <v>20.49</v>
       </c>
       <c r="D102" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F102:L102,"D")&gt;0,"D",IF(COUNTIF(F102:L102,"-III")&gt;0,"-III",IF(COUNTIF(F102:L102,"-II")&gt;0,"-II",IF(COUNTIF(F102:L102,"-I")&gt;0,"-I",IF(COUNTIF(F102:L102,"+0")&gt;0,"+0",IF(COUNTIF(F102:L102,"+I")&gt;0,"+I",IF(COUNTIF(F102:L102,"+II")&gt;0,"+II",IF(COUNTIF(F102:L102,"+III")&gt;0,"+III",IF(COUNTIF(F102:L102,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E102" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F102:L102,"-III")&gt;0,"-III",IF(COUNTIF(F102:L102,"-II")&gt;0,"-II",IF(COUNTIF(F102:L102,"-I")&gt;0,"-I",IF(COUNTIF(F102:L102,"+0")&gt;0,"+0",IF(COUNTIF(F102:L102,"+I")&gt;0,"+I",IF(COUNTIF(F102:L102,"+II")&gt;0,"+II",IF(COUNTIF(F102:L102,"+III")&gt;0,"+III",IF(COUNTIF(F102:L102,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F102" s="9" t="str">
@@ -6859,19 +6859,19 @@
       </c>
       <c r="I102" s="9" t="str">
         <f t="array" ref="I102">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B102,C102),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J102" s="9" t="str">
         <f t="array" ref="J102">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B102,C102),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K102" s="9" t="str">
         <f t="array" ref="K102">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B102,C102),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L102" s="12" t="str">
         <f t="array" ref="L102">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B102,C102),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
@@ -6882,11 +6882,11 @@
         <v>20.64</v>
       </c>
       <c r="D103" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F103:L103,"D")&gt;0,"D",IF(COUNTIF(F103:L103,"-III")&gt;0,"-III",IF(COUNTIF(F103:L103,"-II")&gt;0,"-II",IF(COUNTIF(F103:L103,"-I")&gt;0,"-I",IF(COUNTIF(F103:L103,"+0")&gt;0,"+0",IF(COUNTIF(F103:L103,"+I")&gt;0,"+I",IF(COUNTIF(F103:L103,"+II")&gt;0,"+II",IF(COUNTIF(F103:L103,"+III")&gt;0,"+III",IF(COUNTIF(F103:L103,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E103" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F103:L103,"-III")&gt;0,"-III",IF(COUNTIF(F103:L103,"-II")&gt;0,"-II",IF(COUNTIF(F103:L103,"-I")&gt;0,"-I",IF(COUNTIF(F103:L103,"+0")&gt;0,"+0",IF(COUNTIF(F103:L103,"+I")&gt;0,"+I",IF(COUNTIF(F103:L103,"+II")&gt;0,"+II",IF(COUNTIF(F103:L103,"+III")&gt;0,"+III",IF(COUNTIF(F103:L103,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F103" s="9" t="str">
@@ -6903,19 +6903,19 @@
       </c>
       <c r="I103" s="9" t="str">
         <f t="array" ref="I103">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B103,C103),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J103" s="9" t="str">
         <f t="array" ref="J103">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B103,C103),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K103" s="9" t="str">
         <f t="array" ref="K103">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B103,C103),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L103" s="12" t="str">
         <f t="array" ref="L103">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B103,C103),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.25">
@@ -6926,11 +6926,11 @@
         <v>20.69</v>
       </c>
       <c r="D104" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F104:L104,"D")&gt;0,"D",IF(COUNTIF(F104:L104,"-III")&gt;0,"-III",IF(COUNTIF(F104:L104,"-II")&gt;0,"-II",IF(COUNTIF(F104:L104,"-I")&gt;0,"-I",IF(COUNTIF(F104:L104,"+0")&gt;0,"+0",IF(COUNTIF(F104:L104,"+I")&gt;0,"+I",IF(COUNTIF(F104:L104,"+II")&gt;0,"+II",IF(COUNTIF(F104:L104,"+III")&gt;0,"+III",IF(COUNTIF(F104:L104,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E104" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F104:L104,"-III")&gt;0,"-III",IF(COUNTIF(F104:L104,"-II")&gt;0,"-II",IF(COUNTIF(F104:L104,"-I")&gt;0,"-I",IF(COUNTIF(F104:L104,"+0")&gt;0,"+0",IF(COUNTIF(F104:L104,"+I")&gt;0,"+I",IF(COUNTIF(F104:L104,"+II")&gt;0,"+II",IF(COUNTIF(F104:L104,"+III")&gt;0,"+III",IF(COUNTIF(F104:L104,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F104" s="9" t="str">
@@ -6947,19 +6947,19 @@
       </c>
       <c r="I104" s="9" t="str">
         <f t="array" ref="I104">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B104,C104),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J104" s="9" t="str">
         <f t="array" ref="J104">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B104,C104),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K104" s="9" t="str">
         <f t="array" ref="K104">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B104,C104),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L104" s="12" t="str">
         <f t="array" ref="L104">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B104,C104),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.25">
@@ -6970,11 +6970,11 @@
         <v>20.76</v>
       </c>
       <c r="D105" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F105:L105,"D")&gt;0,"D",IF(COUNTIF(F105:L105,"-III")&gt;0,"-III",IF(COUNTIF(F105:L105,"-II")&gt;0,"-II",IF(COUNTIF(F105:L105,"-I")&gt;0,"-I",IF(COUNTIF(F105:L105,"+0")&gt;0,"+0",IF(COUNTIF(F105:L105,"+I")&gt;0,"+I",IF(COUNTIF(F105:L105,"+II")&gt;0,"+II",IF(COUNTIF(F105:L105,"+III")&gt;0,"+III",IF(COUNTIF(F105:L105,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E105" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F105:L105,"-III")&gt;0,"-III",IF(COUNTIF(F105:L105,"-II")&gt;0,"-II",IF(COUNTIF(F105:L105,"-I")&gt;0,"-I",IF(COUNTIF(F105:L105,"+0")&gt;0,"+0",IF(COUNTIF(F105:L105,"+I")&gt;0,"+I",IF(COUNTIF(F105:L105,"+II")&gt;0,"+II",IF(COUNTIF(F105:L105,"+III")&gt;0,"+III",IF(COUNTIF(F105:L105,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F105" s="9" t="str">
@@ -6991,19 +6991,19 @@
       </c>
       <c r="I105" s="9" t="str">
         <f t="array" ref="I105">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B105,C105),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J105" s="9" t="str">
         <f t="array" ref="J105">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B105,C105),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K105" s="9" t="str">
         <f t="array" ref="K105">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B105,C105),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L105" s="12" t="str">
         <f t="array" ref="L105">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B105,C105),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="106" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7014,11 +7014,11 @@
         <v>20.93</v>
       </c>
       <c r="D106" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F106:L106,"D")&gt;0,"D",IF(COUNTIF(F106:L106,"-III")&gt;0,"-III",IF(COUNTIF(F106:L106,"-II")&gt;0,"-II",IF(COUNTIF(F106:L106,"-I")&gt;0,"-I",IF(COUNTIF(F106:L106,"+0")&gt;0,"+0",IF(COUNTIF(F106:L106,"+I")&gt;0,"+I",IF(COUNTIF(F106:L106,"+II")&gt;0,"+II",IF(COUNTIF(F106:L106,"+III")&gt;0,"+III",IF(COUNTIF(F106:L106,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E106" s="24" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F106:L106,"-III")&gt;0,"-III",IF(COUNTIF(F106:L106,"-II")&gt;0,"-II",IF(COUNTIF(F106:L106,"-I")&gt;0,"-I",IF(COUNTIF(F106:L106,"+0")&gt;0,"+0",IF(COUNTIF(F106:L106,"+I")&gt;0,"+I",IF(COUNTIF(F106:L106,"+II")&gt;0,"+II",IF(COUNTIF(F106:L106,"+III")&gt;0,"+III",IF(COUNTIF(F106:L106,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F106" s="14" t="str">
@@ -7035,19 +7035,19 @@
       </c>
       <c r="I106" s="14" t="str">
         <f t="array" ref="I106">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B106,C106),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J106" s="14" t="str">
         <f t="array" ref="J106">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B106,C106),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K106" s="14" t="str">
         <f t="array" ref="K106">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B106,C106),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L106" s="17" t="str">
         <f t="array" ref="L106">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B106,C106),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
@@ -7389,7 +7389,7 @@
   <dimension ref="B2:Y32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="O11" sqref="O11:O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7576,7 +7576,7 @@
         <v>1.2208620613333334</v>
       </c>
       <c r="O11" s="30" t="str">
-        <f t="shared" ref="O11:O28" si="3">IF(ISNUMBER($M11),W11,IF($X11,"D","ND"))</f>
+        <f t="shared" ref="O11:O30" si="3">IF(E11="Nee","NR",IF(ISNUMBER($M11),W11,IF($X11,"D","ND")))</f>
         <v>+0</v>
       </c>
       <c r="Q11" s="31">
@@ -8944,7 +8944,7 @@
         <v>2.2917907773333326</v>
       </c>
       <c r="O29" s="32" t="str">
-        <f>IF(ISNUMBER($M29),W29,IF($X29,"D","ND"))</f>
+        <f t="shared" si="3"/>
         <v>+III</v>
       </c>
       <c r="Q29" s="31">
@@ -9020,7 +9020,7 @@
         <v>2.807313527999999</v>
       </c>
       <c r="O30" s="34" t="str">
-        <f>IF(ISNUMBER($M30),W30,IF($X30,"D","ND"))</f>
+        <f t="shared" si="3"/>
         <v>+III</v>
       </c>
       <c r="Q30" s="33">
@@ -9179,7 +9179,7 @@
   <dimension ref="B2:Y32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="O11" sqref="O11:O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9366,7 +9366,7 @@
         <v>1.1258680706799999</v>
       </c>
       <c r="O11" s="30" t="str">
-        <f t="shared" ref="O11:O26" si="2">IF(ISNUMBER($M11),W11,IF($X11,"D","ND"))</f>
+        <f t="shared" ref="O11:O26" si="2">IF(E11="Nee","NR",IF(ISNUMBER($M11),W11,IF($X11,"D","ND")))</f>
         <v>+III</v>
       </c>
       <c r="Q11" s="31">
@@ -10761,7 +10761,7 @@
   <dimension ref="B2:U73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="K11" sqref="K11:K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10920,7 +10920,7 @@
         <v>4.8871199999999999E-7</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f t="shared" ref="K11:K69" si="0">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
+        <f t="shared" ref="K11:K42" si="0">IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
         <v>+II</v>
       </c>
       <c r="M11" s="31">
@@ -11304,7 +11304,7 @@
         <v>4.0974000000000001E-7</v>
       </c>
       <c r="K17" s="32" t="str">
-        <f t="shared" ref="K17:K62" si="12">IF(ISNUMBER($J17),S17,IF($T17,"D","ND"))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="M17" s="31">
@@ -11368,7 +11368,7 @@
         <v>2.9829200000000001E-7</v>
       </c>
       <c r="K18" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>+III</v>
       </c>
       <c r="M18" s="31">
@@ -11432,7 +11432,7 @@
         <v>4.3527099999999998E-7</v>
       </c>
       <c r="K19" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="M19" s="31">
@@ -11496,7 +11496,7 @@
         <v>5.8199800000000005E-7</v>
       </c>
       <c r="K20" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="M20" s="31">
@@ -11560,7 +11560,7 @@
         <v>9.1537499999999995E-8</v>
       </c>
       <c r="K21" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>+III</v>
       </c>
       <c r="M21" s="31">
@@ -11624,7 +11624,7 @@
         <v>6.9467900000000005E-8</v>
       </c>
       <c r="K22" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>+III</v>
       </c>
       <c r="M22" s="31">
@@ -11688,7 +11688,7 @@
         <v>1.1827500000000001E-7</v>
       </c>
       <c r="K23" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>+III</v>
       </c>
       <c r="M23" s="31">
@@ -11752,7 +11752,7 @@
         <v>8.9703400000000001E-8</v>
       </c>
       <c r="K24" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>+III</v>
       </c>
       <c r="M24" s="31">
@@ -11816,7 +11816,7 @@
         <v>1.04505E-7</v>
       </c>
       <c r="K25" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>+III</v>
       </c>
       <c r="M25" s="31">
@@ -11880,7 +11880,7 @@
         <v>1.12355E-7</v>
       </c>
       <c r="K26" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>+III</v>
       </c>
       <c r="M26" s="31">
@@ -11944,7 +11944,7 @@
         <v>1.70708E-7</v>
       </c>
       <c r="K27" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>+III</v>
       </c>
       <c r="M27" s="31">
@@ -12008,7 +12008,7 @@
         <v>9.9740799999999995E-8</v>
       </c>
       <c r="K28" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>+III</v>
       </c>
       <c r="M28" s="31">
@@ -12072,7 +12072,7 @@
         <v>1.4308899999999999E-7</v>
       </c>
       <c r="K29" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>+III</v>
       </c>
       <c r="M29" s="31">
@@ -12136,7 +12136,7 @@
         <v>2.0494799999999999E-6</v>
       </c>
       <c r="K30" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="M30" s="31">
@@ -12200,7 +12200,7 @@
         <v>4.8194700000000002E-7</v>
       </c>
       <c r="K31" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="M31" s="31">
@@ -12264,7 +12264,7 @@
         <v>5.34078E-8</v>
       </c>
       <c r="K32" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>+III</v>
       </c>
       <c r="M32" s="31">
@@ -12328,7 +12328,7 @@
         <v>9.4277100000000004E-7</v>
       </c>
       <c r="K33" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="M33" s="31">
@@ -12392,7 +12392,7 @@
         <v>6.3721699999999995E-7</v>
       </c>
       <c r="K34" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="M34" s="31">
@@ -12456,7 +12456,7 @@
         <v>1.9927399999999999E-7</v>
       </c>
       <c r="K35" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>+III</v>
       </c>
       <c r="M35" s="31">
@@ -12520,7 +12520,7 @@
         <v>2.4589300000000002E-7</v>
       </c>
       <c r="K36" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>+III</v>
       </c>
       <c r="M36" s="31">
@@ -12584,7 +12584,7 @@
         <v>9.85034E-8</v>
       </c>
       <c r="K37" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>+III</v>
       </c>
       <c r="M37" s="31">
@@ -12648,7 +12648,7 @@
         <v>1.44241E-7</v>
       </c>
       <c r="K38" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>+III</v>
       </c>
       <c r="M38" s="31">
@@ -12712,7 +12712,7 @@
         <v>6.5282899999999998E-8</v>
       </c>
       <c r="K39" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>+III</v>
       </c>
       <c r="M39" s="31">
@@ -12776,7 +12776,7 @@
         <v>1.1980900000000001E-7</v>
       </c>
       <c r="K40" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>+III</v>
       </c>
       <c r="M40" s="31">
@@ -12840,7 +12840,7 @@
         <v>1.39635E-8</v>
       </c>
       <c r="K41" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>+III</v>
       </c>
       <c r="M41" s="31">
@@ -12904,7 +12904,7 @@
         <v>8.9153699999999996E-9</v>
       </c>
       <c r="K42" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>+III</v>
       </c>
       <c r="M42" s="31">
@@ -12968,7 +12968,7 @@
         <v>8.0028099999999996E-9</v>
       </c>
       <c r="K43" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="K43:K69" si="12">IF($E43="Nee","NR",IF(ISNUMBER($J43),S43,IF($T43,"D","ND")))</f>
         <v>+III</v>
       </c>
       <c r="M43" s="31">
@@ -13991,7 +13991,7 @@
       </c>
       <c r="K59" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M59" s="31">
         <f t="shared" si="8"/>
@@ -14181,7 +14181,7 @@
       </c>
       <c r="K62" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M62" s="31">
         <f t="shared" si="8"/>
@@ -14244,7 +14244,7 @@
         <v>1.20779E-8</v>
       </c>
       <c r="K63" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>+III</v>
       </c>
       <c r="M63" s="31">
@@ -14308,7 +14308,7 @@
         <v>2.1064100000000001E-8</v>
       </c>
       <c r="K64" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>+III</v>
       </c>
       <c r="M64" s="31">
@@ -14372,7 +14372,7 @@
         <v>2.8099799999999999E-8</v>
       </c>
       <c r="K65" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>+III</v>
       </c>
       <c r="M65" s="31">
@@ -14436,7 +14436,7 @@
         <v>2.79756E-8</v>
       </c>
       <c r="K66" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>+III</v>
       </c>
       <c r="M66" s="31">
@@ -14500,7 +14500,7 @@
         <v>1.2314800000000001E-8</v>
       </c>
       <c r="K67" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>+III</v>
       </c>
       <c r="M67" s="31">
@@ -14564,7 +14564,7 @@
         <v>2.32604E-8</v>
       </c>
       <c r="K68" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>+III</v>
       </c>
       <c r="M68" s="31">
@@ -14628,7 +14628,7 @@
         <v>1.6673400000000002E-8</v>
       </c>
       <c r="K69" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>+III</v>
       </c>
       <c r="M69" s="31">
@@ -14827,7 +14827,7 @@
   <dimension ref="B2:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14984,8 +14984,8 @@
         <v>0</v>
       </c>
       <c r="K11" s="47" t="str">
-        <f>IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
-        <v>+III</v>
+        <f>IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
+        <v>NR</v>
       </c>
       <c r="M11" s="33">
         <f>IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
@@ -15149,7 +15149,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="K11" sqref="K11:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15306,8 +15306,8 @@
         <v>0</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f t="shared" ref="K11:K12" si="0">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
-        <v>+III</v>
+        <f t="shared" ref="K11:K23" si="0">IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
+        <v>NR</v>
       </c>
       <c r="M11" s="31">
         <f t="shared" ref="M11:M12" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
@@ -15432,19 +15432,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="32" t="str">
-        <f t="shared" ref="K13:K23" si="8">IF(ISNUMBER($J13),S13,IF($T13,"D","ND"))</f>
-        <v>+III</v>
+        <f t="shared" si="0"/>
+        <v>NR</v>
       </c>
       <c r="M13" s="31">
-        <f t="shared" ref="M13:M28" si="9">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
+        <f t="shared" ref="M13:M28" si="8">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
         <v>1</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" ref="N13:N28" si="10">IF(J13="-",1,M13)</f>
+        <f t="shared" ref="N13:N28" si="9">IF(J13="-",1,M13)</f>
         <v>1</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" ref="O13:O28" si="11">IF(AND(F13="Geen faalkans",H13="Nee"),0,J13*$C$3)</f>
+        <f t="shared" ref="O13:O28" si="10">IF(AND(F13="Geen faalkans",H13="Nee"),0,J13*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P13" s="10">
@@ -15496,23 +15496,23 @@
         <v>1.5707005292946642E-7</v>
       </c>
       <c r="K14" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>+III</v>
+      </c>
+      <c r="M14" s="31">
         <f t="shared" si="8"/>
-        <v>+III</v>
-      </c>
-      <c r="M14" s="31">
+        <v>0.99999984292994704</v>
+      </c>
+      <c r="N14" s="10">
         <f t="shared" si="9"/>
         <v>0.99999984292994704</v>
       </c>
-      <c r="N14" s="10">
+      <c r="O14" s="10">
         <f t="shared" si="10"/>
-        <v>0.99999984292994704</v>
-      </c>
-      <c r="O14" s="10">
-        <f t="shared" si="11"/>
         <v>4.7121015878839925E-7</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" ref="P14:P28" si="12">IF(J14="-",0,O14)</f>
+        <f t="shared" ref="P14:P28" si="11">IF(J14="-",0,O14)</f>
         <v>4.7121015878839925E-7</v>
       </c>
       <c r="Q14" s="9">
@@ -15558,23 +15558,23 @@
         <v>0</v>
       </c>
       <c r="K15" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>NR</v>
+      </c>
+      <c r="M15" s="31">
         <f t="shared" si="8"/>
-        <v>+III</v>
-      </c>
-      <c r="M15" s="31">
+        <v>1</v>
+      </c>
+      <c r="N15" s="10">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N15" s="10">
+      <c r="O15" s="10">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="O15" s="10">
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="10">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q15" s="9">
@@ -15622,23 +15622,23 @@
         <v>6.034287803266499E-10</v>
       </c>
       <c r="K16" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>+III</v>
+      </c>
+      <c r="M16" s="31">
         <f t="shared" si="8"/>
-        <v>+III</v>
-      </c>
-      <c r="M16" s="31">
+        <v>0.99999999939657125</v>
+      </c>
+      <c r="N16" s="10">
         <f t="shared" si="9"/>
         <v>0.99999999939657125</v>
       </c>
-      <c r="N16" s="10">
+      <c r="O16" s="10">
         <f t="shared" si="10"/>
-        <v>0.99999999939657125</v>
-      </c>
-      <c r="O16" s="10">
+        <v>1.8102863409799497E-9</v>
+      </c>
+      <c r="P16" s="10">
         <f t="shared" si="11"/>
-        <v>1.8102863409799497E-9</v>
-      </c>
-      <c r="P16" s="10">
-        <f t="shared" si="12"/>
         <v>1.8102863409799497E-9</v>
       </c>
       <c r="Q16" s="9">
@@ -15684,23 +15684,23 @@
         <v>0</v>
       </c>
       <c r="K17" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>NR</v>
+      </c>
+      <c r="M17" s="31">
         <f t="shared" si="8"/>
-        <v>+III</v>
-      </c>
-      <c r="M17" s="31">
+        <v>1</v>
+      </c>
+      <c r="N17" s="10">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N17" s="10">
+      <c r="O17" s="10">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="10">
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="10">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q17" s="9">
@@ -15748,23 +15748,23 @@
         <v>1.1200967763614776E-5</v>
       </c>
       <c r="K18" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>+I</v>
+      </c>
+      <c r="M18" s="31">
         <f t="shared" si="8"/>
-        <v>+I</v>
-      </c>
-      <c r="M18" s="31">
+        <v>0.99998879903223636</v>
+      </c>
+      <c r="N18" s="10">
         <f t="shared" si="9"/>
         <v>0.99998879903223636</v>
       </c>
-      <c r="N18" s="10">
+      <c r="O18" s="10">
         <f t="shared" si="10"/>
-        <v>0.99998879903223636</v>
-      </c>
-      <c r="O18" s="10">
+        <v>3.3602903290844325E-5</v>
+      </c>
+      <c r="P18" s="10">
         <f t="shared" si="11"/>
-        <v>3.3602903290844325E-5</v>
-      </c>
-      <c r="P18" s="10">
-        <f t="shared" si="12"/>
         <v>3.3602903290844325E-5</v>
       </c>
       <c r="Q18" s="9">
@@ -15810,23 +15810,23 @@
         <v>0</v>
       </c>
       <c r="K19" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>NR</v>
+      </c>
+      <c r="M19" s="31">
         <f t="shared" si="8"/>
-        <v>+III</v>
-      </c>
-      <c r="M19" s="31">
+        <v>1</v>
+      </c>
+      <c r="N19" s="10">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N19" s="10">
+      <c r="O19" s="10">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="10">
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="10">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q19" s="9">
@@ -15874,23 +15874,23 @@
         <v>3.5162713021755284E-27</v>
       </c>
       <c r="K20" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>+III</v>
+      </c>
+      <c r="M20" s="31">
         <f t="shared" si="8"/>
-        <v>+III</v>
-      </c>
-      <c r="M20" s="31">
+        <v>1</v>
+      </c>
+      <c r="N20" s="10">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N20" s="10">
+      <c r="O20" s="10">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="10">
+        <v>1.0548813906526586E-26</v>
+      </c>
+      <c r="P20" s="10">
         <f t="shared" si="11"/>
-        <v>1.0548813906526586E-26</v>
-      </c>
-      <c r="P20" s="10">
-        <f t="shared" si="12"/>
         <v>1.0548813906526586E-26</v>
       </c>
       <c r="Q20" s="9">
@@ -15936,23 +15936,23 @@
         <v>0</v>
       </c>
       <c r="K21" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>NR</v>
+      </c>
+      <c r="M21" s="31">
         <f t="shared" si="8"/>
-        <v>+III</v>
-      </c>
-      <c r="M21" s="31">
+        <v>1</v>
+      </c>
+      <c r="N21" s="10">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N21" s="10">
+      <c r="O21" s="10">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="O21" s="10">
+        <v>0</v>
+      </c>
+      <c r="P21" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="10">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q21" s="9">
@@ -16000,23 +16000,23 @@
         <v>2.3920865202336532E-81</v>
       </c>
       <c r="K22" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>+III</v>
+      </c>
+      <c r="M22" s="31">
         <f t="shared" si="8"/>
-        <v>+III</v>
-      </c>
-      <c r="M22" s="31">
+        <v>1</v>
+      </c>
+      <c r="N22" s="10">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N22" s="10">
+      <c r="O22" s="10">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="O22" s="10">
+        <v>7.1762595607009601E-81</v>
+      </c>
+      <c r="P22" s="10">
         <f t="shared" si="11"/>
-        <v>7.1762595607009601E-81</v>
-      </c>
-      <c r="P22" s="10">
-        <f t="shared" si="12"/>
         <v>7.1762595607009601E-81</v>
       </c>
       <c r="Q22" s="9">
@@ -16062,23 +16062,23 @@
         <v>0</v>
       </c>
       <c r="K23" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>NR</v>
+      </c>
+      <c r="M23" s="31">
         <f t="shared" si="8"/>
-        <v>+III</v>
-      </c>
-      <c r="M23" s="31">
+        <v>1</v>
+      </c>
+      <c r="N23" s="10">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N23" s="10">
+      <c r="O23" s="10">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="O23" s="10">
+        <v>0</v>
+      </c>
+      <c r="P23" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="10">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q23" s="9">
@@ -16110,19 +16110,19 @@
       <c r="J24" s="10"/>
       <c r="K24" s="32"/>
       <c r="M24" s="31">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N24" s="10">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N24" s="10">
+      <c r="O24" s="10">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="O24" s="10">
+        <v>0</v>
+      </c>
+      <c r="P24" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="10">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q24" s="9">
@@ -16154,19 +16154,19 @@
       <c r="J25" s="10"/>
       <c r="K25" s="32"/>
       <c r="M25" s="31">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N25" s="10">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N25" s="10">
+      <c r="O25" s="10">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="O25" s="10">
+        <v>0</v>
+      </c>
+      <c r="P25" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="10">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q25" s="9">
@@ -16198,19 +16198,19 @@
       <c r="J26" s="10"/>
       <c r="K26" s="32"/>
       <c r="M26" s="31">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N26" s="10">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N26" s="10">
+      <c r="O26" s="10">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="O26" s="10">
+        <v>0</v>
+      </c>
+      <c r="P26" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q26" s="9">
@@ -16242,19 +16242,19 @@
       <c r="J27" s="10"/>
       <c r="K27" s="32"/>
       <c r="M27" s="31">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N27" s="10">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N27" s="10">
+      <c r="O27" s="10">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="O27" s="10">
+        <v>0</v>
+      </c>
+      <c r="P27" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q27" s="9">
@@ -16286,19 +16286,19 @@
       <c r="J28" s="15"/>
       <c r="K28" s="34"/>
       <c r="M28" s="31">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N28" s="10">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N28" s="10">
+      <c r="O28" s="10">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="O28" s="10">
+        <v>0</v>
+      </c>
+      <c r="P28" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="10">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q28" s="9">
@@ -16441,7 +16441,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="K11" sqref="K11:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16598,8 +16598,8 @@
         <v>0</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f t="shared" ref="K11:K23" si="0">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
-        <v>+III</v>
+        <f t="shared" ref="K11:K23" si="0">IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
+        <v>NR</v>
       </c>
       <c r="M11" s="31">
         <f t="shared" ref="M11:M28" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
@@ -16661,7 +16661,7 @@
       </c>
       <c r="K12" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M12" s="31">
         <f t="shared" si="1"/>
@@ -16723,7 +16723,7 @@
       </c>
       <c r="K13" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M13" s="31">
         <f t="shared" si="1"/>
@@ -16785,7 +16785,7 @@
       </c>
       <c r="K14" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M14" s="31">
         <f t="shared" si="1"/>
@@ -16847,7 +16847,7 @@
       </c>
       <c r="K15" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M15" s="31">
         <f t="shared" si="1"/>
@@ -16973,7 +16973,7 @@
       </c>
       <c r="K17" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M17" s="31">
         <f t="shared" si="1"/>
@@ -17099,7 +17099,7 @@
       </c>
       <c r="K19" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M19" s="31">
         <f t="shared" si="1"/>
@@ -17161,7 +17161,7 @@
       </c>
       <c r="K20" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M20" s="31">
         <f t="shared" si="1"/>
@@ -17223,7 +17223,7 @@
       </c>
       <c r="K21" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M21" s="31">
         <f t="shared" si="1"/>
@@ -17285,7 +17285,7 @@
       </c>
       <c r="K22" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M22" s="31">
         <f t="shared" si="1"/>
@@ -17347,7 +17347,7 @@
       </c>
       <c r="K23" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M23" s="31">
         <f t="shared" si="1"/>
@@ -17725,7 +17725,7 @@
   <dimension ref="B2:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="K11" sqref="K11:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17882,8 +17882,8 @@
         <v>0</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f t="shared" ref="K11:K12" si="0">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
-        <v>+III</v>
+        <f t="shared" ref="K11:K23" si="0">IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
+        <v>NR</v>
       </c>
       <c r="M11" s="31">
         <f t="shared" ref="M11:M12" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
@@ -17945,7 +17945,7 @@
       </c>
       <c r="K12" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M12" s="31">
         <f t="shared" si="1"/>
@@ -18006,15 +18006,15 @@
         <v>0</v>
       </c>
       <c r="K13" s="32" t="str">
-        <f t="shared" ref="K13:K23" si="8">IF(ISNUMBER($J13),S13,IF($T13,"D","ND"))</f>
-        <v>+III</v>
+        <f t="shared" si="0"/>
+        <v>NR</v>
       </c>
       <c r="M13" s="31">
-        <f t="shared" ref="M13:M23" si="9">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
+        <f t="shared" ref="M13:M23" si="8">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
         <v>1</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" ref="N13:N23" si="10">IF(J13="-",1,M13)</f>
+        <f t="shared" ref="N13:N23" si="9">IF(J13="-",1,M13)</f>
         <v>1</v>
       </c>
       <c r="O13" s="10">
@@ -18068,23 +18068,23 @@
         <v>0</v>
       </c>
       <c r="K14" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>NR</v>
+      </c>
+      <c r="M14" s="31">
         <f t="shared" si="8"/>
-        <v>+III</v>
-      </c>
-      <c r="M14" s="31">
+        <v>1</v>
+      </c>
+      <c r="N14" s="10">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N14" s="10">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
       <c r="O14" s="10">
-        <f t="shared" ref="O14:O23" si="11">IF(AND(F14="Geen faalkans",H14="Nee"),0,J14*$C$3)</f>
+        <f t="shared" ref="O14:O23" si="10">IF(AND(F14="Geen faalkans",H14="Nee"),0,J14*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" ref="P14:P23" si="12">IF(J14="-",0,O14)</f>
+        <f t="shared" ref="P14:P23" si="11">IF(J14="-",0,O14)</f>
         <v>0</v>
       </c>
       <c r="Q14" s="9">
@@ -18130,23 +18130,23 @@
         <v>0</v>
       </c>
       <c r="K15" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>NR</v>
+      </c>
+      <c r="M15" s="31">
         <f t="shared" si="8"/>
-        <v>+III</v>
-      </c>
-      <c r="M15" s="31">
+        <v>1</v>
+      </c>
+      <c r="N15" s="10">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N15" s="10">
+      <c r="O15" s="10">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="O15" s="10">
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="10">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q15" s="9">
@@ -18194,23 +18194,23 @@
         <v>3.6197976652558446E-9</v>
       </c>
       <c r="K16" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>+III</v>
+      </c>
+      <c r="M16" s="31">
         <f t="shared" si="8"/>
-        <v>+III</v>
-      </c>
-      <c r="M16" s="31">
+        <v>0.99999999638020232</v>
+      </c>
+      <c r="N16" s="10">
         <f t="shared" si="9"/>
         <v>0.99999999638020232</v>
       </c>
-      <c r="N16" s="10">
+      <c r="O16" s="10">
         <f t="shared" si="10"/>
-        <v>0.99999999638020232</v>
-      </c>
-      <c r="O16" s="10">
+        <v>7.2395953305116892E-9</v>
+      </c>
+      <c r="P16" s="10">
         <f t="shared" si="11"/>
-        <v>7.2395953305116892E-9</v>
-      </c>
-      <c r="P16" s="10">
-        <f t="shared" si="12"/>
         <v>7.2395953305116892E-9</v>
       </c>
       <c r="Q16" s="9">
@@ -18256,23 +18256,23 @@
         <v>0</v>
       </c>
       <c r="K17" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>NR</v>
+      </c>
+      <c r="M17" s="31">
         <f t="shared" si="8"/>
-        <v>+III</v>
-      </c>
-      <c r="M17" s="31">
+        <v>1</v>
+      </c>
+      <c r="N17" s="10">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N17" s="10">
+      <c r="O17" s="10">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="10">
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="10">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q17" s="9">
@@ -18318,23 +18318,23 @@
         <v>0</v>
       </c>
       <c r="K18" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>NR</v>
+      </c>
+      <c r="M18" s="31">
         <f t="shared" si="8"/>
-        <v>+III</v>
-      </c>
-      <c r="M18" s="31">
+        <v>1</v>
+      </c>
+      <c r="N18" s="10">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N18" s="10">
+      <c r="O18" s="10">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="O18" s="10">
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="10">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q18" s="9">
@@ -18380,23 +18380,23 @@
         <v>0</v>
       </c>
       <c r="K19" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>NR</v>
+      </c>
+      <c r="M19" s="31">
         <f t="shared" si="8"/>
-        <v>+III</v>
-      </c>
-      <c r="M19" s="31">
+        <v>1</v>
+      </c>
+      <c r="N19" s="10">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N19" s="10">
+      <c r="O19" s="10">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="10">
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="10">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q19" s="9">
@@ -18442,23 +18442,23 @@
         <v>0</v>
       </c>
       <c r="K20" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>NR</v>
+      </c>
+      <c r="M20" s="31">
         <f t="shared" si="8"/>
-        <v>+III</v>
-      </c>
-      <c r="M20" s="31">
+        <v>1</v>
+      </c>
+      <c r="N20" s="10">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N20" s="10">
+      <c r="O20" s="10">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="10">
+        <v>0</v>
+      </c>
+      <c r="P20" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="10">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q20" s="9">
@@ -18504,23 +18504,23 @@
         <v>0</v>
       </c>
       <c r="K21" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>NR</v>
+      </c>
+      <c r="M21" s="31">
         <f t="shared" si="8"/>
-        <v>+III</v>
-      </c>
-      <c r="M21" s="31">
+        <v>1</v>
+      </c>
+      <c r="N21" s="10">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N21" s="10">
+      <c r="O21" s="10">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="O21" s="10">
+        <v>0</v>
+      </c>
+      <c r="P21" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="10">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q21" s="9">
@@ -18566,23 +18566,23 @@
         <v>0</v>
       </c>
       <c r="K22" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>NR</v>
+      </c>
+      <c r="M22" s="31">
         <f t="shared" si="8"/>
-        <v>+III</v>
-      </c>
-      <c r="M22" s="31">
+        <v>1</v>
+      </c>
+      <c r="N22" s="10">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N22" s="10">
+      <c r="O22" s="10">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="O22" s="10">
+        <v>0</v>
+      </c>
+      <c r="P22" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="10">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q22" s="9">
@@ -18628,23 +18628,23 @@
         <v>0</v>
       </c>
       <c r="K23" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>NR</v>
+      </c>
+      <c r="M23" s="31">
         <f t="shared" si="8"/>
-        <v>+III</v>
-      </c>
-      <c r="M23" s="31">
+        <v>1</v>
+      </c>
+      <c r="N23" s="10">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N23" s="10">
+      <c r="O23" s="10">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="O23" s="10">
+        <v>0</v>
+      </c>
+      <c r="P23" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="10">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q23" s="9">
